--- a/static/datasets/final data.xlsx
+++ b/static/datasets/final data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/static/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E4ACAABA-9483-4210-A7DD-EC89AF22F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCA16DE-A3F2-4E4A-8535-5F9783A47162}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{E4ACAABA-9483-4210-A7DD-EC89AF22F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041326A2-574B-4AC9-9922-34524E487A36}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>disease</t>
   </si>
@@ -185,9 +185,6 @@
     <t>social anxiety disorder</t>
   </si>
   <si>
-    <t>stings</t>
-  </si>
-  <si>
     <t>sunburn</t>
   </si>
   <si>
@@ -354,24 +351,6 @@
   </si>
   <si>
     <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
-  </si>
-  <si>
-    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus
-Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly
-Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective
-Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
-Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
-Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
-Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
-Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
-  </si>
-  <si>
-    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin. Avoid certain products, such as facial scrubs, astringents and masks. They tend to irritate the skin, which can worsen acne. Too much washing and scrubbing also can irritate the skin.
-Try over-the-counter acne products to dry excess oil and promote peeling. Look for products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments. Nonprescription acne medications may cause initial side effects such as redness, dryness and scaling that often improve after the first month of using them.
-Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
-Protect your skin from the sun. For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Check with your doctor to see if your medication is one of these. If it is, stay out of the sun as much as possible. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
-Avoid friction or pressure on your skin. Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
-Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.', 'Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
   </si>
   <si>
     <t>Rest. This will help your body fight infection and speed recovery.
@@ -379,2756 +358,6 @@
 Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
 Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
 Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.</t>
-  </si>
-  <si>
-    <t>Sinus congestion and hay fever symptoms. These often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution. You can use a neti pot or a specially designed squeeze bottle to flush out thickened mucus and irritants from your nose. However, improper use of a neti pot or other device can lead to infection.
-Household airborne allergy symptoms. Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
-Mold allergy symptoms. Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
-  </si>
-  <si>
-    <t>["How long do you think you've had body lice?", 'What are your symptoms?', 'How were you infested with body lice?', 'Have you been in contact with others since noticing the body lice? What treatments have you tried?', 'Do you have any chronic health problems?', 'What medications and supplements do you take?']</t>
-  </si>
-  <si>
-    <t>Overview.
-Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
-Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
-Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.
-Symptoms.
-Common signs and symptoms of GERD include:
-A burning sensation in your chest (heartburn), usually after eating, which might be worse at night or while lying down
-Backwash (regurgitation) of food or sour liquid
-Upper abdominal or chest pain
-Trouble swallowing (dysphagia)
-Sensation of a lump in your throat.
-A burning sensation in your chest (heartburn), usually after eating, which might be worse at night or while lying down.
-Backwash (regurgitation) of food or sour liquid.
-Upper abdominal or chest pain.
-Trouble swallowing (dysphagia).
-Sensation of a lump in your throat.
-If you have nighttime acid reflux, you might also experience:
-An ongoing cough
-Inflammation of the vocal cords (laryngitis)
-New or worsening asthma.
-An ongoing cough.
-Inflammation of the vocal cords (laryngitis).
-New or worsening asthma.
-Seek immediate medical care if you have chest pain, especially if you also have shortness of breath, or jaw or arm pain. These may be signs and symptoms of a heart attack.
-Make an appointment with your doctor if you:
-Experience severe or frequent GERD symptoms
-Take over-the-counter medications for heartburn more than twice a week.
-Experience severe or frequent GERD symptoms.
-Take over-the-counter medications for heartburn more than twice a week.
-Subscribe for free and receive your in-depth guide to digestive health, plus the latest on health innovations and news. You can unsubscribe at any time.
-Causes.
-GERD is caused by frequent acid reflux or reflux of nonacidic content from the stomach.
-When you swallow, a circular band of muscle around the bottom of your esophagus (lower esophageal sphincter) relaxes to allow food and liquid to flow into your stomach. Then the sphincter closes again.
-If the sphincter does not relax as it should or it weakens, stomach acid can flow back into your esophagus. This constant backwash of acid irritates the lining of your esophagus, often causing it to become inflamed.
-Risk factors.
-Conditions that can increase your risk of GERD include:
-Obesity
-Bulging of the top of the stomach up above the diaphragm (hiatal hernia)
-Pregnancy
-Connective tissue disorders, such as scleroderma
-Delayed stomach emptying.
-Obesity.
-Bulging of the top of the stomach up above the diaphragm (hiatal hernia).
-Pregnancy.
-Connective tissue disorders, such as scleroderma.
-Delayed stomach emptying.
-Factors that can aggravate acid reflux include:
-Smoking
-Eating large meals or eating late at night
-Eating certain foods (triggers) such as fatty or fried foods
-Drinking certain beverages, such as alcohol or coffee
-Taking certain medications, such as aspirin.
-Smoking.
-Eating large meals or eating late at night.
-Eating certain foods (triggers) such as fatty or fried foods.
-Drinking certain beverages, such as alcohol or coffee.
-Taking certain medications, such as aspirin.
-Complications.
-Over time, chronic inflammation in your esophagus can cause:
-Inflammation of the tissue in the esophagus (esophagitis). Stomach acid can break down tissue in the esophagus, causing inflammation, bleeding, and sometimes an open sore (ulcer). Esophagitis can cause pain and make swallowing difficult.
-Narrowing of the esophagus (esophageal stricture). Damage to the lower esophagus from stomach acid causes scar tissue to form. The scar tissue narrows the food pathway, leading to problems with swallowing.
-Precancerous changes to the esophagus (Barrett esophagus). Damage from acid can cause changes in the tissue lining the lower esophagus. These changes are associated with an increased risk of esophageal cancer.
-Inflammation of the tissue in the esophagus (esophagitis). Stomach acid can break down tissue in the esophagus, causing inflammation, bleeding, and sometimes an open sore (ulcer). Esophagitis can cause pain and make swallowing difficult.
-Narrowing of the esophagus (esophageal stricture). Damage to the lower esophagus from stomach acid causes scar tissue to form. The scar tissue narrows the food pathway, leading to problems with swallowing.
-Precancerous changes to the esophagus (Barrett esophagus). Damage from acid can cause changes in the tissue lining the lower esophagus. These changes are associated with an increased risk of esophageal cancer.</t>
-  </si>
-  <si>
-    <t>Overview.
-Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
-Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
-Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
-Symptoms.
-Acne signs vary depending on the severity of your condition:
-Whiteheads (closed plugged pores)
-Blackheads (open plugged pores)
-Small red, tender bumps (papules)
-Pimples (pustules), which are papules with pus at their tips
-Large, solid, painful lumps under the skin (nodules)
-Painful, pus-filled lumps under the skin (cystic lesions).
-Whiteheads (closed plugged pores).
-Blackheads (open plugged pores).
-Small red, tender bumps (papules).
-Pimples (pustules), which are papules with pus at their tips.
-Large, solid, painful lumps under the skin (nodules).
-Painful, pus-filled lumps under the skin (cystic lesions).
-Acne usually appears on the face, forehead, chest, upper back and shoulders.
-If self-care remedies don't clear your acne, see your primary care doctor. He or she can prescribe stronger medications. If acne persists or is severe, you may want to seek medical treatment from a doctor who specializes in the skin (dermatologist or pediatric dermatologist).
-For many women, acne can persist for decades, with flares common a week before menstruation. This type of acne tends to clear up without treatment in women who use contraceptives.
-In older adults, a sudden onset of severe acne may signal an underlying disease requiring medical attention.
-The Food and Drug Administration (FDA) warns that some popular nonprescription acne lotions, cleansers and other skin products can cause a serious reaction. This type of reaction is quite rare, so don't confuse it with any redness, irritation or itchiness that occurs in areas where you've applied medications or products.
-Seek emergency medical help if after using a skin product you experience:
-Faintness
-Difficulty breathing
-Swelling of the eyes, face, lips or tongue
-Tightness of the throat.
-Faintness.
-Difficulty breathing.
-Swelling of the eyes, face, lips or tongue.
-Tightness of the throat.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Four main factors cause acne:
-Excess oil (sebum) production
-Hair follicles clogged by oil and dead skin cells
-Bacteria
-Inflammation.
-Excess oil (sebum) production.
-Hair follicles clogged by oil and dead skin cells.
-Bacteria.
-Inflammation.
-Acne typically appears on your face, forehead, chest, upper back and shoulders because these areas of skin have the most oil (sebaceous) glands. Hair follicles are connected to oil glands.
-The follicle wall may bulge and produce a whitehead. Or the plug may be open to the surface and darken, causing a blackhead. A blackhead may look like dirt stuck in pores. But actually the pore is congested with bacteria and oil, which turns brown when it's exposed to the air.
-Pimples are raised red spots with a white center that develop when blocked hair follicles become inflamed or infected with bacteria. Blockages and inflammation deep inside hair follicles produce cystlike lumps beneath the surface of your skin. Other pores in your skin, which are the openings of the sweat glands, aren't usually involved in acne.
-Certain things may trigger or worsen acne:
-Hormonal changes. Androgens are hormones that increase in boys and girls during puberty and cause the sebaceous glands to enlarge and make more sebum. Hormone changes during midlife, particularly in women, can lead to breakouts too.
-Certain medications. Examples include drugs containing corticosteroids, testosterone or lithium.
-Diet. Studies indicate that consuming certain foods — including carbohydrate-rich foods, such as bread, bagels and chips — may worsen acne. Further study is needed to examine whether people with acne would benefit from following specific dietary restrictions.
-Stress. Stress doesn't cause acne, but if you have acne already, stress may make it worse.
-Hormonal changes. Androgens are hormones that increase in boys and girls during puberty and cause the sebaceous glands to enlarge and make more sebum. Hormone changes during midlife, particularly in women, can lead to breakouts too.
-Certain medications. Examples include drugs containing corticosteroids, testosterone or lithium.
-Diet. Studies indicate that consuming certain foods — including carbohydrate-rich foods, such as bread, bagels and chips — may worsen acne. Further study is needed to examine whether people with acne would benefit from following specific dietary restrictions.
-Stress. Stress doesn't cause acne, but if you have acne already, stress may make it worse.
-These factors have little effect on acne:
-Chocolate and greasy foods. Eating chocolate or greasy food has little to no effect on acne.
-Hygiene. Acne isn't caused by dirty skin. In fact, scrubbing the skin too hard or cleansing with harsh soaps or chemicals irritates the skin and can make acne worse.
-Cosmetics. Cosmetics don't necessarily worsen acne, especially if you use oil-free makeup that doesn't clog pores (noncomedogenics) and remove makeup regularly. Nonoily cosmetics don't interfere with the effectiveness of acne drugs.
-Chocolate and greasy foods. Eating chocolate or greasy food has little to no effect on acne.
-Hygiene. Acne isn't caused by dirty skin. In fact, scrubbing the skin too hard or cleansing with harsh soaps or chemicals irritates the skin and can make acne worse.
-Cosmetics. Cosmetics don't necessarily worsen acne, especially if you use oil-free makeup that doesn't clog pores (noncomedogenics) and remove makeup regularly. Nonoily cosmetics don't interfere with the effectiveness of acne drugs.
-Complications.
-People with darker skin types are more likely than are people with lighter skin to experience these acne complications:
-Scars. Pitted skin (acne scars) and thick scars (keloids) can remain long-term after acne has healed.
-Skin changes. After acne has cleared, the affected skin may be darker (hyperpigmented) or lighter (hypopigmented) than before the condition occurred.
-Scars. Pitted skin (acne scars) and thick scars (keloids) can remain long-term after acne has healed.
-Skin changes. After acne has cleared, the affected skin may be darker (hyperpigmented) or lighter (hypopigmented) than before the condition occurred.
-Risk factors.
-Risk factors for acne include:
-Age. People of all ages can get acne, but it's most common in teenagers.
-Hormonal changes. Such changes are common during puberty or pregnancy.
-Family history. Genetics plays a role in acne. If both of your parents had acne, you're likely to develop it too.
-Greasy or oily substances. You may develop acne where your skin comes into contact with oil or oily lotions and creams.
-Friction or pressure on your skin. This can be caused by items such as telephones, cellphones, helmets, tight collars and backpacks.
-Age. People of all ages can get acne, but it's most common in teenagers.
-Hormonal changes. Such changes are common during puberty or pregnancy.
-Family history. Genetics plays a role in acne. If both of your parents had acne, you're likely to develop it too.
-Greasy or oily substances. You may develop acne where your skin comes into contact with oil or oily lotions and creams.
-Friction or pressure on your skin. This can be caused by items such as telephones, cellphones, helmets, tight collars and backpacks.</t>
-  </si>
-  <si>
-    <t>Overview.
-Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
-With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
-Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
-Symptoms.
-Acute sinusitis signs and symptoms often include:
-Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over.
-Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage).
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose.
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over.
-Other signs and symptoms include:
-Ear pressure
-Headache
-Aching in your teeth
-Altered sense of smell
-Cough
-Bad breath
-Fatigue
-Fever.
-Ear pressure.
-Headache.
-Aching in your teeth.
-Altered sense of smell.
-Cough.
-Bad breath.
-Fatigue.
-Fever.
-Most people with acute sinusitis don't need to see a doctor.
-Contact your doctor if you have any of the following:
-Symptoms that last more than a week or so
-Symptoms that worsen after seeming to improve
-A persistent fever
-A history of recurrent or chronic sinusitis.
-Symptoms that last more than a week or so.
-Symptoms that worsen after seeming to improve.
-A persistent fever.
-A history of recurrent or chronic sinusitis.
-See a doctor immediately if you have signs or symptoms that may indicate a serious infection:
-Pain, swelling or redness around your eyes
-High fever
-Confusion
-Double vision or other vision changes
-Stiff neck.
-Pain, swelling or redness around your eyes.
-High fever.
-Confusion.
-Double vision or other vision changes.
-Stiff neck.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Acute sinusitis is most often caused by the common cold, which is an infection with a virus. In some cases, an infection with bacteria develops.
-Risk factors.
-You may be at increased risk of getting sinusitis if you have:
-Hay fever or another allergic condition that affects your sinuses
-A common cold that affects your sinuses
-A nasal passage abnormality, such as a deviated nasal septum, nasal polyps or tumors
-A medical condition such as cystic fibrosis or an immune system disorder such as HIV/AIDS
-Exposure to smoke, either from smoking or through secondhand smoke exposure.
-Hay fever or another allergic condition that affects your sinuses.
-A common cold that affects your sinuses.
-A nasal passage abnormality, such as a deviated nasal septum, nasal polyps or tumors.
-A medical condition such as cystic fibrosis or an immune system disorder such as HIV/AIDS.
-Exposure to smoke, either from smoking or through secondhand smoke exposure.
-Complications.
-Acute sinusitis complications are uncommon, and serious complications are rare. If they occur, complications might include:
-Chronic sinusitis. Acute sinusitis may be a flare-up of a long-term problem known as chronic sinusitis. Chronic sinusitis lasts longer than 12 weeks.
-Meningitis. This infection causes inflammation of the membranes and fluid surrounding your brain and spinal cord.
-Other infections. Uncommonly, an infection can spread to the bones (osteomyelitis) or skin (cellulitis).
-Vision problems. If the infection spreads to your eye socket, it can cause reduced vision or even blindness that can be permanent.
-Chronic sinusitis. Acute sinusitis may be a flare-up of a long-term problem known as chronic sinusitis. Chronic sinusitis lasts longer than 12 weeks.
-Meningitis. This infection causes inflammation of the membranes and fluid surrounding your brain and spinal cord.
-Other infections. Uncommonly, an infection can spread to the bones (osteomyelitis) or skin (cellulitis).
-Vision problems. If the infection spreads to your eye socket, it can cause reduced vision or even blindness that can be permanent.
-Prevention.
-Take these steps to help reduce your risk of getting acute sinusitis:
-Avoid upper respiratory infections. Try to stay away from people who have colds or who are sick with other infections. Wash your hands frequently with soap and water, especially before your meals.
-Manage your allergies. Work with your doctor to keep symptoms under control.
-Avoid cigarette smoke and polluted air. Tobacco smoke and other pollutants can irritate and inflame your lungs and nasal passages.
-Use a humidifier. If the air in your home is dry, such as it is if you have forced-air heat, adding moisture to the air may help prevent sinusitis. Be sure the humidifier stays clean and free of mold with regular, thorough cleaning.
-Avoid upper respiratory infections. Try to stay away from people who have colds or who are sick with other infections. Wash your hands frequently with soap and water, especially before your meals.
-Manage your allergies. Work with your doctor to keep symptoms under control.
-Avoid cigarette smoke and polluted air. Tobacco smoke and other pollutants can irritate and inflame your lungs and nasal passages.
-Use a humidifier. If the air in your home is dry, such as it is if you have forced-air heat, adding moisture to the air may help prevent sinusitis. Be sure the humidifier stays clean and free of mold with regular, thorough cleaning.</t>
-  </si>
-  <si>
-    <t>Overview.
-Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
-Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
-The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
-Symptoms.
-Allergy symptoms, which depend on the substance involved, can affect your airways, sinuses and nasal passages, skin, and digestive system. Allergic reactions can range from mild to severe. In some severe cases, allergies can trigger a life-threatening reaction known as anaphylaxis.
-Hay fever, also called allergic rhinitis, can cause:
-Sneezing
-Itching of the nose, eyes or roof of the mouth
-Runny, stuffy nose
-Watery, red or swollen eyes (conjunctivitis).
-Sneezing.
-Itching of the nose, eyes or roof of the mouth.
-Runny, stuffy nose.
-Watery, red or swollen eyes (conjunctivitis).
-A food allergy can cause:
-Tingling in the mouth
-Swelling of the lips, tongue, face or throat
-Hives
-Anaphylaxis.
-Tingling in the mouth.
-Swelling of the lips, tongue, face or throat.
-Hives.
-Anaphylaxis.
-An insect sting allergy can cause:
-A large area of swelling (edema) at the sting site
-Itching or hives all over the body
-Cough, chest tightness, wheezing or shortness of breath
-Anaphylaxis.
-A large area of swelling (edema) at the sting site.
-Itching or hives all over the body.
-Cough, chest tightness, wheezing or shortness of breath.
-Anaphylaxis.
-A drug allergy can cause:
-Hives
-Itchy skin
-Rash
-Facial swelling
-Wheezing
-Anaphylaxis.
-Hives.
-Itchy skin.
-Rash.
-Facial swelling.
-Wheezing.
-Anaphylaxis.
-Atopic dermatitis, an allergic skin condition also called eczema, can cause skin to:
-Itch
-Redden
-Flake or peel.
-Itch.
-Redden.
-Flake or peel.
-Some types of allergies, including allergies to foods and insect stings, can trigger a severe reaction known as anaphylaxis. A life-threatening medical emergency, anaphylaxis can cause you to go into shock. Signs and symptoms of anaphylaxis include:
-Loss of consciousness
-A drop in blood pressure
-Severe shortness of breath
-Skin rash
-Lightheadedness
-A rapid, weak pulse
-Nausea and vomiting.
-Loss of consciousness.
-A drop in blood pressure.
-Severe shortness of breath.
-Skin rash.
-Lightheadedness.
-A rapid, weak pulse.
-Nausea and vomiting.
-You might see your health care provider if you have symptoms you think are caused by an allergy, and nonprescription allergy medications don't provide enough relief. If you have symptoms after starting a new medication, call the provider who prescribed it right away.
-For a severe allergic reaction (anaphylaxis), call 911 or your local emergency number or seek emergency medical help. If you carry an epinephrine auto-injector (Auvi-Q, EpiPen, others), give yourself a shot right away.
-Even if your symptoms improve after an epinephrine injection, you should go to the emergency department to make sure symptoms don't return when the effects of the injection wear off.
-If you've had a severe allergy attack or any signs and symptoms of anaphylaxis in the past, make an appointment to see your health care provider. Evaluation, diagnosis and long-term management of anaphylaxis are complicated, so you'll probably need to see a provider who specializes in allergies and immunology.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-An allergy starts when your immune system mistakes a normally harmless substance for a dangerous invader. The immune system then produces antibodies that remain on the alert for that particular allergen. When you're exposed to the allergen again, these antibodies can release a number of immune system chemicals, such as histamine, that cause allergy symptoms.
-Common allergy triggers include:
-Airborne allergens, such as pollen, animal dander, dust mites and mold
-Certain foods, particularly peanuts, tree nuts, wheat, soy, fish, shellfish, eggs and milk
-Insect stings, such as from a bee or wasp
-Medications, particularly penicillin or penicillin-based antibiotics
-Latex or other substances you touch, which can cause allergic skin reactions.
-Airborne allergens, such as pollen, animal dander, dust mites and mold.
-Certain foods, particularly peanuts, tree nuts, wheat, soy, fish, shellfish, eggs and milk.
-Insect stings, such as from a bee or wasp.
-Medications, particularly penicillin or penicillin-based antibiotics.
-Latex or other substances you touch, which can cause allergic skin reactions.
-Risk factors.
-You might be more likely to develop an allergy if you:
-Have a family history of asthma or allergies, such as hay fever, hives or eczema
-Are a child
-Have asthma or another allergic condition.
-Have a family history of asthma or allergies, such as hay fever, hives or eczema.
-Are a child.
-Have asthma or another allergic condition.
-Complications.
-Having an allergy increases your risk of certain other medical problems, including:
-Anaphylaxis. If you have severe allergies, you're at increased risk of this serious allergy-induced reaction. Foods, medications and insect stings are the most common triggers of anaphylaxis.
-Asthma. If you have an allergy, you're more likely to have asthma — an immune system reaction that affects the airways and breathing. In many cases, asthma is triggered by exposure to an allergen in the environment (allergy-induced asthma).
-Sinusitis and infections of the ears or lungs. Your risk of getting these conditions is higher if you have hay fever or asthma.
-Anaphylaxis. If you have severe allergies, you're at increased risk of this serious allergy-induced reaction. Foods, medications and insect stings are the most common triggers of anaphylaxis.
-Asthma. If you have an allergy, you're more likely to have asthma — an immune system reaction that affects the airways and breathing. In many cases, asthma is triggered by exposure to an allergen in the environment (allergy-induced asthma).
-Sinusitis and infections of the ears or lungs. Your risk of getting these conditions is higher if you have hay fever or asthma.
-Prevention.
-Preventing allergic reactions depends on the type of allergy you have. General measures include the following:
-Avoid known triggers. Even if you're treating your allergy symptoms, try to avoid triggers. If, for instance, you're allergic to pollen, stay inside with windows and doors closed when pollen is high. If you're allergic to dust mites, dust and vacuum and wash bedding often.
-Keep a diary. When trying to identify what causes or worsens your allergic symptoms, track your activities and what you eat, when symptoms occur and what seems to help. This may help you and your provider identify triggers.
-Wear a medical alert bracelet. If you've had a severe allergic reaction, a medical alert bracelet (or necklace) lets others know that you have a serious allergy in case you have a reaction and you're unable to communicate.
-Avoid known triggers. Even if you're treating your allergy symptoms, try to avoid triggers. If, for instance, you're allergic to pollen, stay inside with windows and doors closed when pollen is high. If you're allergic to dust mites, dust and vacuum and wash bedding often.
-Keep a diary. When trying to identify what causes or worsens your allergic symptoms, track your activities and what you eat, when symptoms occur and what seems to help. This may help you and your provider identify triggers.
-Wear a medical alert bracelet. If you've had a severe allergic reaction, a medical alert bracelet (or necklace) lets others know that you have a serious allergy in case you have a reaction and you're unable to communicate.</t>
-  </si>
-  <si>
-    <t>Overview.
-Hair loss (alopecia) can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
-Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
-Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
-Symptoms.
-Hair loss can appear in many different ways, depending on what's causing it. It can come on suddenly or gradually and affect just your scalp or your whole body.
-Signs and symptoms of hair loss may include:
-Gradual thinning on top of head. This is the most common type of hair loss, affecting people as they age. In men, hair often begins to recede at the hairline on the forehead. Women typically have a broadening of the part in their hair. An increasingly common hair loss pattern in older women is a receding hairline (frontal fibrosing alopecia).
-Circular or patchy bald spots. Some people lose hair in circular or patchy bald spots on the scalp, beard or eyebrows. Your skin may become itchy or painful before the hair falls out.
-Sudden loosening of hair. A physical or emotional shock can cause hair to loosen. Handfuls of hair may come out when combing or washing your hair or even after gentle tugging. This type of hair loss usually causes overall hair thinning but is temporary.
-Full-body hair loss. Some conditions and medical treatments, such as chemotherapy for cancer, can result in the loss of hair all over your body. The hair usually grows back.
-Patches of scaling that spread over the scalp. This is a sign of ringworm. It may be accompanied by broken hair, redness, swelling and, at times, oozing.
-Gradual thinning on top of head. This is the most common type of hair loss, affecting people as they age. In men, hair often begins to recede at the hairline on the forehead. Women typically have a broadening of the part in their hair. An increasingly common hair loss pattern in older women is a receding hairline (frontal fibrosing alopecia).
-Circular or patchy bald spots. Some people lose hair in circular or patchy bald spots on the scalp, beard or eyebrows. Your skin may become itchy or painful before the hair falls out.
-Sudden loosening of hair. A physical or emotional shock can cause hair to loosen. Handfuls of hair may come out when combing or washing your hair or even after gentle tugging. This type of hair loss usually causes overall hair thinning but is temporary.
-Full-body hair loss. Some conditions and medical treatments, such as chemotherapy for cancer, can result in the loss of hair all over your body. The hair usually grows back.
-Patches of scaling that spread over the scalp. This is a sign of ringworm. It may be accompanied by broken hair, redness, swelling and, at times, oozing.
-See your doctor if you are distressed by persistent hair loss in you or your child and want to pursue treatment. For women who are experiencing a receding hairline (frontal fibrosing alopecia), talk with your doctor about early treatment to avoid significant permanent baldness.
-Also talk to your doctor if you notice sudden or patchy hair loss or more than usual hair loss when combing or washing your or your child's hair. Sudden hair loss can signal an underlying medical condition that requires treatment.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-People typically lose 50 to 100 hairs a day. This usually isn't noticeable because new hair is growing in at the same time. Hair loss occurs when new hair doesn't replace the hair that has fallen out.
-Hair loss is typically related to one or more of the following factors:
-Family history (heredity). The most common cause of hair loss is a hereditary condition that happens with aging. This condition is called androgenic alopecia, male-pattern baldness and female-pattern baldness. It usually occurs gradually and in predictable patterns — a receding hairline and bald spots in men and thinning hair along the crown of the scalp in women.
-Hormonal changes and medical conditions. A variety of conditions can cause permanent or temporary hair loss, including hormonal changes due to pregnancy, childbirth, menopause and thyroid problems. Medical conditions include alopecia areata (al-o-PEE-she-uh ar-e-A-tuh), which is immune system related and causes patchy hair loss, scalp infections such as ringworm, and a hair-pulling disorder called trichotillomania (trik-o-til-o-MAY-nee-uh).
-Medications and supplements. Hair loss can be a side effect of certain drugs, such as those used for cancer, arthritis, depression, heart problems, gout and high blood pressure.
-Radiation therapy to the head. The hair may not grow back the same as it was before.
-A very stressful event. Many people experience a general thinning of hair several months after a physical or emotional shock. This type of hair loss is temporary.
-Hairstyles and treatments. Excessive hairstyling or hairstyles that pull your hair tight, such as pigtails or cornrows, can cause a type of hair loss called traction alopecia. Hot-oil hair treatments and permanents also can cause hair to fall out. If scarring occurs, hair loss could be permanent.
-Family history (heredity). The most common cause of hair loss is a hereditary condition that happens with aging. This condition is called androgenic alopecia, male-pattern baldness and female-pattern baldness. It usually occurs gradually and in predictable patterns — a receding hairline and bald spots in men and thinning hair along the crown of the scalp in women.
-Hormonal changes and medical conditions. A variety of conditions can cause permanent or temporary hair loss, including hormonal changes due to pregnancy, childbirth, menopause and thyroid problems. Medical conditions include alopecia areata (al-o-PEE-she-uh ar-e-A-tuh), which is immune system related and causes patchy hair loss, scalp infections such as ringworm, and a hair-pulling disorder called trichotillomania (trik-o-til-o-MAY-nee-uh).
-Medications and supplements. Hair loss can be a side effect of certain drugs, such as those used for cancer, arthritis, depression, heart problems, gout and high blood pressure.
-Radiation therapy to the head. The hair may not grow back the same as it was before.
-A very stressful event. Many people experience a general thinning of hair several months after a physical or emotional shock. This type of hair loss is temporary.
-Hairstyles and treatments. Excessive hairstyling or hairstyles that pull your hair tight, such as pigtails or cornrows, can cause a type of hair loss called traction alopecia. Hot-oil hair treatments and permanents also can cause hair to fall out. If scarring occurs, hair loss could be permanent.
-Risk factors.
-A number of factors can increase your risk of hair loss, including:
-A family history of balding on your mother's or father's side
-Age
-Significant weight loss
-Certain medical conditions, such as diabetes and lupus
-Stress
-Poor nutrition.
-A family history of balding on your mother's or father's side.
-Age.
-Significant weight loss.
-Certain medical conditions, such as diabetes and lupus.
-Stress.
-Poor nutrition.
-Prevention.
-Most baldness is caused by genetics (male-pattern baldness and female-pattern baldness). This type of hair loss is not preventable.
-These tips may help you avoid preventable types of hair loss:
-Be gentle with your hair. Use a detangler and avoid tugging when brushing and combing, especially when your hair is wet. A wide-toothed comb might help prevent pulling out hair. Avoid harsh treatments such as hot rollers, curling irons, hot-oil treatments and permanents. Limit the tension on hair from styles that use rubber bands, barrettes and braids.
-Ask your doctor about medications and supplements you take that might cause hair loss.
-Protect your hair from sunlight and other sources of ultraviolet light.
-Stop smoking. Some studies show an association between smoking and baldness in men.
-If you're being treated with chemotherapy, ask your doctor about a cooling cap. This cap can reduce your risk of losing hair during chemotherapy.
-Be gentle with your hair. Use a detangler and avoid tugging when brushing and combing, especially when your hair is wet. A wide-toothed comb might help prevent pulling out hair. Avoid harsh treatments such as hot rollers, curling irons, hot-oil treatments and permanents. Limit the tension on hair from styles that use rubber bands, barrettes and braids.
-Ask your doctor about medications and supplements you take that might cause hair loss.
-Protect your hair from sunlight and other sources of ultraviolet light.
-Stop smoking. Some studies show an association between smoking and baldness in men.
-If you're being treated with chemotherapy, ask your doctor about a cooling cap. This cap can reduce your risk of losing hair during chemotherapy.</t>
-  </si>
-  <si>
-    <t>Overview.
-Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
-Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
-Symptoms.
-Bad breath odors vary, depending on the source or the underlying cause. Some people worry too much about their breath even though they have little or no mouth odor, while others have bad breath and don't know it. Because it's difficult to assess how your own breath smells, ask a close friend or relative to confirm your bad-breath questions.
-If you have bad breath, review your oral hygiene habits. Try making lifestyle changes, such as brushing your teeth and tongue after eating, using dental floss, and drinking plenty of water.
-If your bad breath persists after making such changes, see your dentist. If your dentist suspects a more serious condition is causing your bad breath, he or she may refer you to a physician to find the cause of the odor.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Most bad breath starts in your mouth, and there are many possible causes. They include:
-Food. The breakdown of food particles in and around your teeth can increase bacteria and cause a foul odor. Eating certain foods, such as onions, garlic and spices, also can cause bad breath. After you digest these foods, they enter your bloodstream, are carried to your lungs and affect your breath.
-Tobacco products. Smoking causes its own unpleasant mouth odor. Smokers and oral tobacco users are also more likely to have gum disease, another source of bad breath.
-Poor dental hygiene. If you don't brush and floss daily, food particles remain in your mouth, causing bad breath. A colorless, sticky film of bacteria (plaque) forms on your teeth. If not brushed away, plaque can irritate your gums and eventually form plaque-filled pockets between your teeth and gums (periodontitis). Your tongue also can trap bacteria that produce odors. Dentures that aren't cleaned regularly or don't fit properly can harbor odor-causing bacteria and food particles.
-Dry mouth. Saliva helps cleanse your mouth, removing particles that cause bad odors. A condition called dry mouth or xerostomia (zeer–o-STOE-me-uh) can contribute to bad breath because production of saliva is decreased. Dry mouth naturally occurs during sleep, leading to "morning breath," and it worsens if you sleep with your mouth open. Chronic dry mouth can be caused by a problem with your salivary glands and some diseases.
-Medications. Some medications can indirectly produce bad breath by contributing to dry mouth. Others can be broken down in the body to release chemicals that can be carried on your breath.
-Infections in your mouth. Bad breath can be caused by surgical wounds after oral surgery, such as tooth removal, or as a result of tooth decay, gum disease or mouth sores.
-Other mouth, nose and throat conditions. Bad breath can occasionally stem from small stones that form in the tonsils and are covered with bacteria that produce odor. Infections or chronic inflammation in the nose, sinuses or throat, which can contribute to postnasal drip, also can cause bad breath.
-Other causes. Diseases, such as some cancers, and conditions such as metabolic disorders, can cause a distinctive breath odor as a result of chemicals they produce. Chronic reflux of stomach acids (gastroesophageal reflux disease, or GERD) can be associated with bad breath. Bad breath in young children can be caused by a foreign body, such as a piece of food, lodged in a nostril.
-Food. The breakdown of food particles in and around your teeth can increase bacteria and cause a foul odor. Eating certain foods, such as onions, garlic and spices, also can cause bad breath. After you digest these foods, they enter your bloodstream, are carried to your lungs and affect your breath.
-Tobacco products. Smoking causes its own unpleasant mouth odor. Smokers and oral tobacco users are also more likely to have gum disease, another source of bad breath.
-Poor dental hygiene. If you don't brush and floss daily, food particles remain in your mouth, causing bad breath. A colorless, sticky film of bacteria (plaque) forms on your teeth. If not brushed away, plaque can irritate your gums and eventually form plaque-filled pockets between your teeth and gums (periodontitis). Your tongue also can trap bacteria that produce odors. Dentures that aren't cleaned regularly or don't fit properly can harbor odor-causing bacteria and food particles.
-Dry mouth. Saliva helps cleanse your mouth, removing particles that cause bad odors. A condition called dry mouth or xerostomia (zeer–o-STOE-me-uh) can contribute to bad breath because production of saliva is decreased. Dry mouth naturally occurs during sleep, leading to "morning breath," and it worsens if you sleep with your mouth open. Chronic dry mouth can be caused by a problem with your salivary glands and some diseases.
-Medications. Some medications can indirectly produce bad breath by contributing to dry mouth. Others can be broken down in the body to release chemicals that can be carried on your breath.
-Infections in your mouth. Bad breath can be caused by surgical wounds after oral surgery, such as tooth removal, or as a result of tooth decay, gum disease or mouth sores.
-Other mouth, nose and throat conditions. Bad breath can occasionally stem from small stones that form in the tonsils and are covered with bacteria that produce odor. Infections or chronic inflammation in the nose, sinuses or throat, which can contribute to postnasal drip, also can cause bad breath.
-Other causes. Diseases, such as some cancers, and conditions such as metabolic disorders, can cause a distinctive breath odor as a result of chemicals they produce. Chronic reflux of stomach acids (gastroesophageal reflux disease, or GERD) can be associated with bad breath. Bad breath in young children can be caused by a foreign body, such as a piece of food, lodged in a nostril.</t>
-  </si>
-  <si>
-    <t>Overview.
-Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
-Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
-Symptoms.
-Symptoms of bags under eyes can include:
-Mild swelling
-Saggy or loose skin
-Dark circles.
-Mild swelling.
-Saggy or loose skin.
-Dark circles.
-You may not like the way they look, but bags under eyes are usually harmless and don't require medical care. See your health care provider if the condition causes vision problems, irritation or headaches or is accompanied by skin rash.
-Your health care provider will want to rule out other possible causes that can contribute to the swelling, such as thyroid disease, infection, connective tissue disease or an allergy. You may be referred to a health care provider who specializes in the eyes (ophthalmologist), plastic surgery or plastic surgery of the eyes (oculoplastic surgeon).
-Causes.
-Bags under eyes are caused when the tissue structures and muscles supporting your eyelids weaken. The skin may start to sag, and fat that's usually around the eye can move into the area below your eyes. Also, the space below your eyes can gather fluid, making the area look puffy or swollen. Several factors cause or worsen this effect, including:
-Aging
-Fluid retention, especially upon waking or after a salty meal
-Lack of sleep
-Allergies
-Smoking
-Genetics — under-eye bags can run in families
-Medical conditions, such as dermatitis, dermatomyositis, renal disease and thyroid eye disease.
-Aging.
-Fluid retention, especially upon waking or after a salty meal.
-Lack of sleep.
-Allergies.
-Smoking.
-Genetics — under-eye bags can run in families.
-Medical conditions, such as dermatitis, dermatomyositis, renal disease and thyroid eye disease</t>
-  </si>
-  <si>
-    <t>Overview.
-Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
-You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
-Symptoms.
-Bee stings can produce different reactions, ranging from temporary pain and discomfort to a severe allergic reaction. Having one type of reaction doesn't mean you'll always have the same reaction every time you're stung or that the next reaction will necessarily be more severe.
-Most of the time, bee sting symptoms are minor and include:
-Instant, sharp burning pain at the sting site
-A red welt at the sting area
-Slight swelling around the sting area.
-Instant, sharp burning pain at the sting site.
-A red welt at the sting area.
-Slight swelling around the sting area.
-In most people, the swelling and pain go away within a few hours.
-Some people who get stung by a bee or other insect have a bit stronger reaction, with signs and symptoms such as:
-Extreme redness
-Swelling at the site of the sting that gradually enlarges over the next day or two.
-Extreme redness.
-Swelling at the site of the sting that gradually enlarges over the next day or two.
-Moderate reactions tend to resolve over five to 10 days. Having a moderate reaction doesn't mean you'll have a severe allergic reaction the next time you're stung. But some people develop similar moderate reactions each time they're stung. If this happens to you, talk to your doctor about treatment and prevention, especially if the reaction becomes more severe each time.
-A severe allergic reaction (anaphylaxis) to bee stings is potentially life-threatening and requires emergency treatment. A small percentage of people who are stung by a bee or other insect quickly develop anaphylaxis. Signs and symptoms of anaphylaxis include:
-Skin reactions, including hives and itching and flushed or pale skin
-Difficulty breathing
-Swelling of the throat and tongue
-A weak, rapid pulse
-Nausea, vomiting or diarrhea
-Dizziness or fainting
-Loss of consciousness.
-Skin reactions, including hives and itching and flushed or pale skin.
-Difficulty breathing.
-Swelling of the throat and tongue.
-A weak, rapid pulse.
-Nausea, vomiting or diarrhea.
-Dizziness or fainting.
-Loss of consciousness.
-People who have a severe allergic reaction to a bee sting have a 25% to 65% chance of anaphylaxis the next time they're stung. Talk to your doctor or an allergy specialist about prevention measures such as immunotherapy ("allergy shots") to avoid a similar reaction in case you get stung again.
-Generally, insects such as bees and wasps aren't aggressive and only sting in self-defense. In most cases, this results in one or perhaps a few stings. In some cases a person will disrupt a hive or swarm of bees and get multiple stings. Some types of bees — such as Africanized honeybees — are more likely than are other bees to swarm, stinging in a group.
-If you get stung more than a dozen times, the accumulation of venom may induce a toxic reaction and make you feel quite sick. Signs and symptoms include:
-Nausea, vomiting or diarrhea
-Headache
-A feeling of spinning (vertigo)
-Convulsions
-Fever
-Dizziness or fainting.
-Nausea, vomiting or diarrhea.
-Headache.
-A feeling of spinning (vertigo).
-Convulsions.
-Fever.
-Dizziness or fainting.
-Multiple stings can be a medical emergency in children, older adults, and people who have heart or breathing problems.
-In most cases, bee stings don't require a visit to your doctor. In more-severe cases, you'll need immediate care.
-Call 911 or other emergency services if you're having a serious reaction to a bee sting that suggests anaphylaxis, even if it's just one or two signs or symptoms. If you were prescribed an emergency epinephrine autoinjector (EpiPen, Auvi-Q, others), use it right away as your doctor directed.
-Seek prompt medical care if you've been swarmed by bees and have multiple stings.
-Make an appointment to see your doctor if:
-Bee sting symptoms don't go away within a few days
-You've had other symptoms of an allergic response to a bee sting.
-Bee sting symptoms don't go away within a few days.
-You've had other symptoms of an allergic response to a bee sting.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-To sting, a bee jabs a barbed stinger into the skin. Bee sting venom contains proteins that affect skin cells and the immune system, causing pain and swelling around the sting area. In people with a bee sting allergy, bee venom can trigger a more-serious immune system reaction.
-Risk factors.
-You're at increased risk of bee stings if:
-You live in an area where bees are especially active or with beehives nearby
-Your work or hobbies require spending time outside.
-You live in an area where bees are especially active or with beehives nearby.
-Your work or hobbies require spending time outside.
-You're more likely to have an allergic reaction to bee stings if you've had an allergic reaction to a bee sting in the past, even if it was minor.
-Adults tend to have more-severe reactions than children do and are more likely to die of anaphylaxis than children are.
-Prevention.
-The following tips can help reduce your risk of getting stung by bees:
-Take care when drinking sweet beverages outside. Wide, open cups may be your best option because you can see if a bee is in them. Inspect cans and straws before drinking from them.
-Tightly cover food containers and trash cans.
-Clear away garbage, fallen fruit, and dog or other animal feces (flies can attract wasps).
-Wear closed-toe shoes when walking outside.
-Don't wear bright colors or floral prints, which can attract bees.
-Don't wear loose clothing, which can trap bees between the cloth and your skin.
-When driving, keep your windows rolled up.
-Be careful when mowing the lawn or trimming vegetation, activities that might arouse insects in a beehive or wasp nest.
-Have hives and nests near your home removed by a professional.
-Take care when drinking sweet beverages outside. Wide, open cups may be your best option because you can see if a bee is in them. Inspect cans and straws before drinking from them.
-Tightly cover food containers and trash cans.
-Clear away garbage, fallen fruit, and dog or other animal feces (flies can attract wasps).
-Wear closed-toe shoes when walking outside.
-Don't wear bright colors or floral prints, which can attract bees.
-Don't wear loose clothing, which can trap bees between the cloth and your skin.
-When driving, keep your windows rolled up.
-Be careful when mowing the lawn or trimming vegetation, activities that might arouse insects in a beehive or wasp nest.
-Have hives and nests near your home removed by a professional.
-Know what to do when you're exposed to bees:
-If a few bees are flying around you, stay calm and slowly walk away from the area. Swatting at an insect may cause it to sting.
-If a bee or wasp stings you, or many insects start to fly around, cover your mouth and nose and quickly leave the area. When a bee stings, it releases a chemical that attracts other bees. If you can, get into a building or closed vehicle.
-If a few bees are flying around you, stay calm and slowly walk away from the area. Swatting at an insect may cause it to sting.
-If a bee or wasp stings you, or many insects start to fly around, cover your mouth and nose and quickly leave the area. When a bee stings, it releases a chemical that attracts other bees. If you can, get into a building or closed vehicle.</t>
-  </si>
-  <si>
-    <t>Overview.
-Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
-Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
-Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
-Symptoms.
-Body lice bites can cause intense itching, and you may notice small areas of blood and crust on your skin at the site of the bite marks.
-See your doctor if improved hygiene doesn't remove the infestation, or if you develop a skin infection from scratching the bites.
-Causes.
-Body lice are similar to head lice but have different habits. While head lice live in your hair and feed on your scalp, body lice usually live in your clothes and bedding. They travel to your skin several times a day to feed on blood.
-Your clothing seams are the most common places for body lice to lay their eggs (nits). You can become infested with body lice if you come into close contact with a person who has body lice, or with clothing or bedding that is infested with body lice.
-Risk factors.
-People who are at higher risk of body lice tend to live in crowded, unclean conditions. They include:
-War refugees
-Homeless people
-People displaced by natural disasters.
-War refugees.
-Homeless people.
-People displaced by natural disasters.
-Dogs, cats and other pets do not spread body lice.
-Complications.
-Body lice infestations usually cause minimal problems. However, a body lice infestation sometimes leads to complications such as:
-Secondary infections. When body lice scratch and dig to feed on your blood, they may irritate your skin. If you scratch to relieve itching, this also can irritate your skin. If your skin becomes raw from these irritations, other infections may develop.
-Skin changes. If you're infested with body lice for a long time, you may experience skin changes such as thickening and discoloration — particularly around your waist, groin or upper thighs.
-Spread of disease. Body lice can carry and spread some bacterial diseases, such as typhus, relapsing fever or trench fever.
-Secondary infections. When body lice scratch and dig to feed on your blood, they may irritate your skin. If you scratch to relieve itching, this also can irritate your skin. If your skin becomes raw from these irritations, other infections may develop.
-Skin changes. If you're infested with body lice for a long time, you may experience skin changes such as thickening and discoloration — particularly around your waist, groin or upper thighs.
-Spread of disease. Body lice can carry and spread some bacterial diseases, such as typhus, relapsing fever or trench fever.
-Prevention.
-To prevent body lice infestation, avoid having close physical contact or sharing bedding or clothing with anyone who has an infestation. Regular bathing and changing into clean clothing at least once a week also may help prevent and control the spread of body lice.</t>
-  </si>
-  <si>
-    <t>Overview.
-Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
-Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
-Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
-Symptoms.
-Some people naturally sweat more or less than other people. Body odor also can vary from person to person. See a doctor if:
-You suddenly begin to sweat much more or less than usual
-Sweating disrupts your daily routine
-You experience night sweats for no apparent reason
-You notice a change in your body odor.
-You suddenly begin to sweat much more or less than usual.
-Sweating disrupts your daily routine.
-You experience night sweats for no apparent reason.
-You notice a change in your body odor.
-Causes.
-Sweating and body odor are caused by sweat glands in your body. The two main types of sweat glands are eccrine glands and apocrine glands. Eccrine glands occur over most of your body and open directly onto the surface of the skin. When your body temperature rises, these glands release fluids that cool your body as they evaporate.
-Apocrine glands are found in areas where you have hair, such as your armpits and groin. These glands release a milky fluid when you're stressed. This fluid is odorless until it combines with bacteria on your skin.</t>
-  </si>
-  <si>
-    <t>Overview.
-Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
-If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
-Symptoms.
-Signs and symptoms of corns and calluses include:
-A thick, rough area of skin
-A hardened, raised bump
-Tenderness or pain under the skin
-Flaky, dry or waxy skin.
-A thick, rough area of skin.
-A hardened, raised bump.
-Tenderness or pain under the skin.
-Flaky, dry or waxy skin.
-Corns and calluses are not the same thing.
-Corns are smaller and deeper than calluses and have a hard center surrounded by swollen skin. They can be painful when pressed. Hard corns often form on the top of the toes or the outer edge of the small toe. Soft corns tend to form between the toes.
-Calluses are rarely painful and tend to develop on pressure spots, such as the heels, the balls of the feet, the palms and the knees. They may vary in size and shape and are often larger than corns.
-Corns are smaller and deeper than calluses and have a hard center surrounded by swollen skin. They can be painful when pressed. Hard corns often form on the top of the toes or the outer edge of the small toe. Soft corns tend to form between the toes.
-Calluses are rarely painful and tend to develop on pressure spots, such as the heels, the balls of the feet, the palms and the knees. They may vary in size and shape and are often larger than corns.
-If a corn or callus becomes very painful or inflamed, see your health care provider. If you have diabetes or poor blood flow, seek medical care before self-treating a corn or callus. This is important because even a minor injury to your foot can lead to an infected open sore (ulcer).
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Corns and calluses are caused by friction and pressure from repeated actions. Some sources of this friction and pressure include:
-Wearing ill-fitting shoes and socks. Tight shoes and high heels can squeeze areas of the feet. If your shoes are loose, your foot may repeatedly slide and rub against the shoe. Your foot may also rub against a seam or stitch inside the shoe. Socks that don't fit right can also be a problem.
-Skipping socks. Wearing shoes and sandals without socks can cause friction on your feet.
-Playing instruments or using hand tools. Calluses on the hands may result from the repeated pressure of activities such as playing instruments and using hand tools or even a pen.
-Inheriting a tendency to develop corns. The type of corn that forms on non-weight-bearing areas, such as the soles and palms (keratosis punctata), might be caused by genetics.
-Wearing ill-fitting shoes and socks. Tight shoes and high heels can squeeze areas of the feet. If your shoes are loose, your foot may repeatedly slide and rub against the shoe. Your foot may also rub against a seam or stitch inside the shoe. Socks that don't fit right can also be a problem.
-Skipping socks. Wearing shoes and sandals without socks can cause friction on your feet.
-Playing instruments or using hand tools. Calluses on the hands may result from the repeated pressure of activities such as playing instruments and using hand tools or even a pen.
-Inheriting a tendency to develop corns. The type of corn that forms on non-weight-bearing areas, such as the soles and palms (keratosis punctata), might be caused by genetics.
-Complications.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications from corns and calluses.
-Prevention.
-These approaches may help you prevent corns and calluses:
-Wear shoes that give your toes plenty of room. If you can't wiggle your toes, your shoes are too tight. Have a shoe shop stretch your shoes at any point that rubs or pinches. Shop for shoes when your feet are most swollen, usually at the end of the day. If you use orthotics and inserts, be sure to have them on while fitting your shoes at the store.
-Use protective coverings. Wear felt pads, nonmedicated corn pads or bandages over areas that rub against your footwear. You can also try toe separators or some lamb's wool between your toes.
-Wear padded gloves when using hand tools. Or try padding your tool handles with cloth tape or covers.
-Wear shoes that give your toes plenty of room. If you can't wiggle your toes, your shoes are too tight. Have a shoe shop stretch your shoes at any point that rubs or pinches. Shop for shoes when your feet are most swollen, usually at the end of the day. If you use orthotics and inserts, be sure to have them on while fitting your shoes at the store.
-Use protective coverings. Wear felt pads, nonmedicated corn pads or bandages over areas that rub against your footwear. You can also try toe separators or some lamb's wool between your toes.
-Wear padded gloves when using hand tools. Or try padding your tool handles with cloth tape or covers.</t>
-  </si>
-  <si>
-    <t>Overview.
-Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
-Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
-If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
-Symptoms.
-The signs and symptoms of cavities vary, depending on their extent and location. When a cavity is just beginning, you may not have any symptoms at all. As the decay gets larger, it may cause signs and symptoms such as:
-Toothache, spontaneous pain or pain that occurs without any apparent cause
-Tooth sensitivity
-Mild to sharp pain when eating or drinking something sweet, hot or cold
-Visible holes or pits in your teeth
-Brown, black or white staining on any surface of a tooth
-Pain when you bite down.
-Toothache, spontaneous pain or pain that occurs without any apparent cause.
-Tooth sensitivity.
-Mild to sharp pain when eating or drinking something sweet, hot or cold.
-Visible holes or pits in your teeth.
-Brown, black or white staining on any surface of a tooth.
-Pain when you bite down.
-You may not be aware that a cavity is forming. That's why it's important to have regular dental checkups and cleanings, even when your mouth feels fine. However, if you experience a toothache or mouth pain, see your dentist as soon as possible.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Cavities are caused by tooth decay — a process that occurs over time. Here's how tooth decay develops:
-Plaque forms. Dental plaque is a clear sticky film that coats your teeth. It's due to eating a lot of sugars and starches and not cleaning your teeth well. When sugars and starches aren't cleaned off your teeth, bacteria quickly begin feeding on them and form plaque. Plaque that stays on your teeth can harden under or above your gum line into tartar (calculus). Tartar makes plaque more difficult to remove and creates a shield for bacteria.
-Plaque attacks. The acids in plaque remove minerals in your tooth's hard, outer enamel. This erosion causes tiny openings or holes in the enamel — the first stage of cavities. Once areas of enamel are worn away, the bacteria and acid can reach the next layer of your teeth, called dentin. This layer is softer than enamel and less resistant to acid. Dentin has tiny tubes that directly communicate with the nerve of the tooth causing sensitivity.
-Destruction continues. As tooth decay develops, the bacteria and acid continue their march through your teeth, moving next to the inner tooth material (pulp) that contains nerves and blood vessels. The pulp becomes swollen and irritated from the bacteria. Because there is no place for the swelling to expand inside of a tooth, the nerve becomes pressed, causing pain. Discomfort can even extend outside of the tooth root to the bone.
-Plaque forms. Dental plaque is a clear sticky film that coats your teeth. It's due to eating a lot of sugars and starches and not cleaning your teeth well. When sugars and starches aren't cleaned off your teeth, bacteria quickly begin feeding on them and form plaque. Plaque that stays on your teeth can harden under or above your gum line into tartar (calculus). Tartar makes plaque more difficult to remove and creates a shield for bacteria.
-Plaque attacks. The acids in plaque remove minerals in your tooth's hard, outer enamel. This erosion causes tiny openings or holes in the enamel — the first stage of cavities. Once areas of enamel are worn away, the bacteria and acid can reach the next layer of your teeth, called dentin. This layer is softer than enamel and less resistant to acid. Dentin has tiny tubes that directly communicate with the nerve of the tooth causing sensitivity.
-Destruction continues. As tooth decay develops, the bacteria and acid continue their march through your teeth, moving next to the inner tooth material (pulp) that contains nerves and blood vessels. The pulp becomes swollen and irritated from the bacteria. Because there is no place for the swelling to expand inside of a tooth, the nerve becomes pressed, causing pain. Discomfort can even extend outside of the tooth root to the bone.
-Risk factors.
-Everyone who has teeth is at risk of getting cavities, but the following factors can increase risk:
-Tooth location. Decay most often occurs in your back teeth (molars and premolars). These teeth have lots of grooves, pits and crannies, and multiple roots that can collect food particles. As a result, they're harder to keep clean than your smoother, easy-to-reach front teeth.
-Certain foods and drinks. Foods that cling to your teeth for a long time — such as milk, ice cream, honey, sugar, soda, dried fruit, cake, cookies, hard candy and mints, dry cereal, and chips — are more likely to cause decay than foods that are easily washed away by saliva.
-Frequent snacking or sipping. When you steadily snack or sip sugary drinks, you give mouth bacteria more fuel to produce acids that attack your teeth and wear them down. And sipping soda or other acidic drinks throughout the day helps create a continual acid bath over your teeth.
-Bedtime infant feeding. When babies are given bedtime bottles filled with milk, formula, juice or other sugar-containing liquids, these beverages remain on their teeth for hours while they sleep, feeding decay-causing bacteria. This damage is often called baby bottle tooth decay. Similar damage can occur when toddlers wander around drinking from a sippy cup filled with these beverages.
-Inadequate brushing. If you don't clean your teeth soon after eating and drinking, plaque forms quickly and the first stages of decay can begin.
-Not getting enough fluoride. Fluoride, a naturally occurring mineral, helps prevent cavities and can even reverse the earliest stages of tooth damage. Because of its benefits for teeth, fluoride is added to many public water supplies. It's also a common ingredient in toothpaste and mouth rinses. But bottled water usually does not contain fluoride.
-Younger or older age. In the United States, cavities are common in very young children and teenagers. Older adults also are at higher risk. Over time, teeth can wear down and gums may recede, making teeth more vulnerable to root decay. Older adults also may use more medications that reduce saliva flow, increasing the risk of tooth decay.
-Dry mouth. Dry mouth is caused by a lack of saliva, which helps prevent tooth decay by washing away food and plaque from your teeth. Substances found in saliva also help counter the acid produced by bacteria. Certain medications, some medical conditions, radiation to your head or neck, or certain chemotherapy drugs can increase your risk of cavities by reducing saliva production.
-Worn fillings or dental devices. Over the years, dental fillings can weaken, begin to break down or develop rough edges. This allows plaque to build up more easily and makes it harder to remove. Dental devices can stop fitting well, allowing decay to begin underneath them.
-Heartburn. Heartburn or gastroesophageal reflux disease (GERD) can cause stomach acid to flow into your mouth (reflux), wearing away the enamel of your teeth and causing significant tooth damage. This exposes more of the dentin to attack by bacteria, creating tooth decay. Your dentist may recommend that you consult your doctor to see if gastric reflux is the cause of your enamel loss.
-Eating disorders. Anorexia and bulimia can lead to significant tooth erosion and cavities. Stomach acid from repeated vomiting (purging) washes over the teeth and begins dissolving the enamel. Eating disorders also can interfere with saliva production.
-Tooth location. Decay most often occurs in your back teeth (molars and premolars). These teeth have lots of grooves, pits and crannies, and multiple roots that can collect food particles. As a result, they're harder to keep clean than your smoother, easy-to-reach front teeth.
-Certain foods and drinks. Foods that cling to your teeth for a long time — such as milk, ice cream, honey, sugar, soda, dried fruit, cake, cookies, hard candy and mints, dry cereal, and chips — are more likely to cause decay than foods that are easily washed away by saliva.
-Frequent snacking or sipping. When you steadily snack or sip sugary drinks, you give mouth bacteria more fuel to produce acids that attack your teeth and wear them down. And sipping soda or other acidic drinks throughout the day helps create a continual acid bath over your teeth.
-Bedtime infant feeding. When babies are given bedtime bottles filled with milk, formula, juice or other sugar-containing liquids, these beverages remain on their teeth for hours while they sleep, feeding decay-causing bacteria. This damage is often called baby bottle tooth decay. Similar damage can occur when toddlers wander around drinking from a sippy cup filled with these beverages.
-Inadequate brushing. If you don't clean your teeth soon after eating and drinking, plaque forms quickly and the first stages of decay can begin.
-Not getting enough fluoride. Fluoride, a naturally occurring mineral, helps prevent cavities and can even reverse the earliest stages of tooth damage. Because of its benefits for teeth, fluoride is added to many public water supplies. It's also a common ingredient in toothpaste and mouth rinses. But bottled water usually does not contain fluoride.
-Younger or older age. In the United States, cavities are common in very young children and teenagers. Older adults also are at higher risk. Over time, teeth can wear down and gums may recede, making teeth more vulnerable to root decay. Older adults also may use more medications that reduce saliva flow, increasing the risk of tooth decay.
-Dry mouth. Dry mouth is caused by a lack of saliva, which helps prevent tooth decay by washing away food and plaque from your teeth. Substances found in saliva also help counter the acid produced by bacteria. Certain medications, some medical conditions, radiation to your head or neck, or certain chemotherapy drugs can increase your risk of cavities by reducing saliva production.
-Worn fillings or dental devices. Over the years, dental fillings can weaken, begin to break down or develop rough edges. This allows plaque to build up more easily and makes it harder to remove. Dental devices can stop fitting well, allowing decay to begin underneath them.
-Heartburn. Heartburn or gastroesophageal reflux disease (GERD) can cause stomach acid to flow into your mouth (reflux), wearing away the enamel of your teeth and causing significant tooth damage. This exposes more of the dentin to attack by bacteria, creating tooth decay. Your dentist may recommend that you consult your doctor to see if gastric reflux is the cause of your enamel loss.
-Eating disorders. Anorexia and bulimia can lead to significant tooth erosion and cavities. Stomach acid from repeated vomiting (purging) washes over the teeth and begins dissolving the enamel. Eating disorders also can interfere with saliva production.
-Complications.
-Cavities and tooth decay are so common that you may not take them seriously. And you may think that it doesn't matter if children get cavities in their baby teeth. However, cavities and tooth decay can have serious and lasting complications, even for children who don't have their permanent teeth yet.
-Complications of cavities may include:
-Pain
-Tooth abscess
-Swelling or pus around a tooth
-Damage or broken teeth
-Chewing problems
-Positioning shifts of teeth after tooth loss.
-Pain.
-Tooth abscess.
-Swelling or pus around a tooth.
-Damage or broken teeth.
-Chewing problems.
-Positioning shifts of teeth after tooth loss.
-When cavities and decay become severe, you may have:
-Pain that interferes with daily living
-Weight loss or nutrition problems from painful or difficult eating or chewing
-Tooth loss, which may affect your appearance, as well as your confidence and self-esteem
-In rare cases, a tooth abscess — a pocket of pus that's caused by bacterial infection — which can lead to more serious or even life-threatening infections.
-Pain that interferes with daily living.
-Weight loss or nutrition problems from painful or difficult eating or chewing.
-Tooth loss, which may affect your appearance, as well as your confidence and self-esteem.
-In rare cases, a tooth abscess — a pocket of pus that's caused by bacterial infection — which can lead to more serious or even life-threatening infections.
-Prevention.
-Good oral and dental hygiene can help you avoid cavities and tooth decay. Here are some tips to help prevent cavities. Ask your dentist which tips are best for you.
-Brush with fluoride toothpaste after eating or drinking. Brush your teeth at least twice a day and ideally after every meal, using fluoride-containing toothpaste. To clean between your teeth, floss or use an interdental cleaner.
-Rinse your mouth. If your dentist feels you have a high risk of developing cavities, he or she may recommend that you use a mouth rinse with fluoride.
-Visit your dentist regularly. Get professional teeth cleanings and regular oral exams, which can help prevent problems or spot them early. Your dentist can recommend a schedule that's best for you.
-Consider dental sealants. A sealant is a protective plastic coating applied to the chewing surface of back teeth. It seals off grooves and crannies that tend to collect food, protecting tooth enamel from plaque and acid. The Centers for Disease Control and Prevention (CDC) recommends sealants for all school-age children. Sealants may last for several years before they need to be replaced, but they need to be checked regularly.
-Drink some tap water. Most public water supplies have added fluoride, which can help reduce tooth decay significantly. If you drink only bottled water that doesn't contain fluoride, you'll miss out on fluoride benefits.
-Avoid frequent snacking and sipping. Whenever you eat or drink beverages other than water, you help your mouth bacteria create acids that can destroy tooth enamel. If you snack or drink throughout the day, your teeth are under constant attack.
-Eat tooth-healthy foods. Some foods and beverages are better for your teeth than others. Avoid foods that get stuck in grooves and pits of your teeth for long periods, or brush soon after eating them. However, foods such as fresh fruits and vegetables increase saliva flow, and unsweetened coffee, tea and sugar-free gum help wash away food particles.
-Consider fluoride treatments. Your dentist may recommend periodic fluoride treatments, especially if you aren't getting enough fluoride through fluoridated drinking water and other sources. He or she may also recommend custom trays that fit over your teeth for application of prescription fluoride if your risk of tooth decay is very high.
-Ask about antibacterial treatments. If you're especially vulnerable to tooth decay — for example, because of a medical condition — your dentist may recommend special antibacterial mouth rinses or other treatments to help cut down on harmful bacteria in your mouth.
-Combined treatments. Chewing xylitol-based gum along with prescription fluoride and an antibacterial rinse can help reduce the risk of cavities.
-Brush with fluoride toothpaste after eating or drinking. Brush your teeth at least twice a day and ideally after every meal, using fluoride-containing toothpaste. To clean between your teeth, floss or use an interdental cleaner.
-Rinse your mouth. If your dentist feels you have a high risk of developing cavities, he or she may recommend that you use a mouth rinse with fluoride.
-Visit your dentist regularly. Get professional teeth cleanings and regular oral exams, which can help prevent problems or spot them early. Your dentist can recommend a schedule that's best for you.
-Consider dental sealants. A sealant is a protective plastic coating applied to the chewing surface of back teeth. It seals off grooves and crannies that tend to collect food, protecting tooth enamel from plaque and acid. The Centers for Disease Control and Prevention (CDC) recommends sealants for all school-age children. Sealants may last for several years before they need to be replaced, but they need to be checked regularly.
-Drink some tap water. Most public water supplies have added fluoride, which can help reduce tooth decay significantly. If you drink only bottled water that doesn't contain fluoride, you'll miss out on fluoride benefits.
-Avoid frequent snacking and sipping. Whenever you eat or drink beverages other than water, you help your mouth bacteria create acids that can destroy tooth enamel. If you snack or drink throughout the day, your teeth are under constant attack.
-Eat tooth-healthy foods. Some foods and beverages are better for your teeth than others. Avoid foods that get stuck in grooves and pits of your teeth for long periods, or brush soon after eating them. However, foods such as fresh fruits and vegetables increase saliva flow, and unsweetened coffee, tea and sugar-free gum help wash away food particles.
-Consider fluoride treatments. Your dentist may recommend periodic fluoride treatments, especially if you aren't getting enough fluoride through fluoridated drinking water and other sources. He or she may also recommend custom trays that fit over your teeth for application of prescription fluoride if your risk of tooth decay is very high.
-Ask about antibacterial treatments. If you're especially vulnerable to tooth decay — for example, because of a medical condition — your dentist may recommend special antibacterial mouth rinses or other treatments to help cut down on harmful bacteria in your mouth.
-Combined treatments. Chewing xylitol-based gum along with prescription fluoride and an antibacterial rinse can help reduce the risk of cavities.</t>
-  </si>
-  <si>
-    <t>Overview.
-Related information.
-COVID-19, cold, allergies and the flu: What are the differences? - Related information
-COVID-19, cold, allergies and the flu: What are the differences?.
-COVID-19, cold, allergies and the flu: What are the differences? - Related information
-COVID-19, cold, allergies and the flu: What are the differences?.
-The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
-Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
-Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
-Symptoms.
-Symptoms of a common cold usually appear one to three days after exposure to a cold-causing virus. Signs and symptoms, which can vary from person to person, might include:
-Runny or stuffy nose
-Sore throat
-Cough
-Congestion
-Slight body aches or a mild headache
-Sneezing
-Low-grade fever
-Generally feeling unwell.
-Runny or stuffy nose.
-Sore throat.
-Cough.
-Congestion.
-Slight body aches or a mild headache.
-Sneezing.
-Low-grade fever.
-Generally feeling unwell.
-The discharge from your nose may start out clear and become thicker and yellow or green as a common cold runs its course. This doesn't usually mean you have a bacterial infection.
-For adults — generally, you don't need medical attention for a common cold. However, seek medical attention if you have:
-Symptoms that worsen or fail to improve
-Fever greater than 101.3 F (38.5 C) lasting more than three days
-Fever returning after a fever-free period
-Shortness of breath
-Wheezing
-Severe sore throat, headache or sinus pain.
-Symptoms that worsen or fail to improve.
-Fever greater than 101.3 F (38.5 C) lasting more than three days.
-Fever returning after a fever-free period.
-Shortness of breath.
-Wheezing.
-Severe sore throat, headache or sinus pain.
-For children — in general, your child doesn't need to see his or her doctor for a common cold. But seek medical attention right away if your child has any of the following:
-Fever of 100.4 F (38 C) in newborns up to 12 weeks
-Rising fever or fever lasting more than two days in a child of any age
-Severe symptoms, such as headache, throat pain or cough
-Difficulty breathing or wheezing
-Ear pain
-Extreme fussiness
-Unusual drowsiness
-Lack of appetite.
-Fever of 100.4 F (38 C) in newborns up to 12 weeks.
-Rising fever or fever lasting more than two days in a child of any age.
-Severe symptoms, such as headache, throat pain or cough.
-Difficulty breathing or wheezing.
-Ear pain.
-Extreme fussiness.
-Unusual drowsiness.
-Lack of appetite.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Although many types of viruses can cause a common cold, rhinoviruses are the most common cause.
-A cold virus enters your body through your mouth, eyes or nose. The virus can spread through droplets in the air when someone who is sick coughs, sneezes or talks.
-It also spreads by hand-to-hand contact with someone who has a cold or by sharing contaminated objects, such as eating utensils, towels, toys or telephones. If you touch your eyes, nose or mouth after such contact, you're likely to catch a cold.
-Risk factors.
-These factors can increase your chances of getting a cold:
-Age. Infants and young children are at greatest risk of colds, especially if they spend time in child care settings.
-Weakened immune system. Having a chronic illness or otherwise weakened immune system increases your risk.
-Time of year. Both children and adults are more likely to get colds in fall and winter, but you can get a cold anytime.
-Smoking. You're more likely to catch a cold and to have more-severe colds if you smoke or are around secondhand smoke.
-Exposure. If you're around crowds, such as at school or on an airplane, you're likely to be exposed to viruses that cause colds.
-Age. Infants and young children are at greatest risk of colds, especially if they spend time in child care settings.
-Weakened immune system. Having a chronic illness or otherwise weakened immune system increases your risk.
-Time of year. Both children and adults are more likely to get colds in fall and winter, but you can get a cold anytime.
-Smoking. You're more likely to catch a cold and to have more-severe colds if you smoke or are around secondhand smoke.
-Exposure. If you're around crowds, such as at school or on an airplane, you're likely to be exposed to viruses that cause colds.
-Complications.
-These conditions can occur along with your cold:
-Acute ear infection (otitis media). This occurs when bacteria or viruses enter the space behind the eardrum. Typical signs and symptoms include earaches or the return of a fever following a common cold.
-Asthma. A cold can trigger wheezing, even if you don't have asthma. If you have asthma, a cold can make it worse.
-Acute sinusitis. In adults or children, a common cold that doesn't resolve can lead to swelling and pain (inflammation) and infection of the sinuses.
-Other infections. A common cold can lead to other infections, including strep throat, pneumonia, and croup or bronchiolitis in children. These infections need to be treated by a doctor.
-Acute ear infection (otitis media). This occurs when bacteria or viruses enter the space behind the eardrum. Typical signs and symptoms include earaches or the return of a fever following a common cold.
-Asthma. A cold can trigger wheezing, even if you don't have asthma. If you have asthma, a cold can make it worse.
-Acute sinusitis. In adults or children, a common cold that doesn't resolve can lead to swelling and pain (inflammation) and infection of the sinuses.
-Other infections. A common cold can lead to other infections, including strep throat, pneumonia, and croup or bronchiolitis in children. These infections need to be treated by a doctor.
-Prevention.
-There's no vaccine for the common cold, but you can take commonsense precautions to slow the spread of cold viruses:
-Wash your hands. Wash your hands thoroughly and often with soap and water for at least 20 seconds. If soap and water aren't available, use an alcohol-based hand sanitizer that contains at least 60% alcohol. Teach your children the importance of hand-washing. Avoid touching your eyes, nose or mouth with unwashed hands.
-Disinfect your stuff. Clean and disinfect high-touch surfaces, such as doorknobs, light switches, electronics, and kitchen and bathroom countertops daily. This is especially important when someone in your family has a cold. Wash children's toys periodically.
-Cover your cough. Sneeze and cough into tissues. Throw away used tissues right away, then wash your hands thoroughly. If you don't have a tissue, sneeze or cough into the bend of your elbow and then wash your hands.
-Don't share. Don't share drinking glasses or eating utensils with other family members. Use your own glass or disposable cups when you or someone else is sick. Label the cup or glass with the name of the person using it.
-Stay away from people with colds. Avoid close contact with anyone who has a cold. Stay out of crowds, when possible. Avoid touching your eyes, nose and mouth.
-Review your child care center's policies. Look for a child care setting with good hygiene practices and clear policies about keeping sick children at home.
-Take care of yourself. Eating well and getting exercise and enough sleep is good for your overall health.
-Wash your hands. Wash your hands thoroughly and often with soap and water for at least 20 seconds. If soap and water aren't available, use an alcohol-based hand sanitizer that contains at least 60% alcohol. Teach your children the importance of hand-washing. Avoid touching your eyes, nose or mouth with unwashed hands.
-Disinfect your stuff. Clean and disinfect high-touch surfaces, such as doorknobs, light switches, electronics, and kitchen and bathroom countertops daily. This is especially important when someone in your family has a cold. Wash children's toys periodically.
-Cover your cough. Sneeze and cough into tissues. Throw away used tissues right away, then wash your hands thoroughly. If you don't have a tissue, sneeze or cough into the bend of your elbow and then wash your hands.
-Don't share. Don't share drinking glasses or eating utensils with other family members. Use your own glass or disposable cups when you or someone else is sick. Label the cup or glass with the name of the person using it.
-Stay away from people with colds. Avoid close contact with anyone who has a cold. Stay out of crowds, when possible. Avoid touching your eyes, nose and mouth.
-Review your child care center's policies. Look for a child care setting with good hygiene practices and clear policies about keeping sick children at home.
-Take care of yourself. Eating well and getting exercise and enough sleep is good for your overall health.</t>
-  </si>
-  <si>
-    <t>Overview.
-Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
-Constipation is generally described as having fewer than three bowel movements a week.
-Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
-Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
-Symptoms.
-Signs and symptoms of chronic constipation include:
-Passing fewer than three stools a week
-Having lumpy or hard stools
-Straining to have bowel movements
-Feeling as though there's a blockage in your rectum that prevents bowel movements
-Feeling as though you can't completely empty the stool from your rectum
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum.
-Passing fewer than three stools a week.
-Having lumpy or hard stools.
-Straining to have bowel movements.
-Feeling as though there's a blockage in your rectum that prevents bowel movements.
-Feeling as though you can't completely empty the stool from your rectum.
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum.
-Constipation may be considered chronic if you've experienced two or more of these symptoms for the last three months.
-Make an appointment with your doctor if you experience unexplained and persistent changes in your bowel habits.
-Subscribe for free and receive your in-depth guide to digestive health, plus the latest on health innovations and news. You can unsubscribe at any time.
-Causes.
-Constipation most commonly occurs when waste or stool moves too slowly through the digestive tract or cannot be eliminated effectively from the rectum, which may cause the stool to become hard and dry. Chronic constipation has many possible causes.
-Blockages in the colon or rectum may slow or stop stool movement. Causes include:
-Tiny tears in the skin around the anus (anal fissure)
-A blockage in the intestines (bowel obstruction)
-Colon cancer
-Narrowing of the colon (bowel stricture)
-Other abdominal cancer that presses on the colon
-Rectal cancer
-Rectum bulge through the back wall of the vagina (rectocele).
-Tiny tears in the skin around the anus (anal fissure).
-A blockage in the intestines (bowel obstruction).
-Colon cancer.
-Narrowing of the colon (bowel stricture).
-Other abdominal cancer that presses on the colon.
-Rectal cancer.
-Rectum bulge through the back wall of the vagina (rectocele).
-Neurological problems can affect the nerves that cause muscles in the colon and rectum to contract and move stool through the intestines. Causes include:
-Damage to the nerves that control bodily functions (autonomic neuropathy)
-Multiple sclerosis
-Parkinson's disease
-Spinal cord injury
-Stroke.
-Damage to the nerves that control bodily functions (autonomic neuropathy).
-Multiple sclerosis.
-Parkinson's disease.
-Spinal cord injury.
-Stroke.
-Problems with the pelvic muscles involved in having a bowel movement may cause chronic constipation. These problems may include:
-The inability to relax the pelvic muscles to allow for a bowel movement (anismus)
-Pelvic muscles that don't coordinate relaxation and contraction correctly (dyssynergia)
-Weakened pelvic muscles.
-The inability to relax the pelvic muscles to allow for a bowel movement (anismus).
-Pelvic muscles that don't coordinate relaxation and contraction correctly (dyssynergia).
-Weakened pelvic muscles.
-Hormones help balance fluids in your body. Diseases and conditions that upset the balance of hormones may lead to constipation, including:
-Diabetes
-Overactive parathyroid gland (hyperparathyroidism)
-Pregnancy
-Underactive thyroid (hypothyroidism).
-Diabetes.
-Overactive parathyroid gland (hyperparathyroidism).
-Pregnancy.
-Underactive thyroid (hypothyroidism).
-Risk factors.
-Factors that may increase your risk of chronic constipation include:
-Being an older adult
-Being a woman
-Being dehydrated
-Eating a diet that's low in fiber
-Getting little or no physical activity
-Taking certain medications, including sedatives, opioid pain medications, some antidepressants or medications to lower blood pressure
-Having a mental health condition such as depression or an eating disorder.
-Being an older adult.
-Being a woman.
-Being dehydrated.
-Eating a diet that's low in fiber.
-Getting little or no physical activity.
-Taking certain medications, including sedatives, opioid pain medications, some antidepressants or medications to lower blood pressure.
-Having a mental health condition such as depression or an eating disorder.
-Complications.
-Complications of chronic constipation include:
-Swollen veins in your anus (hemorrhoids). Straining to have a bowel movement may cause swelling in the veins in and around your anus.
-Torn skin in your anus (anal fissure). A large or hard stool can cause tiny tears in the anus.
-Stool that can't be expelled (fecal impaction). Chronic constipation may cause an accumulation of hardened stool that gets stuck in your intestines.
-Intestine that protrudes from the anus (rectal prolapse). Straining to have a bowel movement can cause a small amount of the rectum to stretch and protrude from the anus.
-Swollen veins in your anus (hemorrhoids). Straining to have a bowel movement may cause swelling in the veins in and around your anus.
-Torn skin in your anus (anal fissure). A large or hard stool can cause tiny tears in the anus.
-Stool that can't be expelled (fecal impaction). Chronic constipation may cause an accumulation of hardened stool that gets stuck in your intestines.
-Intestine that protrudes from the anus (rectal prolapse). Straining to have a bowel movement can cause a small amount of the rectum to stretch and protrude from the anus.
-Prevention.
-The following can help you avoid developing chronic constipation.
-Include plenty of high-fiber foods in your diet, including beans, vegetables, fruits, whole grain cereals and bran.
-Eat fewer foods with low amounts of fiber such as processed foods, and dairy and meat products.
-Drink plenty of fluids.
-Stay as active as possible and try to get regular exercise.
-Try to manage stress.
-Don't ignore the urge to pass stool.
-Try to create a regular schedule for bowel movements, especially after a meal.
-Make sure children who begin to eat solid foods get plenty of fiber in their diets.
-Include plenty of high-fiber foods in your diet, including beans, vegetables, fruits, whole grain cereals and bran.
-Eat fewer foods with low amounts of fiber such as processed foods, and dairy and meat products.
-Drink plenty of fluids.
-Stay as active as possible and try to get regular exercise.
-Try to manage stress.
-Don't ignore the urge to pass stool.
-Try to create a regular schedule for bowel movements, especially after a meal.
-Make sure children who begin to eat solid foods get plenty of fiber in their diets.</t>
-  </si>
-  <si>
-    <t>Overview.
-Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
-Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
-Dandruff is a mild form of seborrheic dermatitis.
-Symptoms.
-Dandruff signs and symptoms may include:
-Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
-Itchy scalp
-Scaly, crusty scalp in infants with cradle cap.
-Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders.
-Itchy scalp.
-Scaly, crusty scalp in infants with cradle cap.
-The signs and symptoms may be more severe if you're stressed, and they tend to flare in cold, dry seasons.
-Most people with dandruff don't require a doctor's care. See your primary care doctor or a doctor who specializes in skin conditions (dermatologist) if your condition doesn't improve with regular use of dandruff shampoo.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Dandruff may have several causes, including:
-Irritated, oily skin
-Dry skin
-A yeastlike fungus (malassezia) that feeds on oils on the scalps of most adults
-Sensitivity to hair care products (contact dermatitis)
-Other skin conditions, such as psoriasis and eczema.
-Irritated, oily skin.
-Dry skin.
-A yeastlike fungus (malassezia) that feeds on oils on the scalps of most adults.
-Sensitivity to hair care products (contact dermatitis).
-Other skin conditions, such as psoriasis and eczema.
-Risk factors.
-Almost anyone can have dandruff, but certain factors can make you more susceptible:
-Age. Dandruff usually begins in young adulthood and continues through middle age. That doesn't mean older adults don't get dandruff. For some people, the problem can be lifelong.
-Being male. Dandruff is more prevalent in males than in females.
-Certain illnesses. Parkinson's disease and other diseases that affect the nervous system also seem to increase risk of dandruff. So does having HIV or a weakened immune system.
-Age. Dandruff usually begins in young adulthood and continues through middle age. That doesn't mean older adults don't get dandruff. For some people, the problem can be lifelong.
-Being male. Dandruff is more prevalent in males than in females.
-Certain illnesses. Parkinson's disease and other diseases that affect the nervous system also seem to increase risk of dandruff. So does having HIV or a weakened immune system.</t>
-  </si>
-  <si>
-    <t>Overview.
-Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
-Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
-Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
-Symptoms.
-Many people experience no signs or symptoms of a dengue infection.
-When symptoms do occur, they may be mistaken for other illnesses — such as the flu — and usually begin four to 10 days after you are bitten by an infected mosquito.
-Dengue fever causes a high fever — 104 F (40 C) — and any of the following signs and symptoms:
-Headache
-Muscle, bone or joint pain
-Nausea
-Vomiting
-Pain behind the eyes
-Swollen glands
-Rash.
-Headache.
-Muscle, bone or joint pain.
-Nausea.
-Vomiting.
-Pain behind the eyes.
-Swollen glands.
-Rash.
-Most people recover within a week or so. In some cases, symptoms worsen and can become life-threatening. This is called severe dengue, dengue hemorrhagic fever or dengue shock syndrome.
-Severe dengue happens when your blood vessels become damaged and leaky. And the number of clot-forming cells (platelets) in your bloodstream drops. This can lead to shock, internal bleeding, organ failure and even death.
-Warning signs of severe dengue fever — which is a life-threatening emergency — can develop quickly. The warning signs usually begin the first day or two after your fever goes away, and may include:
-Severe stomach pain
-Persistent vomiting
-Bleeding from your gums or nose
-Blood in your urine, stools or vomit
-Bleeding under the skin, which might look like bruising
-Difficult or rapid breathing
-Fatigue
-Irritability or restlessness.
-Severe stomach pain.
-Persistent vomiting.
-Bleeding from your gums or nose.
-Blood in your urine, stools or vomit.
-Bleeding under the skin, which might look like bruising.
-Difficult or rapid breathing.
-Fatigue.
-Irritability or restlessness.
-Severe dengue fever is a life-threatening medical emergency. Seek immediate medical attention if you've recently visited an area in which dengue fever is known to occur, you have had a fever and you develop any of the warning signs. Warning signs include severe stomach pain, vomiting, difficulty breathing, or blood in your nose, gums, vomit or stools.
-If you've been traveling recently and develop a fever and mild symptoms of dengue fever, call your doctor.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Dengue fever is caused by any one of four types of dengue viruses. You can't get dengue fever from being around an infected person. Instead, dengue fever is spread through mosquito bites.
-The two types of mosquitoes that most often spread the dengue viruses are common both in and around human lodgings. When a mosquito bites a person infected with a dengue virus, the virus enters the mosquito. Then, when the infected mosquito bites another person, the virus enters that person's bloodstream and causes an infection.
-After you've recovered from dengue fever, you have long-term immunity to the type of virus that infected you — but not to the other three dengue fever virus types. This means you can be infected again in the future by one of the other three virus types. Your risk of developing severe dengue fever increases if you get dengue fever a second, third or fourth time.
-Risk factors.
-You have a greater risk of developing dengue fever or a more severe form of the disease if:
-You live or travel in tropical areas. Being in tropical and subtropical areas increases your risk of exposure to the virus that causes dengue fever. Especially high-risk areas include Southeast Asia, the western Pacific islands, Latin America and Africa.
-You have had dengue fever in the past. Previous infection with a dengue fever virus increases your risk of severe symptoms if you get dengue fever again.
-You live or travel in tropical areas. Being in tropical and subtropical areas increases your risk of exposure to the virus that causes dengue fever. Especially high-risk areas include Southeast Asia, the western Pacific islands, Latin America and Africa.
-You have had dengue fever in the past. Previous infection with a dengue fever virus increases your risk of severe symptoms if you get dengue fever again.
-Complications.
-Severe dengue fever can cause internal bleeding and organ damage. Blood pressure can drop to dangerous levels, causing shock. In some cases, severe dengue fever can lead to death.
-Women who get dengue fever during pregnancy may be able to spread the virus to the baby during childbirth. Additionally, babies of women who get dengue fever during pregnancy have a higher risk of pre-term birth, low birth weight or fetal distress.
-Prevention.
-In areas of the world where dengue fever is common, one dengue fever vaccine (Dengvaxia) is approved for people ages 9 to 45 who have already had dengue fever at least once. The vaccine is given in three doses over the course of 12 months.
-The vaccine is approved only for people who have a documented history of dengue fever or who have had a blood test that shows previous infection with one of the dengue viruses — called seropositivity. In people who have not had dengue fever in the past (seronegative), receiving the vaccine appears to increase the risk of severe dengue fever and hospitalization due to dengue fever in the future.
-Dengvaxia is not available for travelers or for people who live in the continental United States. But in 2019, the U.S. Food and Drug Administration approved the vaccine for people ages 9 to 16 who have had dengue fever in the past and who live in the U.S. territories of American Samoa, Guam, Puerto Rico and the U.S. Virgin Islands — where dengue fever is common.
-The World Health Organization stresses that the vaccine is not an effective tool on its own to reduce dengue fever in areas where the illness is common. Preventing mosquito bites and controlling the mosquito population are still the main methods for preventing the spread of dengue fever.
-If you live in or travel to an area where dengue fever is common, these tips may help reduce your risk of mosquito bites:
-Stay in air-conditioned or well-screened housing. The mosquitoes that carry the dengue viruses are most active from dawn to dusk, but they can also bite at night.
-Wear protective clothing. When you go into mosquito-infested areas, wear a long-sleeved shirt, long pants, socks and shoes.
-Use mosquito repellent. Permethrin can be applied to your clothing, shoes, camping gear and bed netting. You can also buy clothing made with permethrin already in it. For your skin, use a repellent containing at least a 10% concentration of DEET.
-Reduce mosquito habitat. The mosquitoes that carry the dengue virus typically live in and around houses, breeding in standing water that can collect in such things as used automobile tires. You can help lower mosquito populations by eliminating habitats where they lay their eggs. At least once a week, empty and clean containers that hold standing water, such as planting containers, animal dishes and flower vases. Keep standing water containers covered between cleanings.
-Stay in air-conditioned or well-screened housing. The mosquitoes that carry the dengue viruses are most active from dawn to dusk, but they can also bite at night.
-Wear protective clothing. When you go into mosquito-infested areas, wear a long-sleeved shirt, long pants, socks and shoes.
-Use mosquito repellent. Permethrin can be applied to your clothing, shoes, camping gear and bed netting. You can also buy clothing made with permethrin already in it. For your skin, use a repellent containing at least a 10% concentration of DEET.
-Reduce mosquito habitat. The mosquitoes that carry the dengue virus typically live in and around houses, breeding in standing water that can collect in such things as used automobile tires. You can help lower mosquito populations by eliminating habitats where they lay their eggs. At least once a week, empty and clean containers that hold standing water, such as planting containers, animal dishes and flower vases. Keep standing water containers covered between cleanings.</t>
-  </si>
-  <si>
-    <t>Overview.
-Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
-Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
-Symptoms.
-Signs and symptoms associated with diarrhea (loose, watery stools) may include:
-Abdominal cramps or pain
-Bloating
-Nausea
-Vomiting
-Fever
-Blood in the stool
-Mucus in the stool
-Urgent need to have a bowel movement.
-Abdominal cramps or pain.
-Bloating.
-Nausea.
-Vomiting.
-Fever.
-Blood in the stool.
-Mucus in the stool.
-Urgent need to have a bowel movement.
-If you're an adult, see your doctor if:
-Your diarrhea persists beyond two days with no improvement
-You become dehydrated
-You have severe abdominal or rectal pain
-You have bloody or black stools
-You have a fever above 102 F (39 C).
-Your diarrhea persists beyond two days with no improvement.
-You become dehydrated.
-You have severe abdominal or rectal pain.
-You have bloody or black stools.
-You have a fever above 102 F (39 C).
-In children, particularly young children, diarrhea can quickly lead to dehydration. Call your doctor if your child's diarrhea doesn't improve within 24 hours or if your child:
-Becomes dehydrated
-Has a fever above 102 F (39 C)
-Has bloody or black stools.
-Becomes dehydrated.
-Has a fever above 102 F (39 C).
-Has bloody or black stools.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-A number of diseases and conditions can cause diarrhea, including:
-Viruses. Viruses that can cause diarrhea include Norwalk virus (also known as norovirus), enteric adenoviruses, astrovirus, cytomegalovirus and viral hepatitis. Rotavirus is a common cause of acute childhood diarrhea. The virus that causes coronavirus disease 2019 (COVID-19) has also been associated with gastrointestinal symptoms, including nausea, vomiting and diarrhea.
-Bacteria and parasites. Exposure to pathogenic bacteria, such as E. coli or parasites through contaminated food or water, leads to diarrhea. When traveling in developing countries, diarrhea caused by bacteria and parasites is often called traveler's diarrhea. Clostridioides difficile (also known as C. diff) is another type of bacterium that causes diarrhea, and it can occur after a course of antibiotics or during a hospitalization.
-Medications. Many medications, such as antibiotics, can cause diarrhea. Antibiotics alleviate infections by killing bad bacteria, but they also kill good bacteria. This disturbs the natural balance of bacteria in your intestines, leading to diarrhea or a superimposed infection such as C. diff. Other drugs that cause diarrhea are anti-cancer drugs and antacids with magnesium.
-Lactose intolerance. Lactose is a sugar found in milk and other dairy products. People who have difficulty digesting lactose have diarrhea after eating dairy products. Lactose intolerance can increase with age because levels of the enzyme that helps digest lactose drop as you get older.
-Fructose. Fructose is a sugar found naturally in fruits and honey. It's sometimes added as a sweetener to certain beverages. Fructose can lead to diarrhea in people who have trouble digesting it.
-Artificial sweeteners. Sorbitol, erythritol and mannitol — artificial sweeteners are nonabsorbable sugars found in chewing gum and other sugar-free products — can cause diarrhea in some otherwise healthy people.
-Surgery. Partial intestine or gallbladder removal surgeries can sometimes cause diarrhea.
-Other digestive disorders. Chronic diarrhea has a number of other causes, such as IBS, Crohn's disease, ulcerative colitis, celiac disease, microscopic colitis and small intestinal bacterial overgrowth (SIBO).
-Viruses. Viruses that can cause diarrhea include Norwalk virus (also known as norovirus), enteric adenoviruses, astrovirus, cytomegalovirus and viral hepatitis. Rotavirus is a common cause of acute childhood diarrhea. The virus that causes coronavirus disease 2019 (COVID-19) has also been associated with gastrointestinal symptoms, including nausea, vomiting and diarrhea.
-Bacteria and parasites. Exposure to pathogenic bacteria, such as E. coli or parasites through contaminated food or water, leads to diarrhea. When traveling in developing countries, diarrhea caused by bacteria and parasites is often called traveler's diarrhea. Clostridioides difficile (also known as C. diff) is another type of bacterium that causes diarrhea, and it can occur after a course of antibiotics or during a hospitalization.
-Medications. Many medications, such as antibiotics, can cause diarrhea. Antibiotics alleviate infections by killing bad bacteria, but they also kill good bacteria. This disturbs the natural balance of bacteria in your intestines, leading to diarrhea or a superimposed infection such as C. diff. Other drugs that cause diarrhea are anti-cancer drugs and antacids with magnesium.
-Lactose intolerance. Lactose is a sugar found in milk and other dairy products. People who have difficulty digesting lactose have diarrhea after eating dairy products. Lactose intolerance can increase with age because levels of the enzyme that helps digest lactose drop as you get older.
-Fructose. Fructose is a sugar found naturally in fruits and honey. It's sometimes added as a sweetener to certain beverages. Fructose can lead to diarrhea in people who have trouble digesting it.
-Artificial sweeteners. Sorbitol, erythritol and mannitol — artificial sweeteners are nonabsorbable sugars found in chewing gum and other sugar-free products — can cause diarrhea in some otherwise healthy people.
-Surgery. Partial intestine or gallbladder removal surgeries can sometimes cause diarrhea.
-Other digestive disorders. Chronic diarrhea has a number of other causes, such as IBS, Crohn's disease, ulcerative colitis, celiac disease, microscopic colitis and small intestinal bacterial overgrowth (SIBO).
-Complications.
-Diarrhea can cause dehydration, which can be life-threatening if untreated. Dehydration is particularly dangerous in children, older adults and those with weakened immune systems.
-If you have signs of serious dehydration, seek medical help.
-These include:
-Excessive thirst
-Dry mouth or skin
-Little or no urination
-Weakness, dizziness or lightheadedness
-Fatigue
-Dark-colored urine.
-Excessive thirst.
-Dry mouth or skin.
-Little or no urination.
-Weakness, dizziness or lightheadedness.
-Fatigue.
-Dark-colored urine.
-These include:
-Not having a wet diaper in three or more hours
-Dry mouth and tongue
-Fever above 102 F (39 C)
-Crying without tears
-Drowsiness, unresponsiveness or irritability
-Sunken appearance to the abdomen, eyes or cheeks.
-Not having a wet diaper in three or more hours.
-Dry mouth and tongue.
-Fever above 102 F (39 C).
-Crying without tears.
-Drowsiness, unresponsiveness or irritability.
-Sunken appearance to the abdomen, eyes or cheeks.
-Prevention.
-Wash your hands to prevent the spread of infectious diarrhea. To ensure adequate hand-washing:
-Wash frequently. Wash your hands before and after preparing food. Wash your hands after handling uncooked meat, using the toilet, changing diapers, sneezing, coughing and blowing your nose.
-Lather with soap for at least 20 seconds. After putting soap on your hands, rub your hands together for at least 20 seconds. This is about as long as it takes to sing "Happy Birthday" twice through.
-Use hand sanitizer when washing isn't possible. Use an alcohol-based hand sanitizer when you can't get to a sink. Apply the hand sanitizer as you would hand lotion, making sure to cover the fronts and backs of both hands. Use a product that contains at least 60% alcohol.
-Wash frequently. Wash your hands before and after preparing food. Wash your hands after handling uncooked meat, using the toilet, changing diapers, sneezing, coughing and blowing your nose.
-Lather with soap for at least 20 seconds. After putting soap on your hands, rub your hands together for at least 20 seconds. This is about as long as it takes to sing "Happy Birthday" twice through.
-Use hand sanitizer when washing isn't possible. Use an alcohol-based hand sanitizer when you can't get to a sink. Apply the hand sanitizer as you would hand lotion, making sure to cover the fronts and backs of both hands. Use a product that contains at least 60% alcohol.
-You can help protect your infant from rotavirus, the most common cause of viral diarrhea in children, with one of two approved vaccines. Ask your baby's doctor about having your baby vaccinated.
-Diarrhea commonly affects people who travel to countries where there's inadequate sanitation and contaminated food. To reduce your risk:
-Watch what you eat. Eat hot, well-cooked foods. Avoid raw fruits and vegetables unless you can peel them yourself. Also avoid raw or undercooked meats and dairy foods.
-Watch what you drink. Drink bottled water, soda, beer or wine served in its original container. Avoid tap water and ice cubes. Use bottled water even for brushing your teeth. Keep your mouth closed while you shower.
-Beverages made with boiled water, such as coffee and tea, are probably safe. Remember that alcohol and caffeine can aggravate diarrhea and worsen dehydration.
-Ask your doctor about antibiotics. If you're traveling to a developing country for an extended time, ask your doctor about antibiotics before you go, especially if you have a weakened immune system.
-Check for travel warnings. The Centers for Disease Control and Prevention maintains a travelers' health website where disease warnings are posted for various countries. If you're planning to travel outside of the United States, check there for warnings and tips for reducing your risk.
-Watch what you eat. Eat hot, well-cooked foods. Avoid raw fruits and vegetables unless you can peel them yourself. Also avoid raw or undercooked meats and dairy foods.
-Watch what you drink. Drink bottled water, soda, beer or wine served in its original container. Avoid tap water and ice cubes. Use bottled water even for brushing your teeth. Keep your mouth closed while you shower.
-Beverages made with boiled water, such as coffee and tea, are probably safe. Remember that alcohol and caffeine can aggravate diarrhea and worsen dehydration.
-Watch what you drink. Drink bottled water, soda, beer or wine served in its original container. Avoid tap water and ice cubes. Use bottled water even for brushing your teeth. Keep your mouth closed while you shower.
-Beverages made with boiled water, such as coffee and tea, are probably safe. Remember that alcohol and caffeine can aggravate diarrhea and worsen dehydration.
-Ask your doctor about antibiotics. If you're traveling to a developing country for an extended time, ask your doctor about antibiotics before you go, especially if you have a weakened immune system.
-Check for travel warnings. The Centers for Disease Control and Prevention maintains a travelers' health website where disease warnings are posted for various countries. If you're planning to travel outside of the United States, check there for warnings and tips for reducing your risk.</t>
-  </si>
-  <si>
-    <t>Overview.
-Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
-Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
-Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
-Symptoms.
-People experiencing dizziness may describe it as any of a number of sensations, such as:
-A false sense of motion or spinning (vertigo)
-Lightheadedness or feeling faint
-Unsteadiness or a loss of balance
-A feeling of floating, wooziness or heavy-headedness.
-A false sense of motion or spinning (vertigo).
-Lightheadedness or feeling faint.
-Unsteadiness or a loss of balance.
-A feeling of floating, wooziness or heavy-headedness.
-These feelings may be triggered or worsened by walking, standing up or moving your head. Your dizziness may be accompanied by nausea or be so sudden or severe that you need to sit or lie down. The episode may last seconds or days and may recur.
-Generally, see your doctor if you experience any recurrent, sudden, severe, or prolonged and unexplained dizziness or vertigo.
-Get emergency medical care if you experience new, severe dizziness or vertigo along with any of the following:
-Sudden, severe headache
-Chest pain
-Difficulty breathing
-Numbness or paralysis of arms or legs
-Fainting
-Double vision
-Rapid or irregular heartbeat
-Confusion or slurred speech
-Stumbling or difficulty walking
-Ongoing vomiting
-Seizures
-A sudden change in hearing
-Facial numbness or weakness.
-Sudden, severe headache.
-Chest pain.
-Difficulty breathing.
-Numbness or paralysis of arms or legs.
-Fainting.
-Double vision.
-Rapid or irregular heartbeat.
-Confusion or slurred speech.
-Stumbling or difficulty walking.
-Ongoing vomiting.
-Seizures.
-A sudden change in hearing.
-Facial numbness or weakness.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Dizziness has many possible causes, including inner ear disturbance, motion sickness and medication effects. Sometimes it's caused by an underlying health condition, such as poor circulation, infection or injury.
-The way dizziness makes you feel and your triggers provide clues for possible causes. How long the dizziness lasts and any other symptoms you have also help pinpoint the cause.
-Your sense of balance depends on the combined input from the various parts of your sensory system. These include your:
-Eyes, which help you determine where your body is in space and how it's moving
-Sensory nerves, which send messages to your brain about body movements and positions
-Inner ear, which houses sensors that help detect gravity and back-and-forth motion.
-Eyes, which help you determine where your body is in space and how it's moving.
-Sensory nerves, which send messages to your brain about body movements and positions.
-Inner ear, which houses sensors that help detect gravity and back-and-forth motion.
-Vertigo is the false sense that your surroundings are spinning or moving. With inner ear disorders, your brain receives signals from the inner ear that aren't consistent with what your eyes and sensory nerves are receiving. Vertigo is what results as your brain works to sort out the confusion.
-Benign paroxysmal positional vertigo (BPPV). This condition causes an intense and brief but false sense that you're spinning or moving. These episodes are triggered by a rapid change in head movement, such as when you turn over in bed, sit up or experience a blow to the head. BPPV is the most common cause of vertigo.
-Infection. A viral infection of the vestibular nerve, called vestibular neuritis, can cause intense, constant vertigo. If you also have sudden hearing loss, you may have labyrinthitis.
-Meniere's disease. This disease involves the excessive buildup of fluid in your inner ear. It's characterized by sudden episodes of vertigo lasting as long as several hours. You may also experience fluctuating hearing loss, ringing in the ear and the feeling of a plugged ear.
-Migraine. People who experience migraines may have episodes of vertigo or other types of dizziness even when they're not having a severe headache. Such vertigo episodes can last minutes to hours and may be associated with headache as well as light and noise sensitivity.
-Benign paroxysmal positional vertigo (BPPV). This condition causes an intense and brief but false sense that you're spinning or moving. These episodes are triggered by a rapid change in head movement, such as when you turn over in bed, sit up or experience a blow to the head. BPPV is the most common cause of vertigo.
-Infection. A viral infection of the vestibular nerve, called vestibular neuritis, can cause intense, constant vertigo. If you also have sudden hearing loss, you may have labyrinthitis.
-Meniere's disease. This disease involves the excessive buildup of fluid in your inner ear. It's characterized by sudden episodes of vertigo lasting as long as several hours. You may also experience fluctuating hearing loss, ringing in the ear and the feeling of a plugged ear.
-Migraine. People who experience migraines may have episodes of vertigo or other types of dizziness even when they're not having a severe headache. Such vertigo episodes can last minutes to hours and may be associated with headache as well as light and noise sensitivity.
-You may feel dizzy, faint or off balance if your heart isn't pumping enough blood to your brain. Causes include:
-Drop in blood pressure. A dramatic drop in your systolic blood pressure — the higher number in your blood pressure reading — may result in brief lightheadedness or a feeling of faintness. It can occur after sitting up or standing too quickly. This condition is also called orthostatic hypotension.
-Poor blood circulation. Conditions such as cardiomyopathy, heart attack, heart arrhythmia and transient ischemic attack could cause dizziness. And a decrease in blood volume may cause inadequate blood flow to your brain or inner ear.
-Drop in blood pressure. A dramatic drop in your systolic blood pressure — the higher number in your blood pressure reading — may result in brief lightheadedness or a feeling of faintness. It can occur after sitting up or standing too quickly. This condition is also called orthostatic hypotension.
-Poor blood circulation. Conditions such as cardiomyopathy, heart attack, heart arrhythmia and transient ischemic attack could cause dizziness. And a decrease in blood volume may cause inadequate blood flow to your brain or inner ear.
-Neurological conditions. Some neurological disorders — such as Parkinson's disease and multiple sclerosis — can lead to progressive loss of balance.
-Medications. Dizziness can be a side effect of certain medications — such as anti-seizure drugs, antidepressants, sedatives and tranquilizers. In particular, blood pressure lowering medications may cause faintness if they lower your blood pressure too much.
-Anxiety disorders. Certain anxiety disorders may cause lightheadedness or a woozy feeling often referred to as dizziness. These include panic attacks and a fear of leaving home or being in large, open spaces (agoraphobia).
-Low iron levels (anemia). Other signs and symptoms that may occur along with dizziness if you have anemia include fatigue, weakness and pale skin.
-Low blood sugar (hypoglycemia). This condition generally occurs in people with diabetes who use insulin. Dizziness (lightheadedness) may be accompanied by sweating and anxiety.
-Carbon monoxide poisoning. Symptoms of carbon monoxide poisoning are often described as "flu-like" and include headache, dizziness, weakness, upset stomach, vomiting, chest pain and confusion.
-Overheating and dehydration. If you're active in hot weather or if you don't drink enough fluids, you may feel dizzy from overheating (hyperthermia) or from dehydration. This is especially true if you take certain heart medications.
-Neurological conditions. Some neurological disorders — such as Parkinson's disease and multiple sclerosis — can lead to progressive loss of balance.
-Medications. Dizziness can be a side effect of certain medications — such as anti-seizure drugs, antidepressants, sedatives and tranquilizers. In particular, blood pressure lowering medications may cause faintness if they lower your blood pressure too much.
-Anxiety disorders. Certain anxiety disorders may cause lightheadedness or a woozy feeling often referred to as dizziness. These include panic attacks and a fear of leaving home or being in large, open spaces (agoraphobia).
-Low iron levels (anemia). Other signs and symptoms that may occur along with dizziness if you have anemia include fatigue, weakness and pale skin.
-Low blood sugar (hypoglycemia). This condition generally occurs in people with diabetes who use insulin. Dizziness (lightheadedness) may be accompanied by sweating and anxiety.
-Carbon monoxide poisoning. Symptoms of carbon monoxide poisoning are often described as "flu-like" and include headache, dizziness, weakness, upset stomach, vomiting, chest pain and confusion.
-Overheating and dehydration. If you're active in hot weather or if you don't drink enough fluids, you may feel dizzy from overheating (hyperthermia) or from dehydration. This is especially true if you take certain heart medications.
-Risk factors.
-Factors that may increase your risk of getting dizzy include:
-Age. Older adults are more likely to have medical conditions that cause dizziness, especially a sense of imbalance. They're also more likely to take medications that can cause dizziness.
-A past episode of dizziness. If you've experienced dizziness before, you're more likely to get dizzy in the future.
-Age. Older adults are more likely to have medical conditions that cause dizziness, especially a sense of imbalance. They're also more likely to take medications that can cause dizziness.
-A past episode of dizziness. If you've experienced dizziness before, you're more likely to get dizzy in the future.
-Complications.
-Dizziness can increase your risk of falling and injuring yourself. Experiencing dizziness while driving a car or operating heavy machinery can increase the likelihood of an accident. You may also experience long-term consequences if an existing health condition that may be causing your dizziness goes untreated.</t>
-  </si>
-  <si>
-    <t>Overview.
-Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
-The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
-Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
-Symptoms.
-Farsightedness may mean:
-Nearby objects may appear blurry
-You need to squint to see clearly
-You have eyestrain, including burning eyes, and aching in or around the eyes
-You have general eye discomfort or a headache after doing close tasks, such as reading, writing, computer work or drawing, for a time.
-Nearby objects may appear blurry.
-You need to squint to see clearly.
-You have eyestrain, including burning eyes, and aching in or around the eyes.
-You have general eye discomfort or a headache after doing close tasks, such as reading, writing, computer work or drawing, for a time.
-If your degree of farsightedness is pronounced enough that you can't perform a task as well as you wish, or if your quality of vision detracts from your enjoyment of activities, see an eye doctor. He or she can determine the degree of your farsightedness and advise you of options to correct your vision.
-Since it may not always be readily apparent that you're having trouble with your vision, the American Academy of Ophthalmology recommends the following intervals for regular eye exams:
-If you're at high risk of certain eye diseases, such as glaucoma, get a dilated eye exam every one to two years, starting at age 40.
-If you don't wear glasses or contacts, have no symptoms of eye trouble, and are at a low risk of developing eye diseases, such as glaucoma, get an eye exam at the following intervals:
-An initial exam at 40
-Every two to four years between ages 40 and 54
-Every one to three years between ages 55 and 64
-Every one to two years beginning at age 65.
-An initial exam at 40.
-Every two to four years between ages 40 and 54.
-Every one to three years between ages 55 and 64.
-Every one to two years beginning at age 65.
-If you wear glasses or contacts or you have a health condition that affects the eyes, such as diabetes, you'll likely need to have your eyes checked regularly. Ask your eye doctor how frequently you need to schedule your appointments. But, if you notice problems with your vision, schedule an appointment with your eye doctor as soon as possible, even if you've recently had an eye exam. Blurred vision, for example, may suggest you need a prescription change, or it could be a sign of another problem.
-Children need to be screened for eye disease and have their vision tested by a pediatrician, an ophthalmologist, an optometrist or another trained screener at the following ages and intervals.
-Age 6 months
-Age 3 years
-Before first grade and every two years during school years, at well-child visits, or through school or public screenings.
-Age 6 months.
-Age 3 years.
-Before first grade and every two years during school years, at well-child visits, or through school or public screenings.
-Causes.
-Your eye has two parts that focus images:
-The cornea is the clear, dome-shaped front surface of your eye.
-The lens is a clear structure about the size and shape of an M&amp;M's candy.
-The cornea is the clear, dome-shaped front surface of your eye.
-The lens is a clear structure about the size and shape of an M&amp;M's candy.
-In a normally shaped eye, each of these focusing elements has a perfectly smooth curvature, like the surface of a marble. A cornea and lens with such curvature bend (refract) all incoming light to make a sharply focused image directly on the retina, at the back of your eye.
-If your cornea or lens isn't evenly and smoothly curved, light rays aren't refracted properly, and you have a refractive error.
-Farsightedness occurs when your eyeball is shorter than normal or your cornea is curved too little. The effect is the opposite of nearsightedness.
-In addition to farsightedness, other refractive errors include:
-Nearsightedness (myopia). Nearsightedness usually occurs when your eyeball is longer than normal or your cornea is curved too steeply. Instead of being focused precisely on your retina, light is focused in front of your retina, resulting in a blurry appearance for distant objects.
-Astigmatism. This occurs when your cornea or lens is curved more steeply in one direction than it is in another. Uncorrected astigmatism blurs your vision.
-Nearsightedness (myopia). Nearsightedness usually occurs when your eyeball is longer than normal or your cornea is curved too steeply. Instead of being focused precisely on your retina, light is focused in front of your retina, resulting in a blurry appearance for distant objects.
-Astigmatism. This occurs when your cornea or lens is curved more steeply in one direction than it is in another. Uncorrected astigmatism blurs your vision.
-Complications.
-Farsightedness can be associated with several problems, such as:
-Crossed eyes. Some children with farsightedness may develop crossed eyes. Specially designed eyeglasses that correct for part or all of the farsightedness may treat this problem.
-Reduced quality of life. With uncorrected farsightedness, you might not be able to perform a task as well as you wish. And your limited vision may detract from your enjoyment of day-to-day activities.
-Eyestrain. Uncorrected farsightedness may cause you to squint or strain your eyes to maintain focus. This can lead to eyestrain and headaches.
-Impaired safety. Your own safety and that of others may be jeopardized if you have an uncorrected vision problem. This could be especially serious if you are driving a car or operating heavy equipment.
-Financial burden. The cost of corrective lenses, eye exams and medical treatments can add up, especially with a chronic condition such as farsightedness.
-Crossed eyes. Some children with farsightedness may develop crossed eyes. Specially designed eyeglasses that correct for part or all of the farsightedness may treat this problem.
-Reduced quality of life. With uncorrected farsightedness, you might not be able to perform a task as well as you wish. And your limited vision may detract from your enjoyment of day-to-day activities.
-Eyestrain. Uncorrected farsightedness may cause you to squint or strain your eyes to maintain focus. This can lead to eyestrain and headaches.
-Impaired safety. Your own safety and that of others may be jeopardized if you have an uncorrected vision problem. This could be especially serious if you are driving a car or operating heavy equipment.
-Financial burden. The cost of corrective lenses, eye exams and medical treatments can add up, especially with a chronic condition such as farsightedness.</t>
-  </si>
-  <si>
-    <t>Overview.
-Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
-Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
-Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
-People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
-Symptoms.
-Common signs and symptoms of head lice may include:
-Itching. The most common symptom of head lice is itching on the scalp, neck and ears. This is an allergic reaction to louse bites. When a person has head lice for the first time, itching may not occur for 4 to 6 weeks.
-Lice on scalp. You may be able to see the lice, but they're often hard to spot because they're small, avoid light and move quickly.
-Lice eggs (nits) on hair shafts. Nits stick to hair shafts and may be hard to see because they're very tiny. They're easiest to spot around the ears and the hairline of the neck. Empty nits may be easier to spot because they're lighter in color and further from the scalp. However, the presence of nits doesn't mean there are live lice.
-Sores on the scalp, neck and shoulders. Scratching can lead to small, red bumps that may sometimes get infected with bacteria.
-Itching. The most common symptom of head lice is itching on the scalp, neck and ears. This is an allergic reaction to louse bites. When a person has head lice for the first time, itching may not occur for 4 to 6 weeks.
-Lice on scalp. You may be able to see the lice, but they're often hard to spot because they're small, avoid light and move quickly.
-Lice eggs (nits) on hair shafts. Nits stick to hair shafts and may be hard to see because they're very tiny. They're easiest to spot around the ears and the hairline of the neck. Empty nits may be easier to spot because they're lighter in color and further from the scalp. However, the presence of nits doesn't mean there are live lice.
-Sores on the scalp, neck and shoulders. Scratching can lead to small, red bumps that may sometimes get infected with bacteria.
-See a health care provider before you begin treatment if you suspect that you or your child has head lice. Your or your child's health care provider can confirm that head lice are present. Studies show that many children have been treated for head lice with nonprescription medications or home remedies when they didn't have lice.
-Things often mistaken for nits include:
-Dandruff
-Residue from hair products
-Beads of dead hair tissue on a hair shaft
-Scabs, dirt or other debris
-Other small insects found in the hair.
-Dandruff.
-Residue from hair products.
-Beads of dead hair tissue on a hair shaft.
-Scabs, dirt or other debris.
-Other small insects found in the hair.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-A head louse is a tan or grayish insect about the size of a strawberry seed. It feeds on human blood from the scalp. The female louse produces a sticky substance that firmly attaches each egg to the base of a hair shaft less than 1/4 inch (5 millimeters) from the scalp.
-A louse goes through three stages:
-Eggs that hatch after 6 to 9 days.
-Nymphs, immature forms of the louse that become mature adults after 9 to 12 days.
-Adult lice, which can live for 3 to 4 weeks. The female louse lays 6 to 10 eggs a day.
-Eggs that hatch after 6 to 9 days.
-Nymphs, immature forms of the louse that become mature adults after 9 to 12 days.
-Adult lice, which can live for 3 to 4 weeks. The female louse lays 6 to 10 eggs a day.
-Head lice crawl, but they can't jump or fly. Head lice often spread from one person to another by direct head-to-head contact, often within a family or among children who have close contact at school or play.
-It's less common for head lice to spread without direct contact. But the insects may spread from one person to another through personal items, such as:
-Hats and scarves
-Brushes and combs
-Hair accessories
-Headphones
-Pillows, towels and upholstery.
-Hats and scarves.
-Brushes and combs.
-Hair accessories.
-Headphones.
-Pillows, towels and upholstery.
-Head lice may also spread when items of clothing are stored together. For example, hats or scarves hung on the same hook or stored in the same school locker could serve as vehicles for spreading lice.
-Household pets, such as dogs and cats, don't play a role in spreading head lice.
-Risk factors.
-Head lice are spread primarily by direct head-to-head contact. So the risk of spreading head lice is greatest among children who play or go to school together. In the United States, cases of head lice most often occur in children in preschool through elementary school.
-Complications.
-If your child scratches an itchy scalp due to head lice, it's possible for the skin to break and develop an infection.
-Prevention.
-It's difficult to prevent the spread of head lice among children in child care facilities and schools because there is so much close contact.
-The chance of indirect spread from personal items is slight. However, to help prevent head lice from spreading, you may tell your child to:
-Hang clothes on a separate hook from other children's clothes
-Avoid sharing combs, brushes, hats and scarves
-Avoid lying on beds, couches or pillows that have been in contact with a person who has head lice.
-Hang clothes on a separate hook from other children's clothes.
-Avoid sharing combs, brushes, hats and scarves.
-Avoid lying on beds, couches or pillows that have been in contact with a person who has head lice.
-It's not necessary to avoid sharing protective headgear for sports and bicycling when sharing is required.</t>
-  </si>
-  <si>
-    <t>Overview.
-Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
-Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
-Symptoms.
-Hiccupping is a symptom. It may sometimes be accompanied by a slight tightening sensation in your chest, abdomen or throat.
-Make an appointment to see your doctor if your hiccups last more than 48 hours or if they are so severe that they cause problems with eating, sleeping or breathing.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-The most common triggers for hiccups that last less than 48 hours include:
-Drinking carbonated beverages
-Drinking too much alcohol
-Eating too much
-Excitement or emotional stress
-Sudden temperature changes
-Swallowing air with chewing gum or sucking on candy.
-Drinking carbonated beverages.
-Drinking too much alcohol.
-Eating too much.
-Excitement or emotional stress.
-Sudden temperature changes.
-Swallowing air with chewing gum or sucking on candy.
-Hiccups that last more than 48 hours may be caused by a variety of factors, which can be grouped into the following categories.
-A cause of long-term hiccups is damage to or irritation of the vagus nerves or phrenic nerves, which serve the diaphragm muscle. Factors that may cause damage or irritation to these nerves include:
-A hair or something else in your ear touching your eardrum
-A tumor, cyst or goiter in your neck
-Gastroesophageal reflux
-Sore throat or laryngitis.
-A hair or something else in your ear touching your eardrum.
-A tumor, cyst or goiter in your neck.
-Gastroesophageal reflux.
-Sore throat or laryngitis.
-A tumor or infection in your central nervous system or damage to your central nervous system as a result of trauma can disrupt your body's normal control of the hiccup reflex. Examples include:
-Encephalitis
-Meningitis
-Multiple sclerosis
-Stroke
-Traumatic brain injury
-Tumors.
-Encephalitis.
-Meningitis.
-Multiple sclerosis.
-Stroke.
-Traumatic brain injury.
-Tumors.
-Long-term hiccups can be triggered by:
-Alcoholism
-Anesthesia
-Barbiturates
-Diabetes
-Electrolyte imbalance
-Kidney disease
-Steroids
-Tranquilizers.
-Alcoholism.
-Anesthesia.
-Barbiturates.
-Diabetes.
-Electrolyte imbalance.
-Kidney disease.
-Steroids.
-Tranquilizers.
-Risk factors.
-Men are much more likely to develop long-term hiccups than are women. Other factors that may increase your risk of hiccups include:
-Mental or emotional issues. Anxiety, stress and excitement have been associated with some cases of short-term and long-term hiccups.
-Surgery. Some people develop hiccups after undergoing general anesthesia or after procedures that involve abdominal organs.
-Mental or emotional issues. Anxiety, stress and excitement have been associated with some cases of short-term and long-term hiccups.
-Surgery. Some people develop hiccups after undergoing general anesthesia or after procedures that involve abdominal organs.
-Complications.
-Prolonged hiccups may interfere with:
-Eating
-Sleeping
-Speech
-Wound healing after surgery.
-Eating.
-Sleeping.
-Speech.
-Wound healing after surgery</t>
-  </si>
-  <si>
-    <t>Overview.
-Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
-Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
-Indigestion may often be relieved with lifestyle changes and medications.
-Symptoms.
-If you have indigestion, you may have:
-Early fullness during a meal. You haven't eaten much of your meal, but you already feel full and may not be able to finish eating.
-Uncomfortable fullness after a meal. The feeling of fullness lasts longer than it should.
-Discomfort in the upper abdomen. You feel a mild to severe pain in the area between the bottom of your breastbone and your bellybutton.
-Burning in the upper abdomen. You feel an uncomfortable heat or burning sensation between the bottom of your breastbone and your bellybutton.
-Bloating in the upper abdomen. You feel an uncomfortable sensation of tightness in your upper abdomen.
-Nausea. You feel as if you want to vomit.
-Early fullness during a meal. You haven't eaten much of your meal, but you already feel full and may not be able to finish eating.
-Uncomfortable fullness after a meal. The feeling of fullness lasts longer than it should.
-Discomfort in the upper abdomen. You feel a mild to severe pain in the area between the bottom of your breastbone and your bellybutton.
-Burning in the upper abdomen. You feel an uncomfortable heat or burning sensation between the bottom of your breastbone and your bellybutton.
-Bloating in the upper abdomen. You feel an uncomfortable sensation of tightness in your upper abdomen.
-Nausea. You feel as if you want to vomit.
-Less frequent signs and symptoms include vomiting and belching.
-Sometimes people with indigestion also experience heartburn. Heartburn is a pain or burning feeling in the center of your chest that may radiate into your neck or back during or after eating.
-Mild indigestion is usually nothing to worry about. Consult your doctor if discomfort persists for more than two weeks.
-Contact your doctor right away if pain is severe or accompanied by:
-Unintentional weight loss or loss of appetite
-Repeated vomiting or vomiting with blood
-Black, tarry stools
-Trouble swallowing that gets progressively worse
-Fatigue or weakness, which may indicate anemia.
-Unintentional weight loss or loss of appetite.
-Repeated vomiting or vomiting with blood.
-Black, tarry stools.
-Trouble swallowing that gets progressively worse.
-Fatigue or weakness, which may indicate anemia.
-Seek immediate medical attention if you have:
-Shortness of breath, sweating, or chest pain radiating to the jaw, neck or arm
-Chest pain on exertion or with stress.
-Shortness of breath, sweating, or chest pain radiating to the jaw, neck or arm.
-Chest pain on exertion or with stress.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Indigestion has many possible causes. Often, indigestion is related to lifestyle and may be triggered by food, drink or medication. Common causes of indigestion include:
-Overeating or eating too quickly
-Fatty, greasy or spicy foods
-Too much caffeine, alcohol, chocolate or carbonated beverages
-Smoking
-Anxiety
-Certain antibiotics, pain relievers and iron supplements.
-Overeating or eating too quickly.
-Fatty, greasy or spicy foods.
-Too much caffeine, alcohol, chocolate or carbonated beverages.
-Smoking.
-Anxiety.
-Certain antibiotics, pain relievers and iron supplements.
-A condition known as functional or nonulcer dyspepsia, which is related to irritable bowel syndrome, is a very common cause of indigestion.
-Sometimes indigestion is caused by other conditions, including:
-Inflammation of the stomach (gastritis)
-Peptic ulcers
-Celiac disease
-Gallstones
-Constipation
-Pancreas inflammation (pancreatitis)
-Stomach cancer
-Intestinal blockage
-Reduced blood flow in the intestine (intestinal ischemia)
-Diabetes
-Thyroid disease
-Pregnancy.
-Inflammation of the stomach (gastritis).
-Peptic ulcers.
-Celiac disease.
-Gallstones.
-Constipation.
-Pancreas inflammation (pancreatitis).
-Stomach cancer.
-Intestinal blockage.
-Reduced blood flow in the intestine (intestinal ischemia).
-Diabetes.
-Thyroid disease.
-Pregnancy.
-Complications.
-Although indigestion doesn't usually have serious complications, it can affect your quality of life by making you feel uncomfortable and causing you to eat less. You might miss work or school because of your symptoms.</t>
-  </si>
-  <si>
-    <t>Overview.
-Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
-Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
-Symptoms.
-Signs and symptoms of ingrown hair include:
-Tiny, swollen bumps where you shave, tweeze or wax
-Small bumps that look like blisters or are filled with pus
-Small bumps that are darker than surrounding skin (hyperpigmentation)
-Burning or stinging
-Itching
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin.
-Tiny, swollen bumps where you shave, tweeze or wax.
-Small bumps that look like blisters or are filled with pus.
-Small bumps that are darker than surrounding skin (hyperpigmentation).
-Burning or stinging.
-Itching.
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin.
-An occasional ingrown hair isn't cause for alarm. Seek medical care if your condition doesn't clear up or if it causes problems regularly.
-Causes.
-Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. This usually happens after shaving, tweezing or waxing.
-Hair structure and direction of growth play a role in ingrown hair. A curved hair follicle, which produces tightly curled hair, is believed to encourage the hair to reenter the skin once the hair is cut and starts to grow back. Shaving creates a sharp edge on hair, making it easier to pierce the skin.
-Ingrown hair might also be caused by:
-Pulling your skin when you shave. This action causes hair to draw back into the skin.
-Tweezing.
-Pulling your skin when you shave. This action causes hair to draw back into the skin.
-Tweezing.
-When a hair penetrates your skin, your skin reacts as it would to a foreign body — it becomes irritated.
-Risk factors.
-The main risk factor for ingrown hair is having tightly curled hair.
-Complications.
-Ingrown hair that doesn't clear up can lead to:
-Bacterial infection (from scratching)
-Patches of skin that are darker than usual (postinflammatory hyperpigmentation)
-Raised scars that are darker than surrounding skin (keloids)
-Pseudofolliculitis barbae, also known as razor bumps
-Fine depressed scars (grooves).
-Bacterial infection (from scratching).
-Patches of skin that are darker than usual (postinflammatory hyperpigmentation).
-Raised scars that are darker than surrounding skin (keloids).
-Pseudofolliculitis barbae, also known as razor bumps.
-Fine depressed scars (grooves).
-Prevention.
-To help prevent ingrown hair, avoid shaving, tweezing and waxing. If that's not an option, use these tips to make ingrown hair less likely:
-Before shaving wash your skin with warm water and a mild facial cleanser.
-Apply lubricating shaving cream or gel a few minutes before shaving to soften the hair. Or apply a warm, damp cloth.
-Apply shaving cream and use a sharp, single-blade razor. This helps avoid a too-close shave.
-Don't pull your skin while shaving.
-Shave in the direction of hair growth.
-Rinse the blade after each stroke.
-Rinse your skin and apply a cool, wet cloth for about five minutes. Then use a soothing after-shave product or a glycolic acid lotion to help remove dead skin cells (exfoliate).
-Before shaving wash your skin with warm water and a mild facial cleanser.
-Apply lubricating shaving cream or gel a few minutes before shaving to soften the hair. Or apply a warm, damp cloth.
-Apply shaving cream and use a sharp, single-blade razor. This helps avoid a too-close shave.
-Don't pull your skin while shaving.
-Shave in the direction of hair growth.
-Rinse the blade after each stroke.
-Rinse your skin and apply a cool, wet cloth for about five minutes. Then use a soothing after-shave product or a glycolic acid lotion to help remove dead skin cells (exfoliate).
-The following hair removal methods also may help prevent ingrown hair:
-Electric razor or clippers. With the razor, avoid the closest shave setting. Hold the razor or clippers slightly away from your skin.
-Chemical hair remover (depilatory). The chemicals in hair removal products may irritate your skin, so test on a small patch of hair first.
-Electric razor or clippers. With the razor, avoid the closest shave setting. Hold the razor or clippers slightly away from your skin.
-Chemical hair remover (depilatory). The chemicals in hair removal products may irritate your skin, so test on a small patch of hair first.</t>
-  </si>
-  <si>
-    <t>Overview.
-Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
-Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
-Symptoms.
-Ingrown toenail symptoms include:
-Pain and tenderness
-Inflamed skin
-Swelling
-Infection.
-Pain and tenderness.
-Inflamed skin.
-Swelling.
-Infection.
-See your health care provider if you:
-Experience severe discomfort in a toe, pus or inflamed skin that seems to be spreading
-Have diabetes or another condition that causes poor blood flow to the feet and you have a foot sore or infection.
-Experience severe discomfort in a toe, pus or inflamed skin that seems to be spreading.
-Have diabetes or another condition that causes poor blood flow to the feet and you have a foot sore or infection.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Causes of ingrown toenails include:
-Wearing shoes that crowd the toenails
-Cutting toenails too short or not straight across
-Injuring a toenail
-Having very curved toenails
-Nail infections
-Certain medical conditions.
-Wearing shoes that crowd the toenails.
-Cutting toenails too short or not straight across.
-Injuring a toenail.
-Having very curved toenails.
-Nail infections.
-Certain medical conditions.
-Risk factors.
-Factors that increase your risk of ingrown toenails include:
-Being an adolescent, when feet tend to perspire more, which softens the nail and skin
-Having nail care habits that encourage the nail to grow into the skin, such as cutting the nails too short or rounding the corners
-Having a reduced ability to care for your nails
-Wearing shoes that constrict the toes
-Participating in activities, such as running and kicking, that put your toes at risk of injury
-Having a condition, such as diabetes, that causes poor blood flow.
-Being an adolescent, when feet tend to perspire more, which softens the nail and skin.
-Having nail care habits that encourage the nail to grow into the skin, such as cutting the nails too short or rounding the corners.
-Having a reduced ability to care for your nails.
-Wearing shoes that constrict the toes.
-Participating in activities, such as running and kicking, that put your toes at risk of injury.
-Having a condition, such as diabetes, that causes poor blood flow.
-Complications.
-Complications can be especially severe if you have diabetes, which can cause poor blood flow and damaged nerves in the feet. So a minor foot injury — a cut, scrape, corn, callus or ingrown toenail — may not heal properly and become infected.
-Prevention.
-To help prevent an ingrown toenail:
-Trim your toenails straight across. Don't curve your nails to match the shape of the front of your toe. If you get a pedicure, ask the person doing it to trim your nails straight across. If you have a condition that causes poor blood flow to the feet and you can't trim your nails, see a podiatrist regularly to have your nails trimmed.
-Keep toenails at a moderate length. Trim toenails so they're even with the tips of your toes. If you trim your toenails too short, the pressure from your shoes on your toes may direct a nail to grow into the tissue.
-Wear shoes that fit properly. Shoes that place too much pressure on your toes or pinch them may cause a nail to grow into surrounding tissue. If you have nerve damage to the feet, you may not be able to sense if your shoes fit too tightly.
-Wear protective footwear. If your activities put you at risk of injuring your toes, wear protective footwear, such as steel-toed shoes.
-Check your feet. If you have diabetes, check your feet daily for signs of ingrown toenails or other foot problems.
-Trim your toenails straight across. Don't curve your nails to match the shape of the front of your toe. If you get a pedicure, ask the person doing it to trim your nails straight across. If you have a condition that causes poor blood flow to the feet and you can't trim your nails, see a podiatrist regularly to have your nails trimmed.
-Keep toenails at a moderate length. Trim toenails so they're even with the tips of your toes. If you trim your toenails too short, the pressure from your shoes on your toes may direct a nail to grow into the tissue.
-Wear shoes that fit properly. Shoes that place too much pressure on your toes or pinch them may cause a nail to grow into surrounding tissue. If you have nerve damage to the feet, you may not be able to sense if your shoes fit too tightly.
-Wear protective footwear. If your activities put you at risk of injuring your toes, wear protective footwear, such as steel-toed shoes.
-Check your feet. If you have diabetes, check your feet daily for signs of ingrown toenails or other foot problems.</t>
-  </si>
-  <si>
-    <t>Overview.
-Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
-For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
-Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
-Symptoms.
-Symptoms of menstrual cramps include:
-Throbbing or cramping pain in your lower abdomen that can be intense
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
-Dull, continuous ache
-Pain that radiates to your lower back and thighs.
-Throbbing or cramping pain in your lower abdomen that can be intense.
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days.
-Dull, continuous ache.
-Pain that radiates to your lower back and thighs.
-Some women also have:
-Nausea
-Loose stools
-Headache
-Dizziness.
-Nausea.
-Loose stools.
-Headache.
-Dizziness.
-See your health care provider if:
-Menstrual cramps disrupt your life every month
-Your symptoms progressively worsen
-You just started having severe menstrual cramps after age 25.
-Menstrual cramps disrupt your life every month.
-Your symptoms progressively worsen.
-You just started having severe menstrual cramps after age 25.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-During your menstrual period, your uterus contracts to help expel its lining. Hormonelike substances (prostaglandins) involved in pain and inflammation trigger the uterine muscle contractions. Higher levels of prostaglandins are associated with more-severe menstrual cramps.
-Menstrual cramps can be caused by:
-Endometriosis. Tissue that acts similar to the lining of the uterus grows outside of the uterus, most commonly on fallopian tubes, ovaries or the tissue lining your pelvis.
-Uterine fibroids. These noncancerous growths in the wall of the uterus can cause pain.
-Adenomyosis. The tissue that lines your uterus begins to grow into the muscular walls of the uterus.
-Pelvic inflammatory disease. This infection of the female reproductive organs is usually caused by sexually transmitted bacteria.
-Cervical stenosis. In some women, the opening of the cervix is small enough to impede menstrual flow, causing a painful increase of pressure within the uterus.
-Endometriosis. Tissue that acts similar to the lining of the uterus grows outside of the uterus, most commonly on fallopian tubes, ovaries or the tissue lining your pelvis.
-Uterine fibroids. These noncancerous growths in the wall of the uterus can cause pain.
-Adenomyosis. The tissue that lines your uterus begins to grow into the muscular walls of the uterus.
-Pelvic inflammatory disease. This infection of the female reproductive organs is usually caused by sexually transmitted bacteria.
-Cervical stenosis. In some women, the opening of the cervix is small enough to impede menstrual flow, causing a painful increase of pressure within the uterus.
-Risk factors.
-You might be at risk of menstrual cramps if:
-You're younger than age 30
-You started puberty early, at age 11 or younger
-You bleed heavily during periods (menorrhagia)
-You have irregular menstrual bleeding (metrorrhagia)
-You have a family history of menstrual cramps (dysmenorrhea)
-You smoke.
-You're younger than age 30.
-You started puberty early, at age 11 or younger.
-You bleed heavily during periods (menorrhagia).
-You have irregular menstrual bleeding (metrorrhagia).
-You have a family history of menstrual cramps (dysmenorrhea).
-You smoke.
-Complications.
-Menstrual cramps don't cause other medical complications, but they can interfere with school, work and social activities.
-Certain conditions associated with menstrual cramps can have complications, though. For example, endometriosis can cause fertility problems. Pelvic inflammatory disease can scar your fallopian tubes, increasing the risk of a fertilized egg implanting outside of your uterus (ectopic pregnancy).</t>
-  </si>
-  <si>
-    <t>Overview.
-Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
-Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
-Symptoms.
-Mosquito bite signs include:
-A puffy, white and reddish bump that appears a few minutes after the bite
-A hard, itchy, reddish-brown bump, or multiple bumps, appearing a day or so after the bite or bites
-Small blisters instead of hard bumps
-Dark spots that look like bruises.
-A puffy, white and reddish bump that appears a few minutes after the bite.
-A hard, itchy, reddish-brown bump, or multiple bumps, appearing a day or so after the bite or bites.
-Small blisters instead of hard bumps.
-Dark spots that look like bruises.
-More-severe reactions may be experienced by children, adults not previously exposed to the type of mosquito that bit them, and people with immune system disorders. In these people, mosquito bites sometimes trigger:
-A large area of swelling and redness
-Low-grade fever
-Hives
-Swollen lymph nodes.
-A large area of swelling and redness.
-Low-grade fever.
-Hives.
-Swollen lymph nodes.
-Children are more likely to develop a severe reaction than are adults, because many adults have had mosquito bites throughout their lives and become desensitized.
-If mosquito bites seem to be associated with more-serious warning signs — such as fever, headache, body aches and signs of infection — contact your doctor.
-Causes.
-Mosquito bites are caused by female mosquitoes feeding on your blood. Female mosquitoes have a mouthpart made to pierce skin and siphon off blood. Males lack this blood-sucking ability because they don't produce eggs and so have no need for protein in blood.
-As a biting mosquito fills itself with blood, it injects saliva into your skin. Proteins in the saliva trigger a mild immune system reaction that results in the characteristic itching and bump.
-Mosquitoes select their victims by evaluating scent, exhaled carbon dioxide and the chemicals in a person's sweat.
-Complications.
-Scratching bites can lead to infection.
-Mosquitoes can carry certain diseases, such as West Nile virus, malaria, yellow fever and dengue fever. The mosquito obtains a virus or parasite by biting an infected person or animal. Then, when biting you, the mosquito can transfer that virus or parasite to you through its saliva. West Nile and encephalitis viruses are found in the United States. Dengue fever has been reported in several southern states and Hawaii. Other diseases, such as malaria and yellow fever, are far more common in tropical areas of the world.
-Prevention.
-You can take several steps to protect yourself from mosquito bites.
-Limit exposure to mosquitoes by:
-Avoiding outdoor activities when they're most active, dusk to dawn
-Repairing any tears in the screens on your windows, doors and camping gear
-Using mosquito netting over strollers and cribs or when sleeping outdoors.
-Avoiding outdoor activities when they're most active, dusk to dawn.
-Repairing any tears in the screens on your windows, doors and camping gear.
-Using mosquito netting over strollers and cribs or when sleeping outdoors.
-The most effective insect repellents in the United States include one of three active ingredients:
-DEET
-Icaridin (also called picaridin)
-Oil of lemon eucalyptus (a plant-based compound).
-DEET.
-Icaridin (also called picaridin).
-Oil of lemon eucalyptus (a plant-based compound).
-These repellents temporarily repel mosquitoes and ticks. DEET may offer longer lasting protection. Whichever product you choose, read the label before you apply it. If you're using a spray repellent, apply it outdoors and away from food.
-If you're also using sunscreen, put it on first, about 20 minutes before applying the repellent. Avoid products that combine sunscreen and repellent, because you'll likely need to reapply sunscreen more often than repellent. And it's better to use only as much repellent as you need.
-Used according to package directions, these products are generally safe for children and adults, with a few exceptions:
-Don't use DEET-containing products on infants younger than 2 months.
-Don't let young children get DEET or icaridin-containing products on their hands or faces.
-Don't use oil of lemon eucalyptus on children under age 3 years.
-Don't apply repellent under clothing.
-Don't apply repellent over sunburns, cuts, wounds or rashes.
-When you go indoors, wash with soap and water to remove any remaining repellent.
-Don't use DEET-containing products on infants younger than 2 months.
-Don't let young children get DEET or icaridin-containing products on their hands or faces.
-Don't use oil of lemon eucalyptus on children under age 3 years.
-Don't apply repellent under clothing.
-Don't apply repellent over sunburns, cuts, wounds or rashes.
-When you go indoors, wash with soap and water to remove any remaining repellent.
-Permethrin is an insecticide and insect repellent used for additional protection. This product is applied to clothing and outdoor gear, not skin. Check the product label for specific application instructions. Some sporting goods stores sell clothing pretreated with permethrin.
-Weather permitting, wear:
-Long sleeves
-Socks and closed-toe shoes
-Long pants, possibly tucked into the tops of your socks
-Light colors
-A hat that protects your ears and neck or one with mosquito netting that covers your face.
-Long sleeves.
-Socks and closed-toe shoes.
-Long pants, possibly tucked into the tops of your socks.
-Light colors.
-A hat that protects your ears and neck or one with mosquito netting that covers your face.
-If you tend to have large or severe reactions to mosquito bites (skeeter syndrome), consider taking a nondrowsy, nonprescription antihistamine when you know you'll be exposed to mosquitoes.
-Eliminate standing water, which mosquitoes need to breed. To keep your house and yard free of mosquito pools:
-Unclog roof gutters.
-Empty children's wading pools at least once a week, and preferably more often.
-Change water in birdbaths at least weekly.
-Get rid of old tires in your yard.
-Empty outdoor flower pots regularly or store them upside down so that they can't collect water.
-Drain your fire pit if water collects there.
-Unclog roof gutters.
-Empty children's wading pools at least once a week, and preferably more often.
-Change water in birdbaths at least weekly.
-Get rid of old tires in your yard.
-Empty outdoor flower pots regularly or store them upside down so that they can't collect water.
-Drain your fire pit if water collects there.</t>
-  </si>
-  <si>
-    <t>Overview.
-A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
-Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
-Symptoms.
-Most muscle cramps develop in the leg muscles, particularly in the calf. Besides the sudden, sharp pain, you might also feel or see a hard lump of muscle tissue beneath your skin.
-Muscle cramps usually disappear on their own and are rarely serious enough to require medical care. However, see your doctor if your cramps:
-Cause severe discomfort
-Are associated with leg swelling, redness or skin changes
-Are associated with muscle weakness
-Happen frequently
-Don't improve with self-care
-Aren't associated with an obvious cause, such as strenuous exercise.
-Cause severe discomfort.
-Are associated with leg swelling, redness or skin changes.
-Are associated with muscle weakness.
-Happen frequently.
-Don't improve with self-care.
-Aren't associated with an obvious cause, such as strenuous exercise.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Overuse of a muscle, dehydration, muscle strain or simply holding a position for a prolonged period can cause a muscle cramp. In many cases, however, the cause isn't known.
-Although most muscle cramps are harmless, some may be related to an underlying medical condition, such as:
-Inadequate blood supply. Narrowing of the arteries that deliver blood to your legs (arteriosclerosis of the extremities) can produce cramp-like pain in your legs and feet while you're exercising. These cramps usually go away soon after you stop exercising.
-Nerve compression. Compression of nerves in your spine (lumbar stenosis) also can produce cramp-like pain in your legs. The pain usually worsens the longer you walk. Walking in a slightly flexed position — such as you would use when pushing a shopping cart ahead of you — may improve or delay the onset of your symptoms.
-Mineral depletion. Too little potassium, calcium or magnesium in your diet can contribute to leg cramps. Diuretics — medications often prescribed for high blood pressure — also can deplete these minerals.
-Inadequate blood supply. Narrowing of the arteries that deliver blood to your legs (arteriosclerosis of the extremities) can produce cramp-like pain in your legs and feet while you're exercising. These cramps usually go away soon after you stop exercising.
-Nerve compression. Compression of nerves in your spine (lumbar stenosis) also can produce cramp-like pain in your legs. The pain usually worsens the longer you walk. Walking in a slightly flexed position — such as you would use when pushing a shopping cart ahead of you — may improve or delay the onset of your symptoms.
-Mineral depletion. Too little potassium, calcium or magnesium in your diet can contribute to leg cramps. Diuretics — medications often prescribed for high blood pressure — also can deplete these minerals.
-Risk factors.
-Factors that might increase your risk of muscle cramps include:
-Age. Older people lose muscle mass, so the remaining muscle can get overstressed more easily.
-Dehydration. Athletes who become fatigued and dehydrated while participating in warm-weather sports frequently develop muscle cramps.
-Pregnancy. Muscle cramps also are common during pregnancy.
-Medical conditions. You might be at higher risk of muscle cramps if you have diabetes, or nerve, liver or thyroid disorders.
-Age. Older people lose muscle mass, so the remaining muscle can get overstressed more easily.
-Dehydration. Athletes who become fatigued and dehydrated while participating in warm-weather sports frequently develop muscle cramps.
-Pregnancy. Muscle cramps also are common during pregnancy.
-Medical conditions. You might be at higher risk of muscle cramps if you have diabetes, or nerve, liver or thyroid disorders.
-Prevention.
-These steps may help prevent cramps:
-Avoid dehydration. Drink plenty of liquids every day. The amount depends on what you eat, your sex, your level of activity, the weather, your health, your age and medications you take. Fluids help your muscles contract and relax and keep muscle cells hydrated and less irritable. During activity, replenish fluids at regular intervals, and continue drinking water or other fluids after you're finished.
-Stretch your muscles. Stretch before and after you use any muscle for an extended period. If you tend to have leg cramps at night, stretch before bedtime. Light exercise, such as riding a stationary bicycle for a few minutes before bedtime, also may help prevent cramps while you're sleeping.
-Avoid dehydration. Drink plenty of liquids every day. The amount depends on what you eat, your sex, your level of activity, the weather, your health, your age and medications you take. Fluids help your muscles contract and relax and keep muscle cells hydrated and less irritable. During activity, replenish fluids at regular intervals, and continue drinking water or other fluids after you're finished.
-Stretch your muscles. Stretch before and after you use any muscle for an extended period. If you tend to have leg cramps at night, stretch before bedtime. Light exercise, such as riding a stationary bicycle for a few minutes before bedtime, also may help prevent cramps while you're sleeping.</t>
-  </si>
-  <si>
-    <t>Overview.
-Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
-Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
-A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
-Symptoms.
-Nearsightedness signs or symptoms may include:
-Blurry vision when looking at distant objects
-The need to squint or partially close the eyelids to see clearly
-Headaches
-Eyestrain.
-Blurry vision when looking at distant objects.
-The need to squint or partially close the eyelids to see clearly.
-Headaches.
-Eyestrain.
-Children may have difficulty seeing things on white boards or screen projections in the classroom. Younger children might not express difficulty seeing, but they may have the following behaviors that suggest difficulty seeing:
-Persistently squint
-Seem unaware of distant objects
-Blink excessively
-Rub their eyes frequently
-Sit close to the television.
-Persistently squint.
-Seem unaware of distant objects.
-Blink excessively.
-Rub their eyes frequently.
-Sit close to the television.
-Adults with myopia may notice difficulty reading street signs or signs in a store. Some people may experience blurry vision in dim light, as with nighttime driving, even if they see clearly in daylight. This condition is called night myopia.
-Make an appointment with an eye care specialist if your child exhibits any signs of vision problems or if a teacher reports possible problems.
-Make an appointment for yourself if you notice a change in your vision, have difficulty performing tasks such as driving, or find the quality of your vision detracts from your enjoyment of activities.
-Seek emergency medical care if you experience any of the following:
-Sudden appearance of many floaters — tiny specks or lines that seem to drift through your field of vision
-Flashes of light in one or both eyes
-A curtain-like gray shadow covering all or part of your field of vision
-A shadow in your outer or side vision (peripheral vision).
-Sudden appearance of many floaters — tiny specks or lines that seem to drift through your field of vision.
-Flashes of light in one or both eyes.
-A curtain-like gray shadow covering all or part of your field of vision.
-A shadow in your outer or side vision (peripheral vision).
-These are warnings signs of the retina becoming detached from the back of the eye. This condition is a medical emergency requiring prompt treatment. Significant nearsightedness is associated with an increased risk of retinal detachment.
-Both children and adults may not be aware of problems with vision or changes that happen gradually. The American Academy of Ophthalmology recommends regular vision screenings to ensure a timely diagnosis and treatment.
-Your child's pediatrician or other health care provider will conduct relatively simple exams to check the health of your child's eyes at birth, between 6 and 12 months of age, and between 12 and 36 months of age. If there are any problems, you may be referred to a medical doctor specializing in eye health and care (ophthalmologist).
-Vision screenings are tests to check for vision problems. A screening test may be performed by a pediatrician, ophthalmologist, optometrist or other trained provider. Vision screenings are often offered at schools or community centers.
-The recommended times for screening are as follows:
-At least once between ages 3 and 5
-Before kindergarten, usually age 5 or 6
-Annually through the end of high school.
-At least once between ages 3 and 5.
-Before kindergarten, usually age 5 or 6.
-Annually through the end of high school.
-If a problem is identified in a screening test, then you'll need to schedule a complete eye exam with an optometrist or ophthalmologist.
-The American Academy of Ophthalmology recommends that healthy adults with no known problems with vision or eye disease should get a complete eye exam on the following schedule:
-At least once between ages 20 and 29
-At least twice between ages 30 and 39
-Every 2 to 4 years from ages 40 to 54
-Every 1 to 3 years from ages 55 to 64
-Every 1 to 2 years after age 65.
-At least once between ages 20 and 29.
-At least twice between ages 30 and 39.
-Every 2 to 4 years from ages 40 to 54.
-Every 1 to 3 years from ages 55 to 64.
-Every 1 to 2 years after age 65.
-If you have diabetes, a family history of eye disease, high blood pressure, or other risks of heart or vascular disease, you'll likely need more-regular eye exams. Also, you'll likely need more regular exams if you already have prescription glasses or contacts or if you've had surgery for vision correction. Your health care provider or eye care specialist will recommend how often to get an exam.
-Causes.
-Your eye has two parts that focus images:
-The cornea is the clear, dome-shaped front surface of your eye.
-The lens is a clear structure about the size and shape of an M&amp;M's candy.
-The cornea is the clear, dome-shaped front surface of your eye.
-The lens is a clear structure about the size and shape of an M&amp;M's candy.
-In order for you to see, light has to pass through the cornea and lens. They bend (refract) the light, so that the light is focused directly on the nerve tissues (retina) at the back of your eye. These tissues translate light into signals sent to the brain, which enables you to perceive images.
-Nearsightedness is a refractive error. This problem occurs when the shape or condition of the cornea — or the shape of the eye itself — results in an inaccurate focusing of the light passing into the eye.
-Nearsightedness usually results from the eye being too long or oval-shaped rather than round. It may also result from the curve of the cornea being too steep. These changes result in light rays coming to a point in front of the retina and crossing. The messages sent from the retina to the brain are perceived as blurry.
-Other refractive errors include:
-Farsightedness (hyperopia). This occurs when your eyeball is shorter than a typical eye or your cornea is curved too little. Some people may perceive distant objects as somewhat clear, but near objects appear blurry. For some people with farsightedness, objects are blurry at all distances.
-Astigmatism. This occurs when your cornea or lens is curved more steeply in one direction than in another. Vision is distorted or blurry at all distances.
-Farsightedness (hyperopia). This occurs when your eyeball is shorter than a typical eye or your cornea is curved too little. Some people may perceive distant objects as somewhat clear, but near objects appear blurry. For some people with farsightedness, objects are blurry at all distances.
-Astigmatism. This occurs when your cornea or lens is curved more steeply in one direction than in another. Vision is distorted or blurry at all distances.
-Risk factors.
-Certain risk factors may increase the likelihood of developing nearsightedness, such as the following:
-Genetics. Nearsightedness tends to run in families. If one of your parents is nearsighted, your risk of developing the condition is increased. The risk is higher if both parents are nearsighted.
-Prolonged close-up activities. Prolonged reading or other close-up activities are associated with an increased risk of nearsightedness.
-Screen time. Studies have shown that children who use computers or smart devices for long periods have a greater risk of developing nearsightedness.
-Environmental conditions. Some studies support the idea that a lack of time spent outdoors may increase the risk of nearsightedness.
-Genetics. Nearsightedness tends to run in families. If one of your parents is nearsighted, your risk of developing the condition is increased. The risk is higher if both parents are nearsighted.
-Prolonged close-up activities. Prolonged reading or other close-up activities are associated with an increased risk of nearsightedness.
-Screen time. Studies have shown that children who use computers or smart devices for long periods have a greater risk of developing nearsightedness.
-Environmental conditions. Some studies support the idea that a lack of time spent outdoors may increase the risk of nearsightedness.
-Complications.
-Nearsightedness is associated with a variety of complications from mild to severe, such as:
-Poor school experiences. Children with myopia or other vision problems can experience delays in reading or other academic skills, difficulty with social interactions, and poor self-esteem.
-Reduced quality of life. Uncorrected nearsightedness can prevent you from performing daily tasks well or enjoying activities.
-Eyestrain. Uncorrected nearsightedness may cause persistent eyestrain and headaches.
-Impaired safety. Your safety and the safety of others may be jeopardized if you have an uncorrected vision problem. This could be especially serious if you are driving a car or operating heavy equipment.
-Other eye problems. Severe nearsightedness puts you at an increased risk of retinal detachment, glaucoma, cataracts and other serious eye conditions.
-Poor school experiences. Children with myopia or other vision problems can experience delays in reading or other academic skills, difficulty with social interactions, and poor self-esteem.
-Reduced quality of life. Uncorrected nearsightedness can prevent you from performing daily tasks well or enjoying activities.
-Eyestrain. Uncorrected nearsightedness may cause persistent eyestrain and headaches.
-Impaired safety. Your safety and the safety of others may be jeopardized if you have an uncorrected vision problem. This could be especially serious if you are driving a car or operating heavy equipment.
-Other eye problems. Severe nearsightedness puts you at an increased risk of retinal detachment, glaucoma, cataracts and other serious eye conditions.</t>
-  </si>
-  <si>
-    <t>Overview.
-Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
-Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
-Symptoms.
-Symptoms include:
-Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
-Muscle tightness and spasms
-Decreased ability to move the head
-Headache.
-Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer.
-Muscle tightness and spasms.
-Decreased ability to move the head.
-Headache.
-Seek immediate care if severe neck pain results from an injury, such as a motor vehicle accident, diving accident or fall.
-Contact a health care provider if neck pain:
-Is severe
-Persists for several days without relief
-Spreads down arms or legs
-Comes with headache, numbness, weakness or tingling.
-Is severe.
-Persists for several days without relief.
-Spreads down arms or legs.
-Comes with headache, numbness, weakness or tingling.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Because the neck supports the weight of the head, it can be at risk of injuries and conditions that cause pain and restrict motion. Neck pain causes include:
-Muscle strains. Overuse, such as too many hours hunched over a computer or a smartphone, often triggers muscle strains. Even minor things, such as reading in bed, can strain neck muscles.
-Worn joints. As with other joints in the body, neck joints tend to wear with age. In response to this wear and tear, the body often forms bone spurs that can affect joint motion and cause pain.
-Nerve compression. Herniated disks or bone spurs in the vertebrae of the neck can press on the nerves branching out from the spinal cord.
-Injuries. Rear-end auto collisions often result in whiplash injury. This occurs when the head jerks backward and then forward, straining the soft tissues of the neck.
-Diseases. Certain diseases, such as rheumatoid arthritis, meningitis or cancer, can cause neck pain.
-Muscle strains. Overuse, such as too many hours hunched over a computer or a smartphone, often triggers muscle strains. Even minor things, such as reading in bed, can strain neck muscles.
-Worn joints. As with other joints in the body, neck joints tend to wear with age. In response to this wear and tear, the body often forms bone spurs that can affect joint motion and cause pain.
-Nerve compression. Herniated disks or bone spurs in the vertebrae of the neck can press on the nerves branching out from the spinal cord.
-Injuries. Rear-end auto collisions often result in whiplash injury. This occurs when the head jerks backward and then forward, straining the soft tissues of the neck.
-Diseases. Certain diseases, such as rheumatoid arthritis, meningitis or cancer, can cause neck pain.
-Prevention.
-Most neck pain is associated with poor posture combined with age-related wear and tear. To help prevent neck pain, keep your head centered over your spine. Some simple changes in your daily routine may help. Consider trying to:
-Use good posture. When standing and sitting, be sure your shoulders are in a straight line over your hips and your ears are directly over your shoulders. When using cell phones, tablets and other small screens, keep your head up and hold the device straight out rather than bending your neck to look down at the device.
-Take frequent breaks. If you travel long distances or work long hours at your computer, get up, move around, and stretch your neck and shoulders.
-Adjust your desk, chair and computer so that the monitor is at eye level. Knees should be slightly lower than hips. Use your chair's armrests.
-If you smoke, quit. Smoking can increase the risk of developing neck pain.
-Avoid carrying heavy bags with straps over your shoulder. The weight can strain your neck.
-Sleep in a healthy position. Your head and neck should be aligned with your body. Use a small pillow under your neck. Try sleeping on your back with your thighs elevated on pillows, which will flatten your spinal muscles.
-Stay active. If you don't move much, increase your activity level.
-Use good posture. When standing and sitting, be sure your shoulders are in a straight line over your hips and your ears are directly over your shoulders. When using cell phones, tablets and other small screens, keep your head up and hold the device straight out rather than bending your neck to look down at the device.
-Take frequent breaks. If you travel long distances or work long hours at your computer, get up, move around, and stretch your neck and shoulders.
-Adjust your desk, chair and computer so that the monitor is at eye level. Knees should be slightly lower than hips. Use your chair's armrests.
-If you smoke, quit. Smoking can increase the risk of developing neck pain.
-Avoid carrying heavy bags with straps over your shoulder. The weight can strain your neck.
-Sleep in a healthy position. Your head and neck should be aligned with your body. Use a small pillow under your neck. Try sleeping on your back with your thighs elevated on pillows, which will flatten your spinal muscles.
-Stay active. If you don't move much, increase your activity level.</t>
-  </si>
-  <si>
-    <t>Overview.
-Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
-There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
-The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
-Symptoms.
-Body mass index (BMI) is often used to diagnose obesity. To calculate BMI, multiply weight in pounds by 703, divide by height in inches and then divide again by height in inches. Or divide weight in kilograms by height in meters squared.
-Asians with BMI of 23 or higher may have an increased risk of health problems.
-For most people, BMI provides a reasonable estimate of body fat. However, BMI doesn't directly measure body fat, so some people, such as muscular athletes, may have a BMI in the obesity category even though they don't have excess body fat.
-Many doctors also measure a person's waist circumference to help guide treatment decisions. Weight-related health problems are more common in men with a waist circumference over 40 inches (102 centimeters) and in women with a waist measurement over 35 inches (89 centimeters).
-If you're concerned about your weight or weight-related health problems, ask your doctor about obesity management. You and your doctor can evaluate your health risks and discuss your weight-loss options.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Although there are genetic, behavioral, metabolic and hormonal influences on body weight, obesity occurs when you take in more calories than you burn through normal daily activities and exercise. Your body stores these excess calories as fat.
-In the United States, most people's diets are too high in calories — often from fast food and high-calorie beverages. People with obesity might eat more calories before feeling full, feel hungry sooner, or eat more due to stress or anxiety.
-Many people who live in Western countries now have jobs that are much less physically demanding, so they don't tend to burn as many calories at work. Even daily activities use fewer calories, courtesy of conveniences such as remote controls, escalators, online shopping and drive-through banks.
-Risk factors.
-Obesity usually results from a combination of causes and contributing factors:
-The genes you inherit from your parents may affect the amount of body fat you store, and where that fat is distributed. Genetics may also play a role in how efficiently your body converts food into energy, how your body regulates your appetite and how your body burns calories during exercise.
-Obesity tends to run in families. That's not just because of the genes they share. Family members also tend to share similar eating and activity habits.
-Unhealthy diet. A diet that's high in calories, lacking in fruits and vegetables, full of fast food, and laden with high-calorie beverages and oversized portions contributes to weight gain.
-Liquid calories. People can drink many calories without feeling full, especially calories from alcohol. Other high-calorie beverages, such as sugared soft drinks, can contribute to significant weight gain.
-Inactivity. If you have a sedentary lifestyle, you can easily take in more calories every day than you burn through exercise and routine daily activities. Looking at computer, tablet and phone screens is a sedentary activity. The number of hours spent in front of a screen is highly associated with weight gain.
-Unhealthy diet. A diet that's high in calories, lacking in fruits and vegetables, full of fast food, and laden with high-calorie beverages and oversized portions contributes to weight gain.
-Liquid calories. People can drink many calories without feeling full, especially calories from alcohol. Other high-calorie beverages, such as sugared soft drinks, can contribute to significant weight gain.
-Inactivity. If you have a sedentary lifestyle, you can easily take in more calories every day than you burn through exercise and routine daily activities. Looking at computer, tablet and phone screens is a sedentary activity. The number of hours spent in front of a screen is highly associated with weight gain.
-In some people, obesity can be traced to a medical cause, such as Prader-Willi syndrome, Cushing syndrome and other conditions. Medical problems, such as arthritis, also can lead to decreased activity, which may result in weight gain.
-Some medications can lead to weight gain if you don't compensate through diet or activity. These medications include some antidepressants, anti-seizure medications, diabetes medications, antipsychotic medications, steroids and beta blockers.
-Social and economic factors are linked to obesity. Avoiding obesity is difficult if you don't have safe areas to walk or exercise. Similarly, you may not have been taught healthy ways of cooking, or you may not have access to healthier foods. In addition, the people you spend time with may influence your weight — you're more likely to develop obesity if you have friends or relatives with obesity.
-Obesity can occur at any age, even in young children. But as you age, hormonal changes and a less active lifestyle increase your risk of obesity. In addition, the amount of muscle in your body tends to decrease with age. Generally, lower muscle mass leads to a decrease in metabolism. These changes also reduce calorie needs and can make it harder to keep off excess weight. If you don't consciously control what you eat and become more physically active as you age, you'll likely gain weight.
-Pregnancy. Weight gain is common during pregnancy. Some women find this weight difficult to lose after the baby is born. This weight gain may contribute to the development of obesity in women.
-Quitting smoking. Quitting smoking is often associated with weight gain. And for some, it can lead to enough weight gain to qualify as obesity. Often, this happens as people use food to cope with smoking withdrawal. In the long run, however, quitting smoking is still a greater benefit to your health than is continuing to smoke. Your doctor can help you prevent weight gain after quitting smoking.
-Lack of sleep. Not getting enough sleep or getting too much sleep can cause changes in hormones that increase appetite. You may also crave foods high in calories and carbohydrates, which can contribute to weight gain.
-Stress. Many external factors that affect mood and well-being may contribute to obesity. People often seek more high-calorie food when experiencing stressful situations.
-Microbiome. Your gut bacteria are affected by what you eat and may contribute to weight gain or difficulty losing weight.
-Pregnancy. Weight gain is common during pregnancy. Some women find this weight difficult to lose after the baby is born. This weight gain may contribute to the development of obesity in women.
-Quitting smoking. Quitting smoking is often associated with weight gain. And for some, it can lead to enough weight gain to qualify as obesity. Often, this happens as people use food to cope with smoking withdrawal. In the long run, however, quitting smoking is still a greater benefit to your health than is continuing to smoke. Your doctor can help you prevent weight gain after quitting smoking.
-Lack of sleep. Not getting enough sleep or getting too much sleep can cause changes in hormones that increase appetite. You may also crave foods high in calories and carbohydrates, which can contribute to weight gain.
-Stress. Many external factors that affect mood and well-being may contribute to obesity. People often seek more high-calorie food when experiencing stressful situations.
-Microbiome. Your gut bacteria are affected by what you eat and may contribute to weight gain or difficulty losing weight.
-Even if you have one or more of these risk factors, it doesn't mean that you're destined to develop obesity. You can counteract most risk factors through diet, physical activity and exercise, and behavior changes.
-Complications.
-People with obesity are more likely to develop a number of potentially serious health problems, including:
-Heart disease and strokes. Obesity makes you more likely to have high blood pressure and abnormal cholesterol levels, which are risk factors for heart disease and strokes.
-Type 2 diabetes. Obesity can affect the way the body uses insulin to control blood sugar levels. This raises the risk of insulin resistance and diabetes.
-Certain cancers. Obesity may increase the risk of cancer of the uterus, cervix, endometrium, ovary, breast, colon, rectum, esophagus, liver, gallbladder, pancreas, kidney and prostate.
-Digestive problems. Obesity increases the likelihood of developing heartburn, gallbladder disease and liver problems.
-Sleep apnea. People with obesity are more likely to have sleep apnea, a potentially serious disorder in which breathing repeatedly stops and starts during sleep.
-Osteoarthritis. Obesity increases the stress placed on weight-bearing joints, in addition to promoting inflammation within the body. These factors may lead to complications such as osteoarthritis.
-Severe COVID-19 symptoms. Obesity increases the risk of developing severe symptoms if you become infected with the virus that causes coronavirus disease 2019 (COVID-19). People who have severe cases of COVID-19 may require treatment in intensive care units or even mechanical assistance to breathe.
-Heart disease and strokes. Obesity makes you more likely to have high blood pressure and abnormal cholesterol levels, which are risk factors for heart disease and strokes.
-Type 2 diabetes. Obesity can affect the way the body uses insulin to control blood sugar levels. This raises the risk of insulin resistance and diabetes.
-Certain cancers. Obesity may increase the risk of cancer of the uterus, cervix, endometrium, ovary, breast, colon, rectum, esophagus, liver, gallbladder, pancreas, kidney and prostate.
-Digestive problems. Obesity increases the likelihood of developing heartburn, gallbladder disease and liver problems.
-Sleep apnea. People with obesity are more likely to have sleep apnea, a potentially serious disorder in which breathing repeatedly stops and starts during sleep.
-Osteoarthritis. Obesity increases the stress placed on weight-bearing joints, in addition to promoting inflammation within the body. These factors may lead to complications such as osteoarthritis.
-Severe COVID-19 symptoms. Obesity increases the risk of developing severe symptoms if you become infected with the virus that causes coronavirus disease 2019 (COVID-19). People who have severe cases of COVID-19 may require treatment in intensive care units or even mechanical assistance to breathe.
-Link between extra pounds, severe COVID-19 illness grows stronger - Related information
-Link between extra pounds, severe COVID-19 illness grows stronger.
-Link between extra pounds, severe COVID-19 illness grows stronger - Related information
-Link between extra pounds, severe COVID-19 illness grows stronger.
-Obesity can diminish the overall quality of life. You may not be able to do physical activities that you used to enjoy. You may avoid public places. People with obesity may even encounter discrimination.
-Other weight-related issues that may affect your quality of life include:
-Depression
-Disability
-Shame and guilt
-Social isolation
-Lower work achievement.
-Depression.
-Disability.
-Shame and guilt.
-Social isolation.
-Lower work achievement</t>
-  </si>
-  <si>
-    <t>Overview.
-A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying.
-Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder.
-Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
-Symptoms.
-Panic attacks typically begin suddenly, without warning. They can strike at any time — when you're driving a car, at the mall, sound asleep or in the middle of a business meeting. You may have occasional panic attacks, or they may occur frequently.
-Panic attacks have many variations, but symptoms usually peak within minutes. You may feel fatigued and worn out after a panic attack subsides.
-Panic attacks typically include some of these signs or symptoms:
-Sense of impending doom or danger
-Fear of loss of control or death
-Rapid, pounding heart rate
-Sweating
-Trembling or shaking
-Shortness of breath or tightness in your throat
-Chills
-Hot flashes
-Nausea
-Abdominal cramping
-Chest pain
-Headache
-Dizziness, lightheadedness or faintness
-Numbness or tingling sensation
-Feeling of unreality or detachment.
-Sense of impending doom or danger.
-Fear of loss of control or death.
-Rapid, pounding heart rate.
-Sweating.
-Trembling or shaking.
-Shortness of breath or tightness in your throat.
-Chills.
-Hot flashes.
-Nausea.
-Abdominal cramping.
-Chest pain.
-Headache.
-Dizziness, lightheadedness or faintness.
-Numbness or tingling sensation.
-Feeling of unreality or detachment.
-One of the worst things about panic attacks is the intense fear that you'll have another one. You may fear having panic attacks so much that you avoid certain situations where they may occur.
-If you have panic attack symptoms, seek medical help as soon as possible. Panic attacks, while intensely uncomfortable, are not dangerous. But panic attacks are hard to manage on your own, and they may get worse without treatment.
-Panic attack symptoms can also resemble symptoms of other serious health problems, such as a heart attack, so it's important to get evaluated by your primary care provider if you aren't sure what's causing your symptoms.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-It's not known what causes panic attacks or panic disorder, but these factors may play a role:
-Genetics
-Major stress
-Temperament that is more sensitive to stress or prone to negative emotions
-Certain changes in the way parts of your brain function.
-Genetics.
-Major stress.
-Temperament that is more sensitive to stress or prone to negative emotions.
-Certain changes in the way parts of your brain function.
-Panic attacks may come on suddenly and without warning at first, but over time, they're usually triggered by certain situations.
-Some research suggests that your body's natural fight-or-flight response to danger is involved in panic attacks. For example, if a grizzly bear came after you, your body would react instinctively. Your heart rate and breathing would speed up as your body prepared for a life-threatening situation. Many of the same reactions occur in a panic attack. But it's unknown why a panic attack occurs when there's no obvious danger present.
-Risk factors.
-Symptoms of panic disorder often start in the late teens or early adulthood and affect more women than men.
-Factors that may increase the risk of developing panic attacks or panic disorder include:
-Family history of panic attacks or panic disorder
-Major life stress, such as the death or serious illness of a loved one
-A traumatic event, such as sexual assault or a serious accident
-Major changes in your life, such as a divorce or the addition of a baby
-Smoking or excessive caffeine intake
-History of childhood physical or sexual abuse.
-Family history of panic attacks or panic disorder.
-Major life stress, such as the death or serious illness of a loved one.
-A traumatic event, such as sexual assault or a serious accident.
-Major changes in your life, such as a divorce or the addition of a baby.
-Smoking or excessive caffeine intake.
-History of childhood physical or sexual abuse.
-Complications.
-Left untreated, panic attacks and panic disorder can affect almost every area of your life. You may be so afraid of having more panic attacks that you live in a constant state of fear, ruining your quality of life.
-Complications that panic attacks may cause or be linked to include:
-Development of specific phobias, such as fear of driving or leaving your home
-Frequent medical care for health concerns and other medical conditions
-Avoidance of social situations
-Problems at work or school
-Depression, anxiety disorders and other psychiatric disorders
-Increased risk of suicide or suicidal thoughts
-Alcohol or other substance misuse
-Financial problems.
-Development of specific phobias, such as fear of driving or leaving your home.
-Frequent medical care for health concerns and other medical conditions.
-Avoidance of social situations.
-Problems at work or school.
-Depression, anxiety disorders and other psychiatric disorders.
-Increased risk of suicide or suicidal thoughts.
-Alcohol or other substance misuse.
-Financial problems.
-For some people, panic disorder may include agoraphobia — avoiding places or situations that cause you anxiety because you fear being unable to escape or get help if you have a panic attack. Or you may become reliant on others to be with you in order to leave your home.
-Prevention.
-There's no sure way to prevent panic attacks or panic disorder. However, these recommendations may help.
-Get treatment for panic attacks as soon as possible to help stop them from getting worse or becoming more frequent.
-Stick with your treatment plan to help prevent relapses or worsening of panic attack symptoms.
-Get regular physical activity, which may play a role in protecting against anxiety.
-Get treatment for panic attacks as soon as possible to help stop them from getting worse or becoming more frequent.
-Stick with your treatment plan to help prevent relapses or worsening of panic attack symptoms.
-Get regular physical activity, which may play a role in protecting against anxiety.</t>
-  </si>
-  <si>
-    <t>Overview.
-Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink.
-Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct.
-Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
-Symptoms.
-The most common pink eye symptoms include:
-Redness in one or both eyes
-Itchiness in one or both eyes
-A gritty feeling in one or both eyes
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
-Tearing.
-Redness in one or both eyes.
-Itchiness in one or both eyes.
-A gritty feeling in one or both eyes.
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning.
-Tearing.
-There are serious eye conditions that can cause eye redness. These conditions may cause eye pain, a feeling that something is stuck in your eye (foreign body sensation), blurred vision and light sensitivity. If you experience these symptoms, seek urgent care.
-People who wear contact lenses need to stop wearing their contacts as soon as pink eye symptoms begin. If your symptoms don't start to get better within 12 to 24 hours, make an appointment with your eye doctor to make sure you don't have a more serious eye infection related to contact lens use.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Causes of pink eye include:
-Viruses
-Bacteria
-Allergies
-A chemical splash in the eye
-A foreign object in the eye
-In newborns, a blocked tear duct.
-Viruses.
-Bacteria.
-Allergies.
-A chemical splash in the eye.
-A foreign object in the eye.
-In newborns, a blocked tear duct.
-Most cases of pink eye are typically caused by adenovirus but can also be caused by herpes simplex virus, varicella-zoster virus, and various other viruses, including the virus that causes coronavirus disease 2019 (COVID-19).
-Both viral and bacterial conjunctivitis can occur along with colds or symptoms of a respiratory infection, such as a sore throat. Wearing contact lenses that aren't cleaned properly or aren't your own can cause bacterial conjunctivitis.
-Both types are very contagious. They are spread through direct or indirect contact with the liquid that drains from the eye of someone who's infected. One or both eyes may be affected.
-Allergic conjunctivitis affects both eyes and is a response to an allergy-causing substance such as pollen. In response to allergens, your body produces an antibody called immunoglobulin E (IgE). This antibody triggers special cells called mast cells in the mucous lining of your eyes and airways to release inflammatory substances, including histamines. Your body's release of histamine can produce a number of allergy signs and symptoms, including red or pink eyes.
-If you have allergic conjunctivitis, you may experience intense itching, tearing and inflammation of the eyes — as well as sneezing and watery nasal discharge. Most allergic conjunctivitis can be controlled with allergy eyedrops.
-Irritation from a chemical splash or foreign object in your eye is also associated with conjunctivitis. Sometimes flushing and cleaning the eye to rid it of the chemical or object causes redness and irritation. Signs and symptoms, which may include watery eyes and a mucous discharge, usually clear up on their own within about a day.
-If initial flushing doesn't resolve the symptoms, or if the chemical is a caustic one such as lye, you need to be seen by your doctor or eye specialist as soon as possible. A chemical splash into the eye can cause permanent eye damage. Persistent symptoms could also indicate that you still have the foreign body in your eye — or possibly a scratch over the cornea or the covering of the eyeball (sclera).
-Risk factors.
-Risk factors for pink eye include:
-Exposure to something for which you have an allergy (allergic conjunctivitis)
-Exposure to someone infected with the viral or bacterial form of conjunctivitis
-Using contact lenses, especially extended-wear lenses.
-Exposure to something for which you have an allergy (allergic conjunctivitis).
-Exposure to someone infected with the viral or bacterial form of conjunctivitis.
-Using contact lenses, especially extended-wear lenses.
-Complications.
-In both children and adults, pink eye can cause inflammation in the cornea that can affect vision. Prompt evaluation and treatment by your doctor for eye pain, a feeling that something is stuck in your eye (foreign body sensation), blurred vision or light sensitivity can reduce the risk of complications.
-Prevention.
-Practice good hygiene to control the spread of pink eye. For instance:
-Don't touch your eyes with your hands.
-Wash your hands often.
-Use a clean towel and washcloth daily.
-Don't share towels or washcloths.
-Change your pillowcases often.
-Throw away your eye cosmetics, such as mascara.
-Don't share eye cosmetics or personal eye care items.
-Don't touch your eyes with your hands.
-Wash your hands often.
-Use a clean towel and washcloth daily.
-Don't share towels or washcloths.
-Change your pillowcases often.
-Throw away your eye cosmetics, such as mascara.
-Don't share eye cosmetics or personal eye care items.
-Keep in mind that pink eye is no more contagious than the common cold. It's okay to return to work, school or child care if you're not able to take time off — just stay consistent in practicing good hygiene.
-Newborns' eyes are susceptible to bacteria normally present in the mother's birth canal. These bacteria cause no symptoms in the mother. In rare cases, these bacteria can cause infants to develop a serious form of conjunctivitis known as ophthalmia neonatorum, which needs treatment without delay to preserve sight. That's why shortly after birth, an antibiotic ointment is applied to every newborn's eyes. The ointment helps prevent eye infection.</t>
-  </si>
-  <si>
-    <t>Overview.
-Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body.
-With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs.
-The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
-Symptoms.
-Symptoms of PCOS often start around the time of the first menstrual period. Sometimes symptoms develop later after you have had periods for a while.
-The symptoms of PCOS vary. A diagnosis of PCOS is made when you have at least two of these:
-Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.
-Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.
-PCOS signs and symptoms are typically more severe in people with obesity.
-See your health care provider if you're worried about your periods, if you're having trouble getting pregnant, or if you have signs of excess androgen. These might include new hair growth on your face and body, acne and male-pattern baldness.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-The exact cause of PCOS isn't known. Factors that might play a role include:
-Insulin resistance. Insulin is a hormone that the pancreas makes. It allows cells to use sugar, your body's primary energy supply. If cells become resistant to the action of insulin, then blood sugar levels can go up. This can cause your body to make more insulin to try to bring down the blood sugar level.
-Too much insulin might cause your body to make too much of the male hormone androgen. You could have trouble with ovulation, the process where eggs are released from the ovary.
-One sign of insulin resistance is dark, velvety patches of skin on the lower part of the neck, armpits, groin or under the breasts. A bigger appetite and weight gain may be other signs.
-Low-grade inflammation. White blood cells make substances in response to infection or injury. This response is called low-grade inflammation. Research shows that people with PCOS have a type of long-term, low-grade inflammation that leads polycystic ovaries to produce androgens. This can lead to heart and blood vessel problems.
-Heredity. Research suggests that certain genes might be linked to PCOS. Having a family history of PCOS may play a role in developing the condition.
-Excess androgen. With PCOS, the ovaries may produce high levels of androgen. Having too much androgen interferes with ovulation. This means that eggs don't develop on a regular basis and aren't released from the follicles where they develop. Excess androgen also can result in hirsutism and acne.
-Insulin resistance. Insulin is a hormone that the pancreas makes. It allows cells to use sugar, your body's primary energy supply. If cells become resistant to the action of insulin, then blood sugar levels can go up. This can cause your body to make more insulin to try to bring down the blood sugar level.
-Too much insulin might cause your body to make too much of the male hormone androgen. You could have trouble with ovulation, the process where eggs are released from the ovary.
-One sign of insulin resistance is dark, velvety patches of skin on the lower part of the neck, armpits, groin or under the breasts. A bigger appetite and weight gain may be other signs.
-Insulin resistance. Insulin is a hormone that the pancreas makes. It allows cells to use sugar, your body's primary energy supply. If cells become resistant to the action of insulin, then blood sugar levels can go up. This can cause your body to make more insulin to try to bring down the blood sugar level.
-Too much insulin might cause your body to make too much of the male hormone androgen. You could have trouble with ovulation, the process where eggs are released from the ovary.
-One sign of insulin resistance is dark, velvety patches of skin on the lower part of the neck, armpits, groin or under the breasts. A bigger appetite and weight gain may be other signs.
-Low-grade inflammation. White blood cells make substances in response to infection or injury. This response is called low-grade inflammation. Research shows that people with PCOS have a type of long-term, low-grade inflammation that leads polycystic ovaries to produce androgens. This can lead to heart and blood vessel problems.
-Heredity. Research suggests that certain genes might be linked to PCOS. Having a family history of PCOS may play a role in developing the condition.
-Excess androgen. With PCOS, the ovaries may produce high levels of androgen. Having too much androgen interferes with ovulation. This means that eggs don't develop on a regular basis and aren't released from the follicles where they develop. Excess androgen also can result in hirsutism and acne.
-Complications.
-Complications of PCOS can include:
-Infertility
-Gestational diabetes or pregnancy-induced high blood pressure
-Miscarriage or premature birth
-Nonalcoholic steatohepatitis — a severe liver inflammation caused by fat buildup in the liver
-Metabolic syndrome — a cluster of conditions including high blood pressure, high blood sugar, and unhealthy cholesterol or triglyceride levels that significantly increase your risk of heart and blood vessel (cardiovascular) disease
-Type 2 diabetes or prediabetes
-Sleep apnea
-Depression, anxiety and eating disorders
-Cancer of the uterine lining (endometrial cancer).
-Infertility.
-Gestational diabetes or pregnancy-induced high blood pressure.
-Miscarriage or premature birth.
-Nonalcoholic steatohepatitis — a severe liver inflammation caused by fat buildup in the liver.
-Metabolic syndrome — a cluster of conditions including high blood pressure, high blood sugar, and unhealthy cholesterol or triglyceride levels that significantly increase your risk of heart and blood vessel (cardiovascular) disease.
-Type 2 diabetes or prediabetes.
-Sleep apnea.
-Depression, anxiety and eating disorders.
-Cancer of the uterine lining (endometrial cancer).
-Obesity commonly occurs with PCOS and can worsen complications of the disorder.</t>
-  </si>
-  <si>
-    <t>Overview.
-Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome.
-Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense.
-Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
-Symptoms.
-The list of potential signs and symptoms for premenstrual syndrome is long, but most women only experience a few of these problems.
-Tension or anxiety
-Depressed mood
-Crying spells
-Mood swings and irritability or anger
-Appetite changes and food cravings
-Trouble falling asleep (insomnia)
-Social withdrawal
-Poor concentration
-Change in libido.
-Tension or anxiety.
-Depressed mood.
-Crying spells.
-Mood swings and irritability or anger.
-Appetite changes and food cravings.
-Trouble falling asleep (insomnia).
-Social withdrawal.
-Poor concentration.
-Change in libido.
-Joint or muscle pain
-Headache
-Fatigue
-Weight gain related to fluid retention
-Abdominal bloating
-Breast tenderness
-Acne flare-ups
-Constipation or diarrhea
-Alcohol intolerance.
-Joint or muscle pain.
-Headache.
-Fatigue.
-Weight gain related to fluid retention.
-Abdominal bloating.
-Breast tenderness.
-Acne flare-ups.
-Constipation or diarrhea.
-Alcohol intolerance.
-For some, the physical pain and emotional stress are severe enough to affect their daily lives. Regardless of symptom severity, the signs and symptoms generally disappear within four days after the start of the menstrual period for most women.
-But a small number of women with premenstrual syndrome have disabling symptoms every month. This form of PMS is called premenstrual dysphoric disorder (PMDD).
-PMDD signs and symptoms include depression, mood swings, anger, anxiety, feeling overwhelmed, difficulty concentrating, irritability and tension.
-If you haven't been able to manage your premenstrual syndrome with lifestyle changes and the symptoms of PMS are affecting your health and daily activities, see your doctor.
-Causes.
-Exactly what causes premenstrual syndrome is unknown, but several factors may contribute to the condition:
-Cyclic changes in hormones. Signs and symptoms of premenstrual syndrome change with hormonal fluctuations and disappear with pregnancy and menopause.
-Chemical changes in the brain. Fluctuations of serotonin, a brain chemical (neurotransmitter) that's thought to play a crucial role in mood states, could trigger PMS symptoms. Insufficient amounts of serotonin may contribute to premenstrual depression, as well as to fatigue, food cravings and sleep problems.
-Depression. Some women with severe premenstrual syndrome have undiagnosed depression, though depression alone does not cause all of the symptoms.
-Cyclic changes in hormones. Signs and symptoms of premenstrual syndrome change with hormonal fluctuations and disappear with pregnancy and menopause.
-Chemical changes in the brain. Fluctuations of serotonin, a brain chemical (neurotransmitter) that's thought to play a crucial role in mood states, could trigger PMS symptoms. Insufficient amounts of serotonin may contribute to premenstrual depression, as well as to fatigue, food cravings and sleep problems.
-Depression. Some women with severe premenstrual syndrome have undiagnosed depression, though depression alone does not cause all of the symptoms</t>
-  </si>
-  <si>
-    <t>Overview.
-Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions.
-Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy.
-Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
-Symptoms.
-Adults usually develop heat rash in skin folds and where clothing rubs against the skin. In infants, the rash is mainly found on the neck, shoulders and chest. It can also show up in the armpits, elbow creases and groin.
-The types of heat rash are classified according to how deep the sweat is trapped in the skin. Signs and symptoms for each type vary.
-The mildest form of heat rash is called miliaria crystallina. It occurs when the opening of the sweat duct on the surface of the skin (sweat pore) is blocked. This form is marked by tiny, clear, fluid-filled bumps that break easily.
-A type that occurs deeper in the skin is called miliaria rubra. It is sometimes called prickly heat. Signs and symptoms include small, inflamed blister-like bumps and itching or prickling in the affected area.
-Occasionally, the inflamed bumps of miliaria rubra fill with pus. This form is called miliaria pustulosa.
-A less common form of heat rash is called miliaria profunda. It affects the deepest layer of the skin (dermis). It causes firm, painful or itchy inflamed bumps that look like goose bumps and may break open.
-The mildest form of heat rash is called miliaria crystallina. It occurs when the opening of the sweat duct on the surface of the skin (sweat pore) is blocked. This form is marked by tiny, clear, fluid-filled bumps that break easily.
-A type that occurs deeper in the skin is called miliaria rubra. It is sometimes called prickly heat. Signs and symptoms include small, inflamed blister-like bumps and itching or prickling in the affected area.
-Occasionally, the inflamed bumps of miliaria rubra fill with pus. This form is called miliaria pustulosa.
-A less common form of heat rash is called miliaria profunda. It affects the deepest layer of the skin (dermis). It causes firm, painful or itchy inflamed bumps that look like goose bumps and may break open.
-Heat rash usually heals by cooling the skin and avoiding exposure to the heat that caused it. See your health care provider if you or your child has symptoms that last longer than a few days or the rash seems to be getting worse.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Heat rash develops when a duct that leads from a sweat gland to the surface of the skin is blocked or inflamed. This then blocks the opening of the sweat duct on the surface of the skin (sweat pore). Instead of evaporating, sweat is trapped beneath the skin, causing irritation and bumps on the skin.
-Risk factors.
-Factors that increase the risk of heat rash include:
-Being a newborn, as newborns have immature sweat ducts
-Living in a hot, humid climate
-Being physically active
-Being on bedrest for a long time and having a fever.
-Being a newborn, as newborns have immature sweat ducts.
-Living in a hot, humid climate.
-Being physically active.
-Being on bedrest for a long time and having a fever.
-Complications.
-Heat rash usually heals without scarring. People with brown or Black skin are at risk of spots of skin that get lighter or darker in response to inflammatory skin conditions (postinflammatory hypopigmentation or hyperpigmentation). These changes usually go away within weeks or months.
-A common complication is infection with bacteria, causing inflamed and itchy pustules.
-Prevention.
-To help protect yourself or your child from heat rash:
-In hot weather, dress in loose, lightweight clothing that wicks moisture away from the skin. Don't wrap newborns in too many layers.
-In hot weather, limit physical activity. Stay in the shade or in an air-conditioned building. Or use a fan to circulate the air.
-Keep your sleeping area cool and well ventilated.
-Avoid creams and ointments that can block pores.
-Avoid drugs that cause sweating, such as clonidine, beta blockers and opioids.
-In hot weather, dress in loose, lightweight clothing that wicks moisture away from the skin. Don't wrap newborns in too many layers.
-In hot weather, limit physical activity. Stay in the shade or in an air-conditioned building. Or use a fan to circulate the air.
-Keep your sleeping area cool and well ventilated.
-Avoid creams and ointments that can block pores.
-Avoid drugs that cause sweating, such as clonidine, beta blockers and opioids.</t>
-  </si>
-  <si>
-    <t>Overview.
-Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner.
-Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring.
-In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
-Symptoms.
-Snoring is often associated with a sleep disorder called obstructive sleep apnea (OSA). Not all snorers have OSA, but if snoring is accompanied by any of the following symptoms, it may be an indication to see a doctor for further evaluation for OSA:
-Witnessed breathing pauses during sleep
-Excessive daytime sleepiness
-Difficulty concentrating
-Morning headaches
-Sore throat upon awakening
-Restless sleep
-Gasping or choking at night
-High blood pressure
-Chest pain at night
-Your snoring is so loud it's disrupting your partner's sleep
-In children, poor attention span, behavioral issues or poor performance in school.
-Witnessed breathing pauses during sleep.
-Excessive daytime sleepiness.
-Difficulty concentrating.
-Morning headaches.
-Sore throat upon awakening.
-Restless sleep.
-Gasping or choking at night.
-High blood pressure.
-Chest pain at night.
-Your snoring is so loud it's disrupting your partner's sleep.
-In children, poor attention span, behavioral issues or poor performance in school.
-OSA often is characterized by loud snoring followed by periods of silence when breathing stops or nearly stops. Eventually, this reduction or pause in breathing may signal you to wake up, and you may awaken with a loud snort or gasping sound.
-You may sleep lightly due to disrupted sleep. This pattern of breathing pauses may be repeated many times during the night.
-People with obstructive sleep apnea usually experience periods when breathing slows or stops at least five times during every hour of sleep.
-See your doctor if you have any of the above symptoms. These may indicate your snoring is associated with obstructive sleep apnea (OSA).
-If your child snores, ask your pediatrician about it. Children can have OSA, too. Nose and throat problems — such as enlarged tonsils — and obesity often can narrow a child's airway, which can lead to your child developing OSA.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Snoring can be caused by a number of factors, such as the anatomy of your mouth and sinuses, alcohol consumption, allergies, a cold, and your weight.
-When you doze off and progress from a light sleep to a deep sleep, the muscles in the roof of your mouth (soft palate), tongue and throat relax. The tissues in your throat can relax enough that they partially block your airway and vibrate.
-The more narrowed your airway, the more forceful the airflow becomes. This increases tissue vibration, which causes your snoring to grow louder.
-The following conditions can affect the airway and cause snoring:
-Your mouth anatomy. Having a low, thick soft palate can narrow your airway. People who are overweight may have extra tissues in the back of their throats that may narrow their airways. Likewise, if the triangular piece of tissue hanging from the soft palate (uvula) is elongated, airflow can be obstructed and vibration increased.
-Alcohol consumption. Snoring can also be brought on by consuming too much alcohol before bedtime. Alcohol relaxes throat muscles and decreases your natural defenses against airway obstruction.
-Nasal problems. Chronic nasal congestion or a crooked partition between your nostrils (deviated nasal septum) may contribute to your snoring.
-Sleep deprivation. Not getting enough sleep can lead to further throat relaxation.
-Sleep position. Snoring is typically most frequent and loudest when sleeping on the back as gravity's effect on the throat narrows the airway.
-Your mouth anatomy. Having a low, thick soft palate can narrow your airway. People who are overweight may have extra tissues in the back of their throats that may narrow their airways. Likewise, if the triangular piece of tissue hanging from the soft palate (uvula) is elongated, airflow can be obstructed and vibration increased.
-Alcohol consumption. Snoring can also be brought on by consuming too much alcohol before bedtime. Alcohol relaxes throat muscles and decreases your natural defenses against airway obstruction.
-Nasal problems. Chronic nasal congestion or a crooked partition between your nostrils (deviated nasal septum) may contribute to your snoring.
-Sleep deprivation. Not getting enough sleep can lead to further throat relaxation.
-Sleep position. Snoring is typically most frequent and loudest when sleeping on the back as gravity's effect on the throat narrows the airway.
-Risk factors.
-Risk factors that may contribute to snoring include:
-Being a man. Men are more likely to snore or have sleep apnea than are women.
-Being overweight. People who are overweight or obese are more likely to snore or have obstructive sleep apnea.
-Having a narrow airway. Some people may have a long soft palate, or large tonsils or adenoids, which can narrow the airway and cause snoring.
-Drinking alcohol. Alcohol relaxes your throat muscles, increasing the risk of snoring.
-Having nasal problems. If you have a structural defect in your airway, such as a deviated septum, or your nose is chronically congested, your risk of snoring is greater.
-Having a family history of snoring or obstructive sleep apnea. Heredity is a potential risk factor for OSA.
-Being a man. Men are more likely to snore or have sleep apnea than are women.
-Being overweight. People who are overweight or obese are more likely to snore or have obstructive sleep apnea.
-Having a narrow airway. Some people may have a long soft palate, or large tonsils or adenoids, which can narrow the airway and cause snoring.
-Drinking alcohol. Alcohol relaxes your throat muscles, increasing the risk of snoring.
-Having nasal problems. If you have a structural defect in your airway, such as a deviated septum, or your nose is chronically congested, your risk of snoring is greater.
-Having a family history of snoring or obstructive sleep apnea. Heredity is a potential risk factor for OSA.
-Complications.
-Habitual snoring may be more than just a nuisance. Aside from disrupting a bed partner's sleep, if snoring is associated with OSA, you may be at risk for other complications, including:
-Daytime sleepiness
-Frequent frustration or anger
-Difficulty concentrating
-A greater risk of high blood pressure, heart conditions and stroke
-An increased risk of behavior problems, such as aggression or learning problems, in children with OSA
-An increased risk of motor vehicle accidents due to lack of sleep.
-Daytime sleepiness.
-Frequent frustration or anger.
-Difficulty concentrating.
-A greater risk of high blood pressure, heart conditions and stroke.
-An increased risk of behavior problems, such as aggression or learning problems, in children with OSA.
-An increased risk of motor vehicle accidents due to lack of sleep</t>
-  </si>
-  <si>
-    <t>Overview.
-Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long.
-You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade.
-Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
-Symptoms.
-Sunburn symptoms can include:
-Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
-Skin that feels warm or hot to the touch
-Pain, tenderness and itching
-Swelling
-Small, fluid-filled blisters, which may break
-Headache, fever, nausea and fatigue, if the sunburn is severe
-Eyes that feel painful or gritty.
-Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin.
-Skin that feels warm or hot to the touch.
-Pain, tenderness and itching.
-Swelling.
-Small, fluid-filled blisters, which may break.
-Headache, fever, nausea and fatigue, if the sunburn is severe.
-Eyes that feel painful or gritty.
-Any exposed part of the body — including the earlobes, scalp and lips — can burn. Even covered areas can burn if, for example, clothing has a loose weave that allows ultraviolet (UV) light through. The eyes, which are extremely sensitive to the sun's UV light, also can burn.
-Sunburn symptoms often appear within a few hours after sun exposure.
-Within a few days, the body may start to heal itself by peeling the damaged skin's top layer. A bad sunburn may take several days to heal. Any lingering changes in skin color usually go away with time.
-See your health care provider if you:
-Develop large blisters
-Develop blisters on the face, hands or genitals
-Experience severe swelling of the affected area
-Show signs of infection, such as blisters with pus or streaks
-Experience worsening pain, headache, confusion, nausea, fever or chills
-Get worse despite at-home care
-Have eye pain or vision changes.
-Develop large blisters.
-Develop blisters on the face, hands or genitals.
-Experience severe swelling of the affected area.
-Show signs of infection, such as blisters with pus or streaks.
-Experience worsening pain, headache, confusion, nausea, fever or chills.
-Get worse despite at-home care.
-Have eye pain or vision changes.
-Seek immediate medical care if you are sunburned and experience:
-A fever over 103 F (39.4 C) with vomiting
-Confusion
-An infection
-Dehydration
-Cold skin, dizziness or faintness.
-A fever over 103 F (39.4 C) with vomiting.
-Confusion.
-An infection.
-Dehydration.
-Cold skin, dizziness or faintness.
-Causes.
-Sunburn is caused by too much exposure to ultraviolet (UV) light. UV light may be from the sun or artificial sources, such as sunlamps and tanning beds. UVA is the wavelength of light that can penetrate to the deep layers of skin and lead to skin damage over time. UVB is the wavelength of light that penetrates the skin more superficially and causes sunburn.
-The UV light damages skin cells. The immune system reacts by increasing blood flow to the affected areas, which causes the inflamed skin (erythema) known as sunburn.
-You can get sunburn on cool or cloudy days. Surfaces such as snow, sand and water can reflect UV rays and burn skin too.
-Risk factors.
-Risk factors for sunburn include:
-Having white skin and red hair
-Having a history of sunburn
-Living or vacationing somewhere sunny, warm or at high altitude
-Working outdoors
-Swimming or spraying your skin with water or baby oil, as wet skin tends to burn more than does dry skin
-Mixing outdoor recreation and drinking alcohol
-Regularly exposing unprotected skin to UV light from sunlight or artificial sources, such as tanning beds
-Taking a drug that makes you more likely to burn (photosensitizing medication).
-Having white skin and red hair.
-Having a history of sunburn.
-Living or vacationing somewhere sunny, warm or at high altitude.
-Working outdoors.
-Swimming or spraying your skin with water or baby oil, as wet skin tends to burn more than does dry skin.
-Mixing outdoor recreation and drinking alcohol.
-Regularly exposing unprotected skin to UV light from sunlight or artificial sources, such as tanning beds.
-Taking a drug that makes you more likely to burn (photosensitizing medication).
-Complications.
-Intense, repeated sun exposure that results in sunburn increases your risk of other skin damage and certain diseases. These include premature aging of skin (photoaging), precancerous skin lesions and skin cancer.
-Sun exposure and repeated sunburns speed the skin's aging process. Skin changes caused by UV light are called photoaging. The results of photoaging include:
-Weakening of connective tissues, which reduces the skin's strength and elasticity
-Deep wrinkles
-Dry, rough skin
-Fine red veins on the cheeks, nose and ears
-Freckles, mostly on the face and shoulders
-Dark or discolored spots (macules) on the face, back of hands, arms, chest and upper back — also called solar lentigines (len-TIJ-ih-neez).
-Weakening of connective tissues, which reduces the skin's strength and elasticity.
-Deep wrinkles.
-Dry, rough skin.
-Fine red veins on the cheeks, nose and ears.
-Freckles, mostly on the face and shoulders.
-Dark or discolored spots (macules) on the face, back of hands, arms, chest and upper back — also called solar lentigines (len-TIJ-ih-neez).
-Precancerous skin lesions are rough, scaly patches in areas that have been damaged by the sun. They're often found on the sun-exposed areas of the head, face, neck and hands of people whose skin burns easily in the sun. These patches can evolve into skin cancer. They're also called actinic keratoses (ak-TIN-ik ker-uh-TOE-seez) and solar keratoses.
-Excessive sun exposure, even without sunburn, increases your risk of skin cancer, such as melanoma. It can damage the DNA of skin cells. Sunburns in childhood and adolescence may increase the risk of melanoma later in life.
-Skin cancer develops mainly on areas of the body most exposed to sunlight, including the scalp, face, lips, ears, neck, chest, arms, hands, legs and back.
-Some types of skin cancer appear as a small growth or a sore that bleeds easily, crusts over, heals and then reopens. With melanoma, an existing mole may change, or a new, suspicious-looking mole may grow.
-See your health care provider if you notice:
-A new skin growth
-A bothersome change in your skin
-A change in the look or texture of a mole
-A sore that doesn't heal.
-A new skin growth.
-A bothersome change in your skin.
-A change in the look or texture of a mole.
-A sore that doesn't heal.
-Too much UV light damages the cornea. Sun damage to the lens can lead to clouding of the lens (cataracts). Sunburned eyes may feel painful or gritty. Sunburn of the cornea is also called snow blindness. This type of damage might be caused by the sun, welding, tanning lamps and broken mercury vapor lamps.
-Prevention.
-Use these methods to prevent sunburn, even on cool, cloudy or hazy days. Sun exposure on cloudy days is decreased by about 20%. Be extra careful around water, snow, concrete and sand because they reflect the sun's rays. In addition, UV light is more intense at high altitudes.
-Avoid sun exposure between 10 a.m. and 4 p.m. The sun's rays are strongest during these hours, so try to schedule outdoor activities for other times. If you can't do that, limit the time you're in the sun. Seek shade when possible.
-Avoid sun tanning and tanning beds. Getting a base tan doesn't decrease your risk of sunburn. If you use a self-tanning product to look tan, also apply a sunscreen before going outdoors.
-Use sunscreen often and generously. Use water-resistant, broad-spectrum lip balm and sunscreen with an SPF of at least 30, even on cloudy days. Broad-spectrum products offer protection against ultraviolet A (UVA) and ultraviolet B (UVB) rays. SPF 30 blocks 97% of UVB rays. No sunscreen can block 100% of the sun's UVB rays.
-About 30 minutes before going outdoors, generously apply your sunscreen to clean, dry skin. Use at least 2 tablespoons of sunscreen, or 1 ounce, to cover all surfaces of the exposed skin, except the eyelids. If you're using spray sunscreen, spray it into your hands and then rub it into the skin. This helps avoid inhaling the product. Don't use a spray product while smoking or near an open flame.
-If you're using a product that contains physical blockers (titanium oxide, zinc oxide), apply it over any other products you're wearing — except insect repellent. Insect repellent goes on last. Physical blockers provide the most effective protection for sensitive skin.
-Reapply sunscreen every two hours — or more often if you're swimming or perspiring. If you're wearing makeup and want to reapply your sunscreen without redoing your whole face, one option is to use an SPF powder over makeup.
-The Food and Drug Administration (FDA) requires all sunscreen to retain its original strength for at least three years. Check sunscreen labels for directions on storing and expiration dates. Throw away sunscreen if it's expired or more than three years old.
-Protect babies and toddlers. Protect babies and toddlers from sunburn with brimmed hats and lightweight clothing that covers the arms and legs. Keep them cool, hydrated and out of direct sunlight. When that's not possible, the American Academy of Pediatrics suggests applying sunscreen with an SPF of at least 15 to the face and back of the hands. The American Academy of Dermatology and the FDA don't suggest sunscreen for children under 6 months.
-If sun-protective clothing and shade aren't available, sunscreens containing zinc oxide or titanium dioxide are the next best choice.
-Cover up. When outside, other items such as umbrellas or wide-brimmed hats can offer protection in addition to sunscreen. Dark clothing with a tight weave offers more protection. Consider using outdoor gear specially designed to provide sun protection. Check the label for its ultraviolet protection factor (UPF), which tells how well a fabric blocks sunlight. The higher the UPF number, the better.
-Wear sunglasses when outdoors. Choose sunglasses with UVA and UVB protection. Check the UV rating on the label when buying new glasses. Darker lenses don't always mean better UV protection. It also helps to wear sunglasses that fit close to your face or have wraparound frames.
-Be aware of sun-sensitizing medications and cosmetics. Some common prescription and nonprescription drugs can make skin more sensitive to sunlight. Examples include antibiotics, nonsteroidal anti-inflammatory drugs such as ibuprofen (Advil, Motrin IB, others) and cholesterol-lowering drugs. Talk with your pharmacist or health care provider about the side effects of drugs you take. Cosmetics that contain alpha-hydroxy acids also increase sun sensitivity.
-Avoid sun exposure between 10 a.m. and 4 p.m. The sun's rays are strongest during these hours, so try to schedule outdoor activities for other times. If you can't do that, limit the time you're in the sun. Seek shade when possible.
-Avoid sun tanning and tanning beds. Getting a base tan doesn't decrease your risk of sunburn. If you use a self-tanning product to look tan, also apply a sunscreen before going outdoors.
-Use sunscreen often and generously. Use water-resistant, broad-spectrum lip balm and sunscreen with an SPF of at least 30, even on cloudy days. Broad-spectrum products offer protection against ultraviolet A (UVA) and ultraviolet B (UVB) rays. SPF 30 blocks 97% of UVB rays. No sunscreen can block 100% of the sun's UVB rays.
-About 30 minutes before going outdoors, generously apply your sunscreen to clean, dry skin. Use at least 2 tablespoons of sunscreen, or 1 ounce, to cover all surfaces of the exposed skin, except the eyelids. If you're using spray sunscreen, spray it into your hands and then rub it into the skin. This helps avoid inhaling the product. Don't use a spray product while smoking or near an open flame.
-If you're using a product that contains physical blockers (titanium oxide, zinc oxide), apply it over any other products you're wearing — except insect repellent. Insect repellent goes on last. Physical blockers provide the most effective protection for sensitive skin.
-Reapply sunscreen every two hours — or more often if you're swimming or perspiring. If you're wearing makeup and want to reapply your sunscreen without redoing your whole face, one option is to use an SPF powder over makeup.
-The Food and Drug Administration (FDA) requires all sunscreen to retain its original strength for at least three years. Check sunscreen labels for directions on storing and expiration dates. Throw away sunscreen if it's expired or more than three years old.
-Use sunscreen often and generously. Use water-resistant, broad-spectrum lip balm and sunscreen with an SPF of at least 30, even on cloudy days. Broad-spectrum products offer protection against ultraviolet A (UVA) and ultraviolet B (UVB) rays. SPF 30 blocks 97% of UVB rays. No sunscreen can block 100% of the sun's UVB rays.
-About 30 minutes before going outdoors, generously apply your sunscreen to clean, dry skin. Use at least 2 tablespoons of sunscreen, or 1 ounce, to cover all surfaces of the exposed skin, except the eyelids. If you're using spray sunscreen, spray it into your hands and then rub it into the skin. This helps avoid inhaling the product. Don't use a spray product while smoking or near an open flame.
-If you're using a product that contains physical blockers (titanium oxide, zinc oxide), apply it over any other products you're wearing — except insect repellent. Insect repellent goes on last. Physical blockers provide the most effective protection for sensitive skin.
-Reapply sunscreen every two hours — or more often if you're swimming or perspiring. If you're wearing makeup and want to reapply your sunscreen without redoing your whole face, one option is to use an SPF powder over makeup.
-The Food and Drug Administration (FDA) requires all sunscreen to retain its original strength for at least three years. Check sunscreen labels for directions on storing and expiration dates. Throw away sunscreen if it's expired or more than three years old.
-Protect babies and toddlers. Protect babies and toddlers from sunburn with brimmed hats and lightweight clothing that covers the arms and legs. Keep them cool, hydrated and out of direct sunlight. When that's not possible, the American Academy of Pediatrics suggests applying sunscreen with an SPF of at least 15 to the face and back of the hands. The American Academy of Dermatology and the FDA don't suggest sunscreen for children under 6 months.
-If sun-protective clothing and shade aren't available, sunscreens containing zinc oxide or titanium dioxide are the next best choice.
-Protect babies and toddlers. Protect babies and toddlers from sunburn with brimmed hats and lightweight clothing that covers the arms and legs. Keep them cool, hydrated and out of direct sunlight. When that's not possible, the American Academy of Pediatrics suggests applying sunscreen with an SPF of at least 15 to the face and back of the hands. The American Academy of Dermatology and the FDA don't suggest sunscreen for children under 6 months.
-If sun-protective clothing and shade aren't available, sunscreens containing zinc oxide or titanium dioxide are the next best choice.
-Cover up. When outside, other items such as umbrellas or wide-brimmed hats can offer protection in addition to sunscreen. Dark clothing with a tight weave offers more protection. Consider using outdoor gear specially designed to provide sun protection. Check the label for its ultraviolet protection factor (UPF), which tells how well a fabric blocks sunlight. The higher the UPF number, the better.
-Wear sunglasses when outdoors. Choose sunglasses with UVA and UVB protection. Check the UV rating on the label when buying new glasses. Darker lenses don't always mean better UV protection. It also helps to wear sunglasses that fit close to your face or have wraparound frames.
-Be aware of sun-sensitizing medications and cosmetics. Some common prescription and nonprescription drugs can make skin more sensitive to sunlight. Examples include antibiotics, nonsteroidal anti-inflammatory drugs such as ibuprofen (Advil, Motrin IB, others) and cholesterol-lowering drugs. Talk with your pharmacist or health care provider about the side effects of drugs you take. Cosmetics that contain alpha-hydroxy acids also increase sun sensitivity.</t>
-  </si>
-  <si>
-    <t>Overview.
-Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain can also result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome.
-Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult, but an accurate diagnosis is essential for proper treatment and healing.
-Symptoms.
-Wrist pain may vary, depending on the cause. For example, osteoarthritis pain is often described as being similar to a dull toothache, while carpal tunnel syndrome usually causes a pins-and-needles feeling or a tingling sensation, especially at night. The precise location of your wrist pain also provides clues to what's behind your symptoms.
-Not all wrist pain requires medical care. Minor sprains and strains usually respond to ice, rest and over-the-counter pain medications. But if pain and swelling last longer than a few days or become worse, see your doctor. Delayed diagnosis and treatment can lead to poor healing, reduced range of motion and long-term disability.
-From Mayo Clinic to your inbox.
-Sign up for free, and stay up to date on research advancements, health tips and current health topics, like COVID-19, plus expertise on managing health.
-Causes.
-Damage to any of the parts of your wrist can cause pain and affect your ability to use your wrist and hand.
-Sudden impacts. Wrist injuries often occur when you fall forward onto your outstretched hand. This can cause sprains, strains and even fractures. A scaphoid fracture involves a bone on the thumb side of the wrist. This type of fracture may not show up on X-rays immediately after the injury.
-Repetitive stress. Any activity that involves repetitive wrist motion — from hitting a tennis ball or bowing a cello to driving cross-country — can inflame the tissues around joints or cause stress fractures, especially when you perform the movement for hours on end without a break. De Quervain's disease is a repetitive stress injury that causes pain at the base of the thumb.
-Sudden impacts. Wrist injuries often occur when you fall forward onto your outstretched hand. This can cause sprains, strains and even fractures. A scaphoid fracture involves a bone on the thumb side of the wrist. This type of fracture may not show up on X-rays immediately after the injury.
-Repetitive stress. Any activity that involves repetitive wrist motion — from hitting a tennis ball or bowing a cello to driving cross-country — can inflame the tissues around joints or cause stress fractures, especially when you perform the movement for hours on end without a break. De Quervain's disease is a repetitive stress injury that causes pain at the base of the thumb.
-Osteoarthritis. This type of arthritis occurs when the cartilage that cushions the ends of your bones deteriorates over time. Osteoarthritis in the wrist is uncommon and usually occurs only in people who have injured that wrist in the past.
-Rheumatoid arthritis. A disorder in which the body's immune system attacks its own tissues, rheumatoid arthritis commonly involves the wrist. If one wrist is affected, the other one usually is, too.
-Osteoarthritis. This type of arthritis occurs when the cartilage that cushions the ends of your bones deteriorates over time. Osteoarthritis in the wrist is uncommon and usually occurs only in people who have injured that wrist in the past.
-Rheumatoid arthritis. A disorder in which the body's immune system attacks its own tissues, rheumatoid arthritis commonly involves the wrist. If one wrist is affected, the other one usually is, too.
-Carpal tunnel syndrome. Carpal tunnel syndrome develops when there's increased pressure on the median nerve as it passes through the carpal tunnel, a passageway in the palm side of your wrist.
-Ganglion cysts. These soft tissue cysts occur most often on the part of your wrist opposite your palm. Ganglion cysts may be painful, and pain may either worsen or improve with activity.
-Kienbock's disease. This disorder typically affects young adults and involves the progressive collapse of one of the small bones in the wrist. Kienbock's disease occurs when the blood supply to this bone is compromised.
-Carpal tunnel syndrome. Carpal tunnel syndrome develops when there's increased pressure on the median nerve as it passes through the carpal tunnel, a passageway in the palm side of your wrist.
-Ganglion cysts. These soft tissue cysts occur most often on the part of your wrist opposite your palm. Ganglion cysts may be painful, and pain may either worsen or improve with activity.
-Kienbock's disease. This disorder typically affects young adults and involves the progressive collapse of one of the small bones in the wrist. Kienbock's disease occurs when the blood supply to this bone is compromised.
-Risk factors.
-Wrist pain can happen to anyone — whether you're very sedentary, very active or somewhere in between. But your risk may be increased by:
-Sports participation. Wrist injuries are common in many sports, both those that involve impact and those that involve repetitive stress on the wrist. These can include football, bowling, golf, gymnastics, snowboarding and tennis.
-Repetitive work. Almost any activity that involves your hands and wrists — even knitting and cutting hair — if performed forcefully enough and often enough can lead to disabling wrist pain.
-Certain diseases or conditions. Pregnancy, diabetes, obesity, rheumatoid arthritis and gout may increase your risk of developing carpal tunnel syndrome.
-Sports participation. Wrist injuries are common in many sports, both those that involve impact and those that involve repetitive stress on the wrist. These can include football, bowling, golf, gymnastics, snowboarding and tennis.
-Repetitive work. Almost any activity that involves your hands and wrists — even knitting and cutting hair — if performed forcefully enough and often enough can lead to disabling wrist pain.
-Certain diseases or conditions. Pregnancy, diabetes, obesity, rheumatoid arthritis and gout may increase your risk of developing carpal tunnel syndrome.
-Prevention.
-It's impossible to prevent the unforeseen events that often cause wrist injuries, but these basic tips may offer some protection:
-Build bone strength. Getting adequate amounts of calcium — 1,000 milligrams a day for most adults and at least 1,200 milligrams a day for women over age 50, — can help prevent fractures.
-Prevent falls. Falling forward onto an outstretched hand is the main cause of most wrist injuries. To help prevent falls, wear sensible shoes. Remove home hazards. Light up your living space. And install grab bars in your bathroom and handrails on your stairways, if necessary.
-Use protective gear for athletic activities. Wear wrist guards for high-risk activities, such as football, snowboarding and rollerblading.
-Pay attention to ergonomics. If you spend long periods at a keyboard, take regular breaks. When you type, keep your wrist in a relaxed, neutral position. An ergonomic keyboard and foam or gel wrist support may help.
-Build bone strength. Getting adequate amounts of calcium — 1,000 milligrams a day for most adults and at least 1,200 milligrams a day for women over age 50, — can help prevent fractures.
-Prevent falls. Falling forward onto an outstretched hand is the main cause of most wrist injuries. To help prevent falls, wear sensible shoes. Remove home hazards. Light up your living space. And install grab bars in your bathroom and handrails on your stairways, if necessary.
-Use protective gear for athletic activities. Wear wrist guards for high-risk activities, such as football, snowboarding and rollerblading.
-Pay attention to ergonomics. If you spend long periods at a keyboard, take regular breaks. When you type, keep your wrist in a relaxed, neutral position. An ergonomic keyboard and foam or gel wrist support may help.</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -7353,13 +4582,6 @@
 Changing your medications. With your doctor's approval, stop or cut back on pain relievers or other medications that may irritate your stomach lining. If that's not an option, be sure to take these medications with food.</t>
   </si>
   <si>
-    <t xml:space="preserve">Drink plenty of liquids, including water, broths and juices. Avoid caffeine and alcohol.
-Add semisolid and low-fiber foods gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
-Avoid certain foods such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
-Ask about anti-diarrheal medications. Over-the-counter anti-diarrheal medications, such as loperamide and bismuth subsalicylate, might help reduce the number of watery bowel movements and control severe symptoms.Check with your doctor before taking these medications or giving them to a child.
-Consider taking probiotics. These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt. </t>
-  </si>
-  <si>
     <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
 Avoid moving suddenly and walk with a cane for stability, if needed.
 Fall-proof your home by removing tripping hazards such as area rugs and exposed electrical cords. Use nonslip mats on your bath and shower floors. Use good lighting.
@@ -7372,35 +4594,6 @@
 If your dizziness is caused by overheating or dehydration, rest in a cool place and drink water or a sports drink (Gatorade, Powerade, others).</t>
   </si>
   <si>
-    <t>Have your eyes checked. Do this regularly even if you see well.
-Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
-Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
-Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
-Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
-Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
-Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
-Use good lighting. Turn up or add light to see better.
-Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes  for 20 seconds at something 20 feet away.</t>
-  </si>
-  <si>
-    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
-Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
-Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
-Eat healthy. Healthy eating  such as focusing on vegetables, fruits, whole grains and fish  may be linked to reduced anxiety, but more research is needed.
-Avoid alcohol and recreational drugs. These substances can worsen anxiety.
-Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
-  </si>
-  <si>
-    <t>Brush your teeth after you eat. Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
-Floss at least once a day. Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
-Brush your tongue. Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
-Clean dentures or dental appliances. If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
-Avoid dry mouth. To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
-Adjust your diet. Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
-Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
-Schedule regular dental checkups. See your dentist on a regular basis  generally twice a year  to have your teeth or dentures examined and cleaned.</t>
-  </si>
-  <si>
     <t>Bathe daily. Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
 Choose clothing to suit your activity. For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
 Try relaxation techniques. Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
@@ -7428,13 +4621,6 @@
 Sleep with your head slightly raised. It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.
 Reduce allergy symptoms. Avoid allergens when possible. Try nonprescription allergy medications. Talk to your health care provider about prevention strategies if you develop under-eye reactions due to hair dyes, soaps, cosmetics or other allergens.
 Use cosmetics. If you wish to mask your under-eye circles, try using makeup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugar-free gum. Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
-Vitamin D. Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
-Brush with fluoride toothpaste. Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
-Cut out sugary foods. This is the cavity remedy that no one likes to hear — stop eating so much sugar. 
-Oil pulling. Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out. </t>
   </si>
   <si>
     <t>Stick to your treatment plan. Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
@@ -7505,9 +4691,6 @@
     <t>gerd</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ocd</t>
   </si>
   <si>
@@ -7517,30 +4700,683 @@
     <t>pms</t>
   </si>
   <si>
-    <t xml:space="preserve">Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
+    <t>Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
+  </si>
+  <si>
+    <t>hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
+  </si>
+  <si>
+    <t>Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
+  </si>
+  <si>
+    <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
+  </si>
+  <si>
+    <t>Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
+    <t>A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
+  </si>
+  <si>
+    <t>Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
+  </si>
+  <si>
+    <t>high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
+  </si>
+  <si>
+    <t>Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
+  </si>
+  <si>
+    <t>Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
+  </si>
+  <si>
+    <t>Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
+  </si>
+  <si>
+    <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
+  </si>
+  <si>
+    <t>Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
+  </si>
+  <si>
+    <t>sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
+  </si>
+  <si>
+    <t>intense itching
+small areas of blood and crust on your skin
+bite marks</t>
+  </si>
+  <si>
+    <t>Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
+  </si>
+  <si>
+    <t>mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
+  </si>
+  <si>
+    <t>foul-smelling
+Bad breath odors</t>
+  </si>
+  <si>
+    <t>a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
+    <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
+    <t>Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
+  </si>
+  <si>
+    <t>Heartburn
+Burning sensation
+Bloody or black stools or bloody vomiting
+Burping
+Dysphagia(the sensation of food being stuck in your throat)
+Hiccups
+Nausea
+Regurgitation
+Bloating
+bitter taste
+discomfort in upper abdomen 
+dry cough</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>hair loss
+Circular or patchy bald spots
+Sudden loosening of hair
+Full-body hair loss
+Patches of scaling that spread over the scalp
+Gradual thinning of the hair on your head
+Bald spot that grows slowly
+Receding hairline
+Widening part
+Thinner ponytail</t>
+  </si>
+  <si>
+    <t>Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
+  </si>
+  <si>
+    <t>Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
+  </si>
+  <si>
+    <t>Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
+  </si>
+  <si>
+    <t>Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
+  </si>
+  <si>
+    <t>An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
+  </si>
+  <si>
+    <t>Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
+  </si>
+  <si>
+    <t>Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
+  </si>
+  <si>
+    <t>Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
+  </si>
+  <si>
+    <t>Body mass index (BMI) of 23 or higher</t>
+  </si>
+  <si>
+    <t>Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
+  </si>
+  <si>
+    <t>Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
+  </si>
+  <si>
+    <t>Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
+  </si>
+  <si>
+    <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
+  </si>
+  <si>
+    <t>Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
+    <t>Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
+  </si>
+  <si>
+    <t>Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
+  </si>
+  <si>
+    <t>Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
+  </si>
+  <si>
+    <t>pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
+Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
+Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.</t>
+  </si>
+  <si>
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.</t>
+  </si>
+  <si>
+    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.</t>
+  </si>
+  <si>
+    <t>Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
 Fenugreek. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
 Onions. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
 Garlic. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
 Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
 Oatmeal. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
 Aloe Vera Extract. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
-Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots. </t>
+Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots.</t>
+  </si>
+  <si>
+    <t>Brush your teeth after you eat. Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
+Floss at least once a day. Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
+Brush your tongue. Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
+Clean dentures or dental appliances. If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
+Avoid dry mouth. To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
+Adjust your diet. Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
+Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
+Schedule regular dental checkups. See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
+  </si>
+  <si>
+    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.</t>
+  </si>
+  <si>
+    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.</t>
+  </si>
+  <si>
+    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
+Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.</t>
+  </si>
+  <si>
+    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
+Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.</t>
+  </si>
+  <si>
+    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.</t>
+  </si>
+  <si>
+    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
+Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.</t>
+  </si>
+  <si>
+    <t>Sugar-free gum. Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
+Vitamin D. Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
+Brush with fluoride toothpaste. Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
+Cut out sugary foods. This is the cavity remedy that no one likes to hear — stop eating so much sugar. 
+Oil pulling. Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.</t>
+  </si>
+  <si>
+    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.</t>
+  </si>
+  <si>
+    <t>continuous low mood or sadness
+feeling hopeless and helpless
+having low self-esteem
+feeling tearful
+feeling guilt-ridden
+feeling irritable and intolerant of others
+having no motivation or interest in things
+finding it difficult to make decisions
+not getting any enjoyment out of life
+feeling anxious or worried
+having suicidal thoughts or thoughts of harming yourself
+moving or speaking more slowly than usual
+changes in appetite or weight (usually decreased, but sometimes increased)
+constipation
+unexplained aches and pains
+lack of energy
+low sex drive (loss of libido)
+changes to your menstrual cycle
+disturbed sleep</t>
+  </si>
+  <si>
+    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
+Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.</t>
+  </si>
+  <si>
+    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
+Constipation is generally described as having fewer than three bowel movements a week.
+Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.</t>
+  </si>
+  <si>
+    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
+Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
+Dandruff is a mild form of seborrheic dermatitis.</t>
+  </si>
+  <si>
+    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
+Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.</t>
+  </si>
+  <si>
+    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).</t>
+  </si>
+  <si>
+    <t>Drink plenty of liquids, including water, broths and juices. Avoid caffeine and alcohol.
+Add semisolid and low-fiber foods gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
+Avoid certain foods such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
+Ask about anti-diarrheal medications. Over-the-counter anti-diarrheal medications, such as loperamide and bismuth subsalicylate, might help reduce the number of watery bowel movements and control severe symptoms.Check with your doctor before taking these medications or giving them to a child.
+Consider taking probiotics. These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
+  </si>
+  <si>
+    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
+Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.</t>
+  </si>
+  <si>
+    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
+The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.</t>
+  </si>
+  <si>
+    <t>Have your eyes checked. Do this regularly even if you see well.
+Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
+Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
+Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
+Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
+Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
+Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
+Use good lighting. Turn up or add light to see better.
+Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes for 20 seconds at something 20 feet away.</t>
+  </si>
+  <si>
+    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
+Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
+Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
+Eat healthy. Healthy eating such as focusing on vegetables, fruits, whole grains and fish may be linked to reduced anxiety, but more research is needed.
+Avoid alcohol and recreational drugs. These substances can worsen anxiety.
+Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
+  </si>
+  <si>
+    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
+Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
+Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.</t>
+  </si>
+  <si>
+    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.</t>
+  </si>
+  <si>
+    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
+Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
+Indigestion may often be relieved with lifestyle changes and medications.</t>
+  </si>
+  <si>
+    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.</t>
+  </si>
+  <si>
+    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
+Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.</t>
+  </si>
+  <si>
+    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
+For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.</t>
+  </si>
+  <si>
+    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
+For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.</t>
+  </si>
+  <si>
+    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).</t>
+  </si>
+  <si>
+    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.</t>
+  </si>
+  <si>
+    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
+Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.</t>
+  </si>
+  <si>
+    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.</t>
+  </si>
+  <si>
+    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
+There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.</t>
+  </si>
+  <si>
+    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
+You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
+OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.</t>
+  </si>
+  <si>
+    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
+Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.</t>
+  </si>
+  <si>
+    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
+Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
+With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.</t>
+  </si>
+  <si>
+    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
+Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.</t>
+  </si>
+  <si>
+    <t>Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
+  </si>
+  <si>
+    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
+Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.</t>
+  </si>
+  <si>
+    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
+In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.</t>
+  </si>
+  <si>
+    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
+You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.</t>
+  </si>
+  <si>
+    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.</t>
+  </si>
+  <si>
+    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
+Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
+Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective.
+Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
+Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin.
+Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
+Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments.
+Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
+Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
+Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
+Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
+Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
+Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
+  </si>
+  <si>
+    <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
+Wash infested bedding, clothing and towels with hot, soapy water — at least 130 F (54 C) — and machine dry them on high heat for at least 20 minutes.
+Clothing that can't be washed may be dry cleaned and ironed.
+Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
+Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
+Exposure to infested items should be avoided for two weeks.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7552,6 +5388,25 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7573,42 +5428,49 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7954,1014 +5816,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H7" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="360" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="216" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="288" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="288" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="360" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="216" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="360" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="216" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{607EC1DF-3CE4-4C59-BCDA-10EB5E325155}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CA71DBF7-5ADA-4AC5-BD5D-EBBE3BAA4C57}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{E760EC4C-C56E-476C-A462-5F25B5974EB7}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D9BE93D5-8217-4400-991F-0027DF07AC5B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{E88CD9CB-B6C0-4347-B013-BE4CC74ECE97}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{AEC81649-B63B-4A2F-89E7-58DEAA55E993}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{4C86A817-F963-4954-B01E-84AE64DF35BE}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{4C3CAB2A-B1B5-4883-A880-B2A499744063}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{A5CA2E11-99D2-4E1B-BFF9-A73BEDA1C990}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{69F4340B-F4C1-440C-B207-DF6767FC9E2F}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{1CA04C9E-2886-4CD6-8B7B-F3B6D8144A51}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{7AA1874C-97BF-4721-A409-0A8D2C540055}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{9C3537CE-9290-42C8-A078-ABD155B50A14}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{4F043416-AECF-4A92-A194-8CD3EECCF880}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{6674A874-5CDD-4EE1-B614-732D2C1421AD}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{5B20B882-6939-4196-8901-993D5CAE836E}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{EC7B016B-3A1C-420B-ACBA-585B695ECB18}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{265F33CA-AE52-4124-91CD-37554B92406D}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{C495D820-C493-490D-9033-4DA4EF3D3B91}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{9C36667C-F443-4B4C-88A2-E09BCAE4CD37}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{DD571D32-461E-4996-A41C-0099639089B7}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{18DD024C-9370-452E-9C0D-D66F6C14D808}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{DF59A9F0-892F-4CF6-9563-6147BC462A54}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{321AC48E-269C-4FFE-87EB-AB05483F5846}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{5ECAB37E-D5A9-4E5D-9822-5DF0D771C690}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{AE013A0E-7375-4AB2-A9FF-3DDBAA6D2D8E}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{BFB98AC8-99DA-42E2-8EC7-0669E878519B}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{C6911D0C-71A9-43CE-96CC-0F977D3F6BF5}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{67B2D438-F75C-46B5-B5E5-5282E75ABED3}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{6E6C270C-9C49-4E53-BC98-D8E8DA44468F}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{1E830C97-2412-4D2F-A208-CE7F18205E0E}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{D0DCA2E4-FFE8-4E03-9D8A-FBFADE819DE1}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{58D50908-1989-484E-95C2-42EF9C638DDA}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{CC5AF427-BEE0-40A9-9E24-A9D3F5547D0F}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{5D095880-22DB-4841-ACCF-82A204136D19}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{D1CECACC-C851-4733-9D32-8CC07BA360AF}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{46D0EE8F-B632-4325-AA91-DF4237D15C07}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{036CCE88-5B48-4EB1-8272-ECBB623AC2A4}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{F0EE6AD6-81D0-40CF-91EF-3CFCB62EC119}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{5D5412F3-1BA5-4A92-946A-04616C376B9F}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{080072E6-42E2-497D-9AB5-363B0732851C}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{3BB01B6C-D980-442C-8657-23252F0AFEF1}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{7E890824-6413-4643-92C1-2716B98C7F9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/static/datasets/final data.xlsx
+++ b/static/datasets/final data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/static/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{E4ACAABA-9483-4210-A7DD-EC89AF22F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041326A2-574B-4AC9-9922-34524E487A36}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_32D41CD7D78D7C22D747086AEACDD70CAB4196BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0A2B39-82B0-41AE-9242-99B9A45C9BB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>disease</t>
   </si>
@@ -47,317 +50,47 @@
     <t>link</t>
   </si>
   <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
     <t>remedies</t>
   </si>
   <si>
-    <t>overview</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>acid reflux</t>
   </si>
   <si>
-    <t>acne</t>
-  </si>
-  <si>
-    <t>acute sinusitis</t>
-  </si>
-  <si>
-    <t>allergies</t>
-  </si>
-  <si>
-    <t>alopecia</t>
-  </si>
-  <si>
-    <t>bad breath</t>
-  </si>
-  <si>
-    <t>bags under eyes</t>
-  </si>
-  <si>
-    <t>baldness</t>
-  </si>
-  <si>
-    <t>bee sting</t>
-  </si>
-  <si>
-    <t>body lice</t>
-  </si>
-  <si>
-    <t>body odor and sweating</t>
-  </si>
-  <si>
-    <t>calluses and corns</t>
-  </si>
-  <si>
-    <t>cavities</t>
-  </si>
-  <si>
-    <t>clinical depression</t>
-  </si>
-  <si>
-    <t>common cold</t>
-  </si>
-  <si>
-    <t>constipation</t>
-  </si>
-  <si>
-    <t>corns and calluses</t>
-  </si>
-  <si>
-    <t>dandruff</t>
-  </si>
-  <si>
-    <t>dengue fever</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>dizziness</t>
-  </si>
-  <si>
-    <t>farsightedness</t>
-  </si>
-  <si>
-    <t>generalized anxiety disorder</t>
-  </si>
-  <si>
-    <t>head lice</t>
-  </si>
-  <si>
-    <t>hiccups</t>
-  </si>
-  <si>
-    <t>indigestion</t>
-  </si>
-  <si>
-    <t>ingrown hair</t>
-  </si>
-  <si>
-    <t>ingrown toenails</t>
-  </si>
-  <si>
-    <t>menstrual cramps</t>
-  </si>
-  <si>
-    <t>migraine</t>
-  </si>
-  <si>
-    <t>mosquito bites</t>
-  </si>
-  <si>
-    <t>muscle cramp</t>
-  </si>
-  <si>
-    <t>myopia</t>
-  </si>
-  <si>
-    <t>neck pain</t>
-  </si>
-  <si>
-    <t>obesity</t>
-  </si>
-  <si>
-    <t>obsessive-compulsive disorder</t>
-  </si>
-  <si>
-    <t>panic attacks and panic disorder</t>
-  </si>
-  <si>
-    <t>pink eye</t>
-  </si>
-  <si>
-    <t>polycystic ovary syndrome</t>
-  </si>
-  <si>
-    <t>premenstrual syndrome</t>
-  </si>
-  <si>
-    <t>prickly heat</t>
-  </si>
-  <si>
-    <t>snoring</t>
-  </si>
-  <si>
-    <t>social anxiety disorder</t>
-  </si>
-  <si>
-    <t>sunburn</t>
-  </si>
-  <si>
-    <t>wrist pain</t>
-  </si>
-  <si>
     <t>gastroesophageal reflux disease</t>
   </si>
   <si>
-    <t>pimples</t>
-  </si>
-  <si>
-    <t>hair loss</t>
-  </si>
-  <si>
-    <t>sweating and body odor</t>
-  </si>
-  <si>
-    <t>tooth decay</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>nearsightedness</t>
-  </si>
-  <si>
-    <t>conjunctivitis</t>
-  </si>
-  <si>
-    <t>heat rash</t>
-  </si>
-  <si>
-    <t>social phobia</t>
-  </si>
-  <si>
-    <t>major depressive disorder</t>
+    <t>gerd</t>
   </si>
   <si>
     <t>https://www.mayoclinic.org/diseases-conditions/gerd/symptoms-causes/syc-20361940</t>
   </si>
   <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/acne/symptoms-causes/syc-20368047</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/acute-sinusitis/symptoms-causes/syc-20351671</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/allergies/symptoms-causes/syc-20351497</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/hair-loss/symptoms-causes/syc-20372926</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bad-breath/symptoms-causes/syc-20350922</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bags-under-eyes/symptoms-causes/syc-20369927</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/bee-stings/symptoms-causes/syc-20353869</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/body-lice/symptoms-causes/syc-20350310</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/sweating-and-body-odor/symptoms-causes/syc-20353895</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/corns-and-calluses/symptoms-causes/syc-20355946</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/cavities/symptoms-causes/syc-20352892</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/depression/symptoms-causes/syc-20356007</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/common-cold/symptoms-causes/syc-20351605</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/constipation/symptoms-causes/syc-20354253</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dandruff/symptoms-causes/syc-20353850</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dengue-fever/symptoms-causes/syc-20353078</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/diarrhea/symptoms-causes/syc-20352241</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/dizziness/symptoms-causes/syc-20371787</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/farsightedness/symptoms-causes/syc-20372495</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/generalized-anxiety-disorder/symptoms-causes/syc-20360803</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/head-lice/symptoms-causes/syc-20356180</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/hiccups/symptoms-causes/syc-20352613</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/indigestion/symptoms-causes/syc-20352211</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-hair/symptoms-causes/syc-20373893</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-toenails/symptoms-causes/syc-20355903</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/menstrual-cramps/symptoms-causes/syc-20374938</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/migraine-headache/symptoms-causes/syc-20360201</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/mosquito-bites/symptoms-causes/syc-20375310</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/muscle-cramp/symptoms-causes/syc-20350820</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/nearsightedness/symptoms-causes/syc-20375556</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/neck-pain/symptoms-causes/syc-20375581</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/obesity/symptoms-causes/syc-20375742</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/obsessive-compulsive-disorder/symptoms-causes/syc-20354432</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/panic-attacks/symptoms-causes/syc-20376021</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/pink-eye/symptoms-causes/syc-20376355</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/pcos/symptoms-causes/syc-20353439</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/premenstrual-syndrome/symptoms-causes/syc-20376780</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/heat-rash/symptoms-causes/syc-20373276</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/snoring/symptoms-causes/syc-20377694</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/social-anxiety-disorder/symptoms-causes/syc-20353561</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/sunburn/symptoms-causes/syc-20355922</t>
-  </si>
-  <si>
-    <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
-  </si>
-  <si>
-    <t>Rest. This will help your body fight infection and speed recovery.
-Drink fluids. Continue to drink plenty of fluids.
-Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
-Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
-Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.</t>
+    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
+Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
+Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.</t>
+  </si>
+  <si>
+    <t>Heartburn
+Burning sensation
+Bloody or black stools or bloody vomiting
+Burping
+Dysphagia(the sensation of food being stuck in your throat)
+Hiccups
+Nausea
+Regurgitation
+Bloating
+bitter taste
+discomfort in upper abdomen 
+dry cough</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -489,6 +222,38 @@
 Does food or sour material ever come up in the back of your throat?.
 Do you have trouble swallowing food, or have you had to change your diet to avoid difficulty swallowing?.
 Have you gained or lost weight?</t>
+  </si>
+  <si>
+    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
+Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
+Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective.
+Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
+Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>acne</t>
+  </si>
+  <si>
+    <t>pimples</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/acne/symptoms-causes/syc-20368047</t>
+  </si>
+  <si>
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.</t>
+  </si>
+  <si>
+    <t>Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
   </si>
   <si>
     <t>Treatment.
@@ -645,6 +410,40 @@
 Have other family members had isotretinoin treatment or hormone therapy to treat their acne? Has it been effective?</t>
   </si>
   <si>
+    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin.
+Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
+Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments.
+Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
+Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
+Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
+Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>acute sinusitis</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/acute-sinusitis/symptoms-causes/syc-20351671</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.</t>
+  </si>
+  <si>
+    <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your doctor may ask about your symptoms. He or she may feel for tenderness in your nose and face and look inside your nose. Your doctor can usually make the diagnosis based on the physical exam.
 Other methods that might be used to diagnose acute sinusitis and rule out other conditions include:
@@ -743,6 +542,34 @@
 Do you smoke or are you around smoke or other pollutants?</t>
   </si>
   <si>
+    <t>Rest. This will help your body fight infection and speed recovery.
+Drink fluids. Continue to drink plenty of fluids.
+Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
+Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
+Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.</t>
+  </si>
+  <si>
+    <t>allergies</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/allergies/symptoms-causes/syc-20351497</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.</t>
+  </si>
+  <si>
+    <t>a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
     <t>Diagnosis.
 To evaluate whether you have an allergy, your health care provider will likely:
 Ask detailed questions about signs and symptoms
@@ -833,6 +660,40 @@
 Is there dampness or water damage in your home or workplace?.
 Do you smoke, or are you exposed to secondhand smoke or other pollutants?.
 What treatments have you tried so far? Have they helped?</t>
+  </si>
+  <si>
+    <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
+Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
+Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
+  </si>
+  <si>
+    <t>alopecia</t>
+  </si>
+  <si>
+    <t>hair loss</t>
+  </si>
+  <si>
+    <t>baldness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/hair-loss/symptoms-causes/syc-20372926</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.</t>
+  </si>
+  <si>
+    <t>hair loss
+Circular or patchy bald spots
+Sudden loosening of hair
+Full-body hair loss
+Patches of scaling that spread over the scalp
+Gradual thinning of the hair on your head
+Bald spot that grows slowly
+Receding hairline
+Widening part
+Thinner ponytail</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -929,6 +790,30 @@
 What, if anything, appears to worsen your hair loss?</t>
   </si>
   <si>
+    <t>Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
+Fenugreek. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
+Onions. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
+Garlic. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
+Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
+Oatmeal. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
+Aloe Vera Extract. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
+Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots.</t>
+  </si>
+  <si>
+    <t>bad breath</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bad-breath/symptoms-causes/syc-20350922</t>
+  </si>
+  <si>
+    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.</t>
+  </si>
+  <si>
+    <t>foul-smelling
+Bad breath odors</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your dentist will likely smell both the breath from your mouth and the breath from your nose and rate the odor on a scale. Because the back of the tongue is most often the source of the smell, your dentist may also scrape it and rate its odor.
 There are sophisticated detectors that can identify the chemicals responsible for bad breath, though these aren't always available.
@@ -993,6 +878,32 @@
 What do you suspect might be causing your bad breath?.
 Have other people noticed and commented on your bad breath?.
 Be ready to answer these questions so that you can make the most of your appointment time.</t>
+  </si>
+  <si>
+    <t>Brush your teeth after you eat. Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
+Floss at least once a day. Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
+Brush your tongue. Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
+Clean dentures or dental appliances. If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
+Avoid dry mouth. To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
+Adjust your diet. Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
+Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
+Schedule regular dental checkups. See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
+  </si>
+  <si>
+    <t>bags under eyes</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bags-under-eyes/symptoms-causes/syc-20369927</t>
+  </si>
+  <si>
+    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.</t>
+  </si>
+  <si>
+    <t>mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
   </si>
   <si>
     <t>Treatment.
@@ -1070,6 +981,36 @@
 Have you ever had bleeding disorders or blood clots?</t>
   </si>
   <si>
+    <t>Use a cool compress. Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
+Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
+Don't smoke. Smoking can aggravate the problem of bags under your eyes.
+Get enough sleep. For most adults, 7 to 9 hours is a good amount of sleep.
+Sleep with your head slightly raised. It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.
+Reduce allergy symptoms. Avoid allergens when possible. Try nonprescription allergy medications. Talk to your health care provider about prevention strategies if you develop under-eye reactions due to hair dyes, soaps, cosmetics or other allergens.
+Use cosmetics. If you wish to mask your under-eye circles, try using makeup.</t>
+  </si>
+  <si>
+    <t>bee sting</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/bee-stings/symptoms-causes/syc-20353869</t>
+  </si>
+  <si>
+    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.</t>
+  </si>
+  <si>
+    <t>Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
+  </si>
+  <si>
     <t>Diagnosis.
 If you've had a reaction to bee stings that suggests you might be allergic to bee venom, your doctor may suggest one or both of the following tests:
 Skin test. During skin testing, a small amount of allergen extract (in this case, bee venom) is injected into the skin of your arm or upper back. This test is safe and won't cause any serious reactions. If you're allergic to bee stings, you'll develop a raised bump on your skin at the test site.
@@ -1144,6 +1085,28 @@
 Don't hesitate to ask other questions, as well.</t>
   </si>
   <si>
+    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
+A number of essential oils have antiseptic, antibacterial, or antifungal properties.Though essential oils have long been used in home remedies, there is little high-quality evidence to suggest that any can relieve the pain or swelling of a bee sting. 
+Aloe vera is a plant-based gel that naturally soothes and moisturizes the skin. According to a 2015 studyTrusted Source, aloe vera extract has anti-inflammatory and antibacterial properties. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
+Honey has many medicinal propertiesTrusted Source. It contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. For these reasons, some medical professionals use honey extracts in wound dressings. Try spreading a small amount of honey onto the sting. Do this indoors, so the smell of the honey does not attract more bees.</t>
+  </si>
+  <si>
+    <t>body lice</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/body-lice/symptoms-causes/syc-20350310</t>
+  </si>
+  <si>
+    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
+Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.</t>
+  </si>
+  <si>
+    <t>intense itching
+small areas of blood and crust on your skin
+bite marks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You or your doctor can usually confirm a body lice infestation through a visual examination of your body and clothing items. The presence of eggs and moving lice confirms infestation.
 Treatment.
@@ -1169,6 +1132,34 @@
 Do you have any chronic health problems?.
 What medications and supplements do you take?.
 During the physical exam, your doctor will examine your skin and the seams of your clothes.</t>
+  </si>
+  <si>
+    <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
+Wash infested bedding, clothing and towels with hot, soapy water — at least 130 F (54 C) — and machine dry them on high heat for at least 20 minutes.
+Clothing that can't be washed may be dry cleaned and ironed.
+Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
+Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
+Exposure to infested items should be avoided for two weeks.</t>
+  </si>
+  <si>
+    <t>body odor and sweating</t>
+  </si>
+  <si>
+    <t>sweating and body odor</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/sweating-and-body-odor/symptoms-causes/syc-20353895</t>
+  </si>
+  <si>
+    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
+Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.</t>
+  </si>
+  <si>
+    <t>sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1215,6 +1206,33 @@
 What, if anything, appears to worsen your symptoms?</t>
   </si>
   <si>
+    <t>Bathe daily. Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
+Choose clothing to suit your activity. For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
+Try relaxation techniques. Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
+Change your diet. Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
+  </si>
+  <si>
+    <t>calluses and corns</t>
+  </si>
+  <si>
+    <t>corns and calluses</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/corns-and-calluses/symptoms-causes/syc-20355946</t>
+  </si>
+  <si>
+    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.</t>
+  </si>
+  <si>
+    <t>Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will likely diagnose corns and calluses by examining your feet. This exam helps rule out other causes of thickened skin, such as warts and cysts. Your health care provider might confirm the diagnosis by paring away a bit of hardened skin if it bleeds or reveals black points (dried blood), it's a wart, not a corn.
 Treatment.
@@ -1247,6 +1265,35 @@
 Use corn pads. Apply a donut-shaped foam pad to protect the area where a corn or callus formed. Be careful using nonprescription liquid corn removers or medicated corn pads. These contain salicylic acid, which can irritate healthy skin and lead to infection, especially in people with diabetes or other conditions that cause poor blood flow. You can protect healthy skin by applying petroleum jelly (Vaseline) to the area around the corn or callus before using a medicated pad.
 Moisturize your skin. Use moisturizer on your hands and feet regularly.
 Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.</t>
+  </si>
+  <si>
+    <t>Soak your hands or feet. Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin.
+Thin thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
+Use corn pads. 
+Moisturize your skin. Use moisturizer on your hands and feet regularly.
+Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.</t>
+  </si>
+  <si>
+    <t>cavities</t>
+  </si>
+  <si>
+    <t>tooth decay</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/cavities/symptoms-causes/syc-20352892</t>
+  </si>
+  <si>
+    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
+Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.</t>
+  </si>
+  <si>
+    <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1330,6 +1377,50 @@
 Use toothpaste designed for sensitive teeth.
 Thoroughly clean all parts of your mouth and teeth — don't avoid painful areas.
 Avoid foods or beverages that are hot, cold or sweet enough to trigger pain.</t>
+  </si>
+  <si>
+    <t>Sugar-free gum. Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
+Vitamin D. Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
+Brush with fluoride toothpaste. Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
+Cut out sugary foods. This is the cavity remedy that no one likes to hear — stop eating so much sugar. 
+Oil pulling. Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.</t>
+  </si>
+  <si>
+    <t>clinical depression</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>major depressive disorder</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/depression/symptoms-causes/syc-20356007</t>
+  </si>
+  <si>
+    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.</t>
+  </si>
+  <si>
+    <t>continuous low mood or sadness
+feeling hopeless and helpless
+having low self-esteem
+feeling tearful
+feeling guilt-ridden
+feeling irritable and intolerant of others
+having no motivation or interest in things
+finding it difficult to make decisions
+not getting any enjoyment out of life
+feeling anxious or worried
+having suicidal thoughts or thoughts of harming yourself
+moving or speaking more slowly than usual
+changes in appetite or weight (usually decreased, but sometimes increased)
+constipation
+unexplained aches and pains
+lack of energy
+low sex drive (loss of libido)
+changes to your menstrual cycle
+disturbed sleep</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1543,6 +1634,34 @@
 Does your mood ever swing from feeling down to feeling intensely happy (euphoric) an</t>
   </si>
   <si>
+    <t>Stick to your treatment plan. Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
+Learn about depression. Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
+Pay attention to warning signs. Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
+Avoid alcohol and recreational drugs. It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
+Take care of yourself. Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
+  </si>
+  <si>
+    <t>common cold</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/common-cold/symptoms-causes/syc-20351605</t>
+  </si>
+  <si>
+    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
+Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.</t>
+  </si>
+  <si>
+    <t>Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In general, you don't need to see the doctor for a common cold. But if symptoms worsen or don't go away, it might be time to see your doctor.
 Most people with a common cold can be diagnosed by their signs and symptoms. If your doctor suspects that you have a bacterial infection or other condition, he or she may order a chest X-ray or other tests to rule out other causes of your symptoms.
@@ -1635,6 +1754,34 @@
 What, if anything, seems to improve the symptoms?.
 What, if anything, worsens symptoms?.
 Your doctor will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your time with the doctor.</t>
+  </si>
+  <si>
+    <t>Drink plenty of fluids. Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
+Sip warm liquids. Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
+Rest. If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
+Adjust your room's temperature and humidity. Keep your room warm, but not overheated. If the air is dry, a cool-mist humidifier or vaporizer can moisten the air and help ease congestion and coughing. Clean your humidifier according to the manufacturer's directions to prevent the growth of bacteria and molds.
+Soothe a sore throat. A saltwater gargle of 1/4 to 1/2 teaspoon (1250-2500 milligrams) of table salt in 4 to 8 ounces (120 to 240 milliliters) of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
+Try saline nasal drops or sprays. Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. You can buy these products over-the-counter, and they can help relieve symptoms, even in children.\nIn infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. Insert the bulb syringe about 1/4 to 1/2 inch (6 to 12 millimeters). For older children, use a saline nasal spray or saline nasal irrigation.</t>
+  </si>
+  <si>
+    <t>constipation</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/constipation/symptoms-causes/syc-20354253</t>
+  </si>
+  <si>
+    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
+Constipation is generally described as having fewer than three bowel movements a week.
+Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.</t>
+  </si>
+  <si>
+    <t>Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1772,6 +1919,46 @@
 Have you started any new medications or recently changed the dosage of your current medications?</t>
   </si>
   <si>
+    <t>Take a fiber supplement. Fiber supplements are readily available and effectiveTrusted Source at inducing bowel movements if a low fiber diet is the cause of your constipation. They work by adding bulk, or volume, to your stool. This helps push stool through your intestines and out of your body.
+You can buy fiber supplements in stores or online. Here are a few common ones:
+calcium polycarbophil (FiberCon)
+psyllium (Metamucil, Konsyl)
+methylcellulose (Citrucel)
+Eat foods for constipation relief. Eating foods that are high in fiber can help you find relief from constipation, according to the National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK)Trusted Source.
+Foods that are high in fiber can include:
+oats
+whole grain bread or cereal
+whole wheat pasta
+fibrous fruits, such as apples and bananas
+fibrous vegetables, such as broccoli, carrots, and leafy greens
+brown rice
+beans and lentils
+split peas
+nuts, such as walnuts, pecans, and almonds
+Drink a glass of water. Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 litersTrusted Source — or about seven to eight 8-ounce glasses — of clear liquid per day. The exact amount your body needs can depend on your size, sex, and whether or not you’re pregnant or breastfeeding.
+Try an enema. There are several types of enemas that you can try. Enemas work by softening stool enough to produce a bowel movement. Enemas use liquid to push stools out of the rectum. Some common types of enemas include: sodium phosphate (Fleet), soapsuds, tap water enemas.
+Try a suppository. Some treatments for constipation are available as rectal suppositories. These suppositories are inserted into the rectum to help encourage bowel movements by softening stool.
+Get some exercise. Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.
+Try colonic massage. Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
+Try natural remedies. Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studiesTrusted Source noting increased stool frequency after taking these supplements. While considered safe for most people, there are certain instances in which probiotics may beTrusted Source harmful. For instance, they typically shouldn’t be used in immunocompromised individuals.</t>
+  </si>
+  <si>
+    <t>dandruff</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dandruff/symptoms-causes/syc-20353850</t>
+  </si>
+  <si>
+    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
+Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
+Dandruff is a mild form of seborrheic dermatitis.</t>
+  </si>
+  <si>
+    <t>Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
+  </si>
+  <si>
     <t>Diagnosis.
 A doctor can often diagnose dandruff simply by looking at your hair and scalp.
 Treatment.
@@ -1812,6 +1999,34 @@
 Tea tree oil is included in a number of shampoos, but there is no strong evidence to support its use for dandruff control. It comes from the leaves of the Australian tea tree (Melaleuca alternifolia) and has been used for centuries as an antiseptic, antibiotic and antifungal agent. The oil may cause allergic reactions in some people.
 Preparing for your appointment.
 You don't need any special preparations for an appointment to diagnose dandruff. Your doctor will likely be able to diagnose your dandruff simply by looking at your scalp and skin. If you've started using any new hair care products, bring the bottles with you to your appointment or be prepared to tell your doctor about them, which help in determining the cause of your dandruff.</t>
+  </si>
+  <si>
+    <t>Learn to manage stress. Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
+Eat a healthy diet. A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
+Develop a hair and scalp care routine that suits you. If you tend to have an oily scalp, daily shampooing may help prevent dandruff. Gently massage your scalp to loosen flakes. Rinse thoroughly. If your hair tends to be dry and your scalp is sensitive, shampoo less frequently and condition your scalp between washings (Design Essentials, Melanin Haircare, ScalpBliss).
+Get a little sun. Sunlight may be good for controlling dandruff. But because exposure to ultraviolet light damages your skin and increases your risk of skin cancer, don't sunbathe. Instead, just spend a little time outdoors. And be sure to wear sunscreen on your face and body.
+Limit hair-styling products. Hair-styling products can build up on your hair and scalp, making them oilier.</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dengue-fever/symptoms-causes/syc-20353078</t>
+  </si>
+  <si>
+    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
+Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.</t>
+  </si>
+  <si>
+    <t>high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1882,6 +2097,33 @@
 Where have you traveled in the past month?.
 Were you bitten by mosquitoes while traveling?.
 Have you been in contact recently with anyone who was ill?</t>
+  </si>
+  <si>
+    <t>Drink Sufficient Water. Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Drink water at frequent intervals to keep your body well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps. When you have dengue fever, the toxins in your body complicate the impact of the viral pathogens. Water also helps in flushing out these excess toxins from your body to help you recover. With the availability of a number of RO water purifier systems in India, you can easily install a purifier at home, ensuring that you avoid any other source of water. RO water is free of contaminants and reduces the chances of contacting any other diseases.
+Juice of Papaya Leaves. Another very effective remedy is drinking papaya leaf juice. Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. Papaya leaf juice for dengue also have a high level of vitamin C which stimulate the immune system whereas the antioxidants help in reducing the stress and remove toxins from the body. All you need to do is crush the leaves and strain the juice from the crushed leaves.
+Chew Basil Leaves. Basil leaves are miraculous herbs that not only help during dengue fever, but also improve your overall immunity. Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
+Neem Leaves. Neem leaves have medicinal properties, which is the reason why they are recommended for a variety of ailments. Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
+Orange Juice. Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. The miraculous drink promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body. Orange juice also repairs your body cells as it has Vitamin C which is crucial in creating collagen.</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/diarrhea/symptoms-causes/syc-20352241</t>
+  </si>
+  <si>
+    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).</t>
+  </si>
+  <si>
+    <t>Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -1984,6 +2226,30 @@
 Avoid foods that can aggravate diarrhea. Avoid fatty, high-fiber or highly seasoned foods.
 Drink more fluids. To help avoid dehydration, drink water, juice and broth.
 Avoid foods that can aggravate diarrhea. Avoid fatty, high-fiber or highly seasoned foods.</t>
+  </si>
+  <si>
+    <t>Drink plenty of liquids, including water, broths and juices. Avoid caffeine and alcohol.
+Add semisolid and low-fiber foods gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
+Avoid certain foods such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
+Ask about anti-diarrheal medications. Over-the-counter anti-diarrheal medications, such as loperamide and bismuth subsalicylate, might help reduce the number of watery bowel movements and control severe symptoms.Check with your doctor before taking these medications or giving them to a child.
+Consider taking probiotics. These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
+  </si>
+  <si>
+    <t>dizziness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/dizziness/symptoms-causes/syc-20371787</t>
+  </si>
+  <si>
+    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
+Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.</t>
+  </si>
+  <si>
+    <t>A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2111,6 +2377,38 @@
 If your dizziness causes you to feel like you might fall, take steps to reduce your risk. Keep your home well lighted and free of hazards that might cause you to trip. Avoid area rugs and exposed electrical cords. Place furniture where you're unlikely to bump into it, and use nonslip mats in the bathtub and on shower floors.</t>
   </si>
   <si>
+    <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
+Avoid moving suddenly and walk with a cane for stability, if needed.
+Fall-proof your home by removing tripping hazards such as area rugs and exposed electrical cords. Use nonslip mats on your bath and shower floors. Use good lighting.
+Sit or lie down immediately when you feel dizzy. Lie still with your eyes closed in a darkened room if you're experiencing a severe episode of vertigo.
+Avoid driving a car or operating heavy machinery if you experience frequent dizziness without warning.
+Avoid using caffeine, alcohol, salt and tobacco. Excessive use of these substances can worsen your signs and symptoms.
+Drink enough fluids, eat a healthy diet, get enough sleep and avoid stress.
+If your dizziness is caused by a medication, talk with your doctor about discontinuing it or lowering the dose.
+If your dizziness comes with nausea, try an over-the-counter (nonprescription) antihistamine, such as meclizine or dimenhydrinate (Dramamine). These may cause drowsiness. Nondrowsy antihistamines aren't as effective.
+If your dizziness is caused by overheating or dehydration, rest in a cool place and drink water or a sports drink (Gatorade, Powerade, others).</t>
+  </si>
+  <si>
+    <t>farsightedness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/farsightedness/symptoms-causes/syc-20372495</t>
+  </si>
+  <si>
+    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
+The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.</t>
+  </si>
+  <si>
+    <t>Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Farsightedness is diagnosed by a basic eye exam, which includes a refraction assessment and an eye health exam.
 A refraction assessment determines if you have vision problems such as nearsightedness or farsightedness, astigmatism, or presbyopia. Your doctor may use various instruments and ask you to look through several lenses to test your distance and close-up vision.
@@ -2199,6 +2497,38 @@
 When did you begin wearing glasses or contacts?.
 Do you have any serious medical problems, such as diabetes?.
 Have you started any new medications, supplements or herbal preparations?</t>
+  </si>
+  <si>
+    <t>Have your eyes checked. Do this regularly even if you see well.
+Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
+Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
+Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
+Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
+Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
+Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
+Use good lighting. Turn up or add light to see better.
+Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes for 20 seconds at something 20 feet away.</t>
+  </si>
+  <si>
+    <t>generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/generalized-anxiety-disorder/symptoms-causes/syc-20360803</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.</t>
+  </si>
+  <si>
+    <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2316,6 +2646,32 @@
 Do you have any blood relatives with anxiety or other mental health conditions, such as depression?</t>
   </si>
   <si>
+    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
+Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
+Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
+Eat healthy. Healthy eating such as focusing on vegetables, fruits, whole grains and fish may be linked to reduced anxiety, but more research is needed.
+Avoid alcohol and recreational drugs. These substances can worsen anxiety.
+Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
+  </si>
+  <si>
+    <t>head lice</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/head-lice/symptoms-causes/syc-20356180</t>
+  </si>
+  <si>
+    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
+Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
+Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.</t>
+  </si>
+  <si>
+    <t>Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
+  </si>
+  <si>
     <t>Diagnosis.
 According to the American Academy of Pediatrics guidelines, the gold standard for diagnosing head lice is to identify a live nymph or adult louse.
 The guidelines recommend examining wet hair lubricated with hair conditioner or another product. Your child's health care provider will carefully comb your child's hair with a fine-toothed comb (nit comb) from the scalp to the end of the hair. If no live louse is found, the provider will likely repeat the entire exam at a second appointment.
@@ -2382,6 +2738,25 @@
 Vacuum. Give the floor and upholstered furniture a good vacuuming.
 Preparing for your appointment.
 See your family's health care provider or pediatrician if you suspect that your child has head lice. The provider will examine your child's scalp and look for a live nymph or adult louse to determine if he or she has head lice. The provider can carefully inspect your child's hair. If necessary, the provider can examine suspect items under a microscope before confirming that head lice are present.</t>
+  </si>
+  <si>
+    <t>Tea tree oil
+Anise oil
+Ylang-ylang oil</t>
+  </si>
+  <si>
+    <t>hiccups</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/hiccups/symptoms-causes/syc-20352613</t>
+  </si>
+  <si>
+    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.</t>
+  </si>
+  <si>
+    <t>hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2472,6 +2847,31 @@
 Have you had a sore throat or changes in your voice?.
 Have you had chest pain, a cough or difficulty breathing?.
 Do you have headaches or other neurological symptoms?</t>
+  </si>
+  <si>
+    <t>Breathe into a paper bag
+Gargle with ice water
+Hold your breath
+Sip cold water</t>
+  </si>
+  <si>
+    <t>indigestion</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/indigestion/symptoms-causes/syc-20352211</t>
+  </si>
+  <si>
+    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
+Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
+Indigestion may often be relieved with lifestyle changes and medications.</t>
+  </si>
+  <si>
+    <t>Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2594,6 +2994,34 @@
 Have you had nausea or vomiting or both?</t>
   </si>
   <si>
+    <t>Eating smaller, more-frequent meals. Chew your food slowly and thoroughly.
+Avoiding triggers. Fatty and spicy foods, processed foods, carbonated beverages, caffeine, alcohol, and smoking can trigger indigestion.
+Maintaining a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to back up into your esophagus.
+Exercising regularly. Exercise helps you keep off extra weight and promotes better digestion.
+Managing stress. Create a calm environment at mealtime. Practice relaxation techniques, such as deep breathing, meditation or yoga. 
+Spend time doing things you enjoy. 
+Get plenty of sleep.
+Changing your medications. With your doctor's approval, stop or cut back on pain relievers or other medications that may irritate your stomach lining. If that's not an option, be sure to take these medications with food.</t>
+  </si>
+  <si>
+    <t>ingrown hair</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-hair/symptoms-causes/syc-20373893</t>
+  </si>
+  <si>
+    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.</t>
+  </si>
+  <si>
+    <t>Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider is likely to diagnose ingrown hair by looking at your skin and asking about your hair removal habits.
 Treatment.
@@ -2683,6 +3111,35 @@
 In the days before your medical appointment, if possible, stop shaving or using any form of hair removal. Ingrown hair may worsen at first as the hair grows back. But eventually it improves.</t>
   </si>
   <si>
+    <t>Shave at least twice a week.
+Don't tweeze ingrown hairs.
+Before shaving wash the affected area using a warm washcloth or soft-bristled toothbrush. Use a circular motion for a few minutes.
+Apply a warm, damp cloth for a few more minutes.
+Apply shaving cream, don't let it dry out and use a sharp, single-blade razor.
+Don't pull your skin while shaving.
+Shave in the direction of hair growth.
+Rinse the blade after each stroke.
+Release visible ingrown hairs by inserting a sterile needle under each hair loop and gently lifting the tip that has grown back into the skin.
+Rinse your skin and apply a cool, wet cloth for a few minutes. Then use a soothing after-shave product. If needed, try using a 1% hydrocortisone cream for no more than four weeks.</t>
+  </si>
+  <si>
+    <t>ingrown toenails</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/ingrown-toenails/symptoms-causes/syc-20355903</t>
+  </si>
+  <si>
+    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
+Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.</t>
+  </si>
+  <si>
+    <t>Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider can diagnose an ingrown toenail based on your symptoms and a physical examination of the nail and the surrounding skin.
 Treatment.
@@ -2738,6 +3195,34 @@
 Do you have the symptoms all the time?.
 What at-home treatments have you used?.
 Do you have diabetes or another condition that causes poor blood flow to your legs or feet?</t>
+  </si>
+  <si>
+    <t>Soak your feet in warm, soapy water. Do this for 10 to 20 minutes 3 to 4 times a day until the toe improves.
+Place cotton or dental floss under your toenail. After each soaking, put fresh bits of cotton or waxed dental floss under the ingrown edge. This will help the nail grow above the skin edge.
+Apply petroleum jelly. Put petroleum jelly (Vaseline) on the tender area and bandage the toe.
+Choose sensible footwear. Consider wearing open-toed shoes or sandals until your toe feels better.
+Take pain relievers. A nonprescription pain reliever such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) may help ease the toe pain.</t>
+  </si>
+  <si>
+    <t>menstrual cramps</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/menstrual-cramps/symptoms-causes/syc-20374938</t>
+  </si>
+  <si>
+    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
+For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.</t>
+  </si>
+  <si>
+    <t>Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2832,6 +3317,29 @@
 What treatments have you tried so far, if any? Has anything helped?.
 Do women in your family have a history of similar symptoms?.
 When you have cramps, try taking a warm bath or applying a heating pad, hot water bottle or heat patch to your abdomen. Over-the-counter pain relievers, such as ibuprofen, also might help.</t>
+  </si>
+  <si>
+    <t>Exercise regularly. Physical activity, including sex, helps ease menstrual cramps for some women.
+Use heat. Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
+Try dietary supplements. A number of studies have indicated that vitamin E, omega-3 fatty acids, vitamin B-1 (thiamin), vitamin B-6 and magnesium supplements might reduce menstrual cramps.
+Reduce stress. Psychological stress might increase your risk of menstrual cramps and their severity.</t>
+  </si>
+  <si>
+    <t>migraine</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/migraine-headache/symptoms-causes/syc-20360201</t>
+  </si>
+  <si>
+    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
+For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.</t>
+  </si>
+  <si>
+    <t>Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -2972,6 +3480,32 @@
 Does anyone else in your family have migraines?</t>
   </si>
   <si>
+    <t>Try relaxation techniques. Biofeedback and other forms of relaxation training teach you ways to deal with stressful situations, which might help reduce the number of migraines you have.
+Develop a sleeping and eating routine. Don't sleep too much or too little. Set and follow a consistent sleep and wake schedule daily. Try to eat meals at the same time every day.
+Drink plenty of fluids. Staying hydrated, particularly with water, might help.
+Keep a headache diary. Recording your symptoms in a headache diary will help you learn more about what triggers your migraines and what treatment is most effective. It will also help your doctor diagnose your condition and track your progress in between visits.
+Exercise regularly. Regular aerobic exercise reduces tension and can help prevent a migraine. If your doctor agrees, choose aerobic activity you enjoy, such as walking, swimming and cycling. Warm up slowly, however, because sudden, intense exercise can cause headaches.
+Regular exercise can also help you lose weight or maintain a healthy body weight, and obesity is thought to be a factor in migraines.</t>
+  </si>
+  <si>
+    <t>mosquito bites</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/mosquito-bites/symptoms-causes/syc-20375310</t>
+  </si>
+  <si>
+    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).</t>
+  </si>
+  <si>
+    <t>An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Doctors can usually identify mosquito bites by sight.
 The red, itchy, painful swelling referred to as skeeter syndrome is sometimes mistaken for a secondary bacterial infection brought on by scratching and broken skin. Skeeter syndrome is actually the result of an allergic reaction to proteins in mosquito saliva. There's no simple blood test to detect mosquito antibodies in blood, so mosquito allergy is diagnosed by determining whether the large, red areas of swelling and itching occurred after you were bitten by mosquitoes.
@@ -3003,6 +3537,30 @@
 Does the medication you're prescribing have any side effects?.
 How will I know if I need additional care?.
 If itching is a problem, an over-the-counter antihistamine (Benadryl, Chlor-Trimeton, others) may help.</t>
+  </si>
+  <si>
+    <t>Apply a lotion, cream or paste. Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch. 
+Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
+Apply a cool compress. Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.
+Take an oral antihistamine. For stronger reactions, try taking a nonprescription antihistamine (Benadryl, Chlor-Trimeton, others).</t>
+  </si>
+  <si>
+    <t>muscle cramp</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/muscle-cramp/symptoms-causes/syc-20350820</t>
+  </si>
+  <si>
+    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.</t>
+  </si>
+  <si>
+    <t>Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
   </si>
   <si>
     <t>Treatment.
@@ -3065,6 +3623,33 @@
 Does stretching relieve your cramps?.
 Do you have other symptoms, such as muscle weakness or numbness?.
 Have you noticed changes in your urine after exercise?</t>
+  </si>
+  <si>
+    <t>Ice-pack: You may also undo a muscle cramp with ice as it acts an effective pain reliever and an anti-inflammatory agent. All you need to do is massage the area with ice for no more than 10 minutes or until the area is bright red, which indicates that blood cells have returned to heat the cramped muscle.
+Turmeric and alum: Turmeric is one of the potentantiseptic compounds which is widely used as a pain reliever, while alum is well-known for its soothing and blood thinning property. When the two are combined, they provide effective result against muscle cramp. Apply a thick past of turmeric and alum over the affected area. Do not massage the area and leave it to dry. Doing this at least twice a day for two days aid in reducing pain and swelling due to muscle cramps. 
+Warm compress: Another age-old remedy to combat muscle pain caused due to crampsis to try warm compress. This is because, heat improves superficial blood circulation and makes muscles more flexible, so some people find that heat is more soothing for muscle cramps than ice. 
+Salt: Easily available in any household, common salt is an amazing home remedy to get rid of muscle cramps. As lack of sodium in the body triggers muscle cramping, intake of fluids containing salt might do the trick. All you need to do is add 2-3 teaspoon sugar and 1/2 teaspoon salt and lemon juice to a litre of water and drink this solution at intervals to get rid of cramps. You can also apply salt pack (heat a fistful of salt over a pan, put it in a cloth) over the affected for relief.
+Stretching: Stretching is one of the most effective home remedy to beat muscle cramps of various parts of the body namely legs, arms, thighs, calf and palm. Do some stretching exercises for at least 5 to 10 minutes (as warm-up and cool-down periods) to combat pain. Read in detail about how to get rid of those muscle cramps for good!</t>
+  </si>
+  <si>
+    <t>myopia</t>
+  </si>
+  <si>
+    <t>nearsightedness</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/nearsightedness/symptoms-causes/syc-20375556</t>
+  </si>
+  <si>
+    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
+Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.</t>
+  </si>
+  <si>
+    <t>Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3185,6 +3770,35 @@
 Have you started to take any new medications, supplements or herbal preparations?</t>
   </si>
   <si>
+    <t>Get regular eye exams.
+Protect your eyes from the sun.
+Wear protective eyewear during sports or work that can result in eye injuries.
+Use good lighting when reading and working.
+Wear prescription lenses as directed.
+Care for prescription glasses or contact lenses as directed.
+Rest your eyes from computer or other close-up work every 20 minutes by looking at something 20 feet away for 20 seconds.
+Eat healthy foods.
+Get regular exercise.
+Control health conditions, such as high blood pressure or diabetes, that can affect your vision.
+Don't smoke.</t>
+  </si>
+  <si>
+    <t>neck pain</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/neck-pain/symptoms-causes/syc-20375581</t>
+  </si>
+  <si>
+    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.</t>
+  </si>
+  <si>
+    <t>Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will take a medical history and do an exam. The exam will include checking for tenderness, numbness and muscle weakness. And it will test how far you can move your head forward, backward and side to side.
 Imaging tests might help find the cause of the neck pain. Examples include:
@@ -3261,6 +3875,25 @@
 Does the pain radiate into your arm?.
 Is the pain made worse by straining, coughing or sneezing?.
 Do you have other physical problems?</t>
+  </si>
+  <si>
+    <t>Alternate heat and cold massage. Reduce inflammation by applying cold, such as an ice pack or ice wrapped in a towel, for up to 15 minutes several times a day during the first 48 hours. After that, use heat. Try taking a warm shower or using a heating pad on the low setting.
+Home exercises. Keeping the neck moving is important. Begin daily gentle stretching, including neck rolls and shoulder rolls, once the worst of the pain lessens. 
+Gently tilt, bend and rotate the neck. Warm the neck and back with a heating pad or in the shower or bath before doing these exercises.</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/obesity/symptoms-causes/syc-20375742</t>
+  </si>
+  <si>
+    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
+There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.</t>
+  </si>
+  <si>
+    <t>Body mass index (BMI) of 23 or higher</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3417,6 +4050,42 @@
 Increasing your activity level. Try to get up and move around your home more frequently. Start gradually if you aren't in good shape or aren't used to exercising. Even a 10-minute daily walk can help. If you have any health conditions or are over a certain age — over 40 for men and over 50 for women — wait until you've talked to your doctor before you start a new exercise program.</t>
   </si>
   <si>
+    <t>Learning about your condition. Education about obesity can help you learn more about why you developed obesity and what you can do about it. You may feel more empowered to take control and stick to your treatment plan. Read reputable self-help books and consider talking about them with your doctor or therapist.
+Setting realistic goals. When you have to lose a lot of weight, you may set goals that are unrealistic, such as trying to lose too much too fast. Don't set yourself up for failure. Set daily or weekly goals for exercise and weight loss. Make small changes in your diet instead of attempting drastic changes that you're not likely to stick with for the long haul.
+Sticking to your treatment plan. Changing a lifestyle you may have lived with for many years can be difficult. Be honest with your doctor, therapist or other health care professionals if you find your activity or eating goals slipping. You can work together to come up with new ideas or new approaches.
+Enlisting support. Get your family and friends on board with your weight-loss goals. Surround yourself with people who will support you and help you, not sabotage your efforts. Make sure they understand how important weight loss is to your health. You might also want to join a weight-loss support group.
+Keeping a record. Keep a food and activity log. This record can help you remain accountable for your eating and exercise habits. You can discover behavior that may be holding you back and, conversely, what works well for you. You can also use your log to track other important health parameters such as blood pressure and cholesterol levels and overall fitness.</t>
+  </si>
+  <si>
+    <t>obsessive-compulsive disorder</t>
+  </si>
+  <si>
+    <t>ocd</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/obsessive-compulsive-disorder/symptoms-causes/syc-20354432</t>
+  </si>
+  <si>
+    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
+You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
+OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.</t>
+  </si>
+  <si>
+    <t>Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Steps to help diagnose obsessive-compulsive disorder may include:
 Psychological evaluation. This includes discussing your thoughts, feelings, symptoms and behavior patterns to determine if you have obsessions or compulsive behaviors that interfere with your quality of life. With your permission, this may include talking to your family or friends.
@@ -3548,6 +4217,40 @@
 Your doctor or mental health professional will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your appointment time.</t>
   </si>
   <si>
+    <t>Practice what you learn. Work with your mental health professional to identify techniques and skills that help manage symptoms, and practice these regularly.
+Take your medications as directed. Even if you're feeling well, resist any temptation to skip your medications. If you stop, OCD symptoms are likely to return.
+Pay attention to warning signs. You and your doctor may have identified issues that can trigger your OCD symptoms. Make a plan so that you know what to do if symptoms return. Contact your doctor or therapist if you notice any changes in symptoms or how you feel.
+Check first before taking other medications. Contact the doctor who's treating you for OCD before you take medications prescribed by another doctor or before taking any over-the-counter medications, vitamins, herbal remedies or other supplements to avoid possible interactions.</t>
+  </si>
+  <si>
+    <t>panic attacks and panic disorder</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/panic-attacks/symptoms-causes/syc-20376021</t>
+  </si>
+  <si>
+    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
+Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.</t>
+  </si>
+  <si>
+    <t>Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your primary care provider will determine if you have panic attacks, panic disorder or another condition, such as heart or thyroid problems, with symptoms that resemble panic attacks.
 To help pinpoint a diagnosis, you may have:
@@ -3676,6 +4379,35 @@
 Your primary care provider or mental health professional will ask additional questions based on your responses, symptoms and needs. Preparing and anticipating questions will help you make the most of your appointment time.</t>
   </si>
   <si>
+    <t>Stick to your treatment plan. Facing your fears can be difficult, but treatment can help you feel like you're not a hostage in your own home.
+Join a support group. Joining a group for people with panic attacks or anxiety disorders can connect you with others facing the same problems.
+Avoid caffeine, alcohol, smoking and recreational drugs. All of these can trigger or worsen panic attacks.
+Practice stress management and relaxation techniques. For example, yoga, deep breathing and progressive muscle relaxation, tensing one muscle at a time, and then completely releasing the tension until every muscle in the body is relaxed also may be helpful.
+Get physically active. Aerobic activity may have a calming effect on your mood.
+Get sufficient sleep. Get enough sleep so that you don't feel drowsy during the day.</t>
+  </si>
+  <si>
+    <t>pink eye</t>
+  </si>
+  <si>
+    <t>conjunctivitis</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/pink-eye/symptoms-causes/syc-20376355</t>
+  </si>
+  <si>
+    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
+Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.</t>
+  </si>
+  <si>
+    <t>Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In most cases, your doctor can diagnose pink eye by asking questions about your symptoms and recent health history. An office visit is usually not needed.
 Rarely, your doctor may take a sample of the liquid that drains from your eye for laboratory analysis (culture). A culture may be needed if your symptoms are severe or if your doctor suspects a high-risk cause, such as a foreign body in your eye, a serious bacterial infection or a sexually transmitted infection.
@@ -3748,6 +4480,32 @@
 How often do you replace your contact lens storage case?.
 Have you had close contact with anyone who has pink eye or cold or flu symptoms?.
 Stop using contact lenses until you can see your doctor. Wash your hands frequently to lessen the chance of infecting other people. Don't share towels with other people for the same reason.</t>
+  </si>
+  <si>
+    <t>Apply a compress to your eyes. To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
+If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
+Try eyedrops. Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
+Stop wearing contact lenses. If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis. 
+Ask your doctor whether you should throw away your disposable contacts, as well as your cleaning solution and lens case. If your lenses aren't disposable, clean them thoroughly before reusing them.</t>
+  </si>
+  <si>
+    <t>polycystic ovary syndrome</t>
+  </si>
+  <si>
+    <t>pcos</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/pcos/symptoms-causes/syc-20353439</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
+With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.</t>
+  </si>
+  <si>
+    <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -3854,6 +4612,47 @@
 Has any close blood relative, such as your mother or a sister, ever been diagnosed with PCOS?</t>
   </si>
   <si>
+    <t>Stay at a healthy weight. Weight loss can lower insulin and androgen levels. It also may restore ovulation. 
+Ask your health care provider about a weight-control program, if you need one. Meet with a registered dietitian for help in reaching weight-loss goals.
+Limit carbohydrates. High-carbohydrate diets might make insulin levels go higher. Ask your provider if a low-carbohydrate diet could help if you have PCOS. 
+Choose complex carbohydrates, which raise your blood sugar levels more slowly. Complex carbohydrates are found in fruits, vegetables, whole grains and cooked dry beans and peas.
+Be active. Exercise helps lower blood sugar levels. If you have PCOS, increasing your daily activity and getting regular exercise may treat or even prevent insulin resistance. Being active may also help you keep your weight under control and avoid developing diabetes.</t>
+  </si>
+  <si>
+    <t>premenstrual syndrome</t>
+  </si>
+  <si>
+    <t>pms</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/premenstrual-syndrome/symptoms-causes/syc-20376780</t>
+  </si>
+  <si>
+    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
+Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.</t>
+  </si>
+  <si>
+    <t>Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
     <t>Diagnosis.
 There are no unique physical findings or lab tests to positively diagnose premenstrual syndrome. Your doctor may attribute a particular symptom to PMS if it's part of your predictable premenstrual pattern.
 To help establish a premenstrual pattern, your doctor may have you record your signs and symptoms on a calendar or in a diary for at least two menstrual cycles. Note the day that you first notice PMS symptoms, as well as the day they disappear. Also be sure to mark the days your period starts and ends.
@@ -3947,6 +4746,27 @@
 What treatments have you tried so far? How have they worked?</t>
   </si>
   <si>
+    <t>Eat smaller, more-frequent meals to reduce bloating and the sensation of fullness.
+Limit salt and salty foods to reduce bloating and fluid retention.
+Choose foods high in complex carbohydrates, such as fruits, vegetables and whole grains.
+Choose foods rich in calcium. If you can't tolerate dairy products or aren't getting adequate calcium in your diet, a daily calcium supplement may help.
+Avoid caffeine and alcohol.</t>
+  </si>
+  <si>
+    <t>prickly heat</t>
+  </si>
+  <si>
+    <t>heat rash</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/heat-rash/symptoms-causes/syc-20373276</t>
+  </si>
+  <si>
+    <t>Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You don't need tests to diagnose heat rash. Your health care provider is usually able to diagnose it by examining the skin. A condition that looks like heat rash is transient neonatal pustular melanosis (TNPM). TNPM mainly affects newborns with brown or Black skin. It's harmless and clears up in a couple days without treatment.
 Treatment.
@@ -3968,6 +4788,35 @@
 How can I treat it?.
 Do I need to limit physical activity until the rash clears?.
 How can I prevent it in the future?</t>
+  </si>
+  <si>
+    <t>Press a cool cloth on your skin or take a cool shower or bath. It may help to let your skin air-dry.
+Avoid using oily or greasy moisturizers, cosmetics, sunscreens and other products that can block pores further. 
+Instead use a moisturizer with wool fat (anhydrous lanolin), which helps prevent sweat ducts from getting clogged.</t>
+  </si>
+  <si>
+    <t>snoring</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/snoring/symptoms-causes/syc-20377694</t>
+  </si>
+  <si>
+    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
+Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.</t>
+  </si>
+  <si>
+    <t>Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4128,6 +4977,43 @@
 Try over-the-counter nasal strips.
 Sleep on your side, instead of your back.
 If nasal congestion is an issue, try an over-the-counter decongestant for a day or two.</t>
+  </si>
+  <si>
+    <t>If you're overweight, lose weight. People who are overweight may have extra tissues in the throat that contribute to snoring. Losing weight can help reduce snoring.
+Sleep on your side. Lying on your back allows your tongue to fall backward into your throat, narrowing your airway and partially obstructing airflow. Try sleeping on your side. If you find that you always end up on your back in the middle of the night, try sewing a tennis ball in the back of your pajama top.
+Raise the head of your bed. Raising the head of your bed by about 4 inches may help.
+Nasal strips or an external nasal dilator. Adhesive strips applied to the bridge of the nose help many people increase the area of their nasal passage, enhancing their breathing. 
+Treat nasal congestion or obstruction. Having allergies or a deviated septum can limit airflow through your nose. This forces you to breathe through your mouth, increasing the likelihood of snoring.
+Limit or avoid alcohol and sedatives. Avoid drinking alcoholic beverages at least two hours before bedtime, and let your doctor know about your snoring before taking sedatives. Sedatives and alcohol depress your central nervous system, causing excessive relaxation of muscles, including the tissues in your throat.
+Quit smoking. Smoking cessation may reduce snoring, in addition to having numerous other health benefits.
+Get enough sleep. Adults should aim for at least seven hours of sleep per night. The recommended hours of sleep for children vary by age. Preschool-aged children should get 10 to 13 hours a day. School-age children need nine to 12 hours a day, and teens should have eight to 10 hours a day.</t>
+  </si>
+  <si>
+    <t>social anxiety disorder</t>
+  </si>
+  <si>
+    <t>social phobia</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/social-anxiety-disorder/symptoms-causes/syc-20353561</t>
+  </si>
+  <si>
+    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
+In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.</t>
+  </si>
+  <si>
+    <t>Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4302,6 +5188,35 @@
 Do you drink alcohol or use recreational drugs? If so, how often?</t>
   </si>
   <si>
+    <t>Learn stress-reduction skills.
+Get physical exercise or be physically active on a regular basis.
+Get enough sleep.
+Eat a healthy, well-balanced diet.
+Avoid alcohol.
+Limit or avoid caffeine.
+Participate in social situations by reaching out to people with whom you feel comfortable.</t>
+  </si>
+  <si>
+    <t>sunburn</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/sunburn/symptoms-causes/syc-20355922</t>
+  </si>
+  <si>
+    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
+You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.</t>
+  </si>
+  <si>
+    <t>Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Diagnosing sunburn generally includes a physical exam. Your health care provider might also ask about your symptoms, current medications, UV exposure and sunburn history.
 If you have sunburn or a skin reaction after only a short time in the sun, your health care provider might suggest phototesting. This is a test where small areas of skin are exposed to measured amounts of UVA and UVB light to mimic the problem. If your skin reacts to phototesting, you're considered sensitive to sunlight (photosensitive).
@@ -4347,6 +5262,34 @@
 What skin care routines do you suggest while the sunburn heals?.
 What suspicious changes in my skin might I watch for?.
 If your sunburn is severe or your health care provider notices unusual skin signs, you might be referred to a doctor who specializes in skin diseases (dermatologist).</t>
+  </si>
+  <si>
+    <t>Take a pain reliever. For pain relief, take a nonprescription pain reliever as soon as possible after getting too much sun. Examples include ibuprofen (Advil, Motrin IB, others) and acetaminophen (Tylenol, others). Or try a gel pain reliever that you rub on the skin.
+Cool the skin. Apply to the affected skin a clean towel dampened with cool tap water. Or take a cool bath with added baking soda â€” about 2 ounces (60 grams) a tub. Cool the skin for about 10 minutes several times a day.
+Apply a moisturizer, lotion or gel. An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
+Drink extra water for a day. This helps prevent dehydration.
+Leave blisters alone. An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
+Treat peeling skin gently. Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
+Take an anti-itch drug. An oral antihistamine such as diphenhydramine (Benadryl, Chlor-Trimeton, others) might help relieve itching as the skin begins to peel and heal underneath.
+Apply a soothing medicated cream. For mild to moderate sunburn, apply nonprescription 1% hydrocortisone cream to the affected area three times a day for three days. Try cooling the product in the refrigerator before applying.
+Treat sunburned eyes. Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
+Protect yourself from further sun exposure. While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.
+Avoid applying '-caine' products, such as benzocaine. Such creams can irritate the skin or cause an allergic reaction. Benzocaine has been linked to a rare but potentially deadly condition that decreases the amount of oxygen that the blood can carry (methemoglobinemia).</t>
+  </si>
+  <si>
+    <t>wrist pain</t>
+  </si>
+  <si>
+    <t>https://www.mayoclinic.org/diseases-conditions/wrist-pain/symptoms-causes/syc-20366213</t>
+  </si>
+  <si>
+    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.</t>
+  </si>
+  <si>
+    <t>pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4431,441 +5374,13 @@
 take over-the-counter (OTC) pain relievers, such as ibuprofen or naproxen</t>
   </si>
   <si>
-    <t>Take a pain reliever. For pain relief, take a nonprescription pain reliever as soon as possible after getting too much sun. Examples include ibuprofen (Advil, Motrin IB, others) and acetaminophen (Tylenol, others). Or try a gel pain reliever that you rub on the skin.
-Cool the skin. Apply to the affected skin a clean towel dampened with cool tap water. Or take a cool bath with added baking soda â€” about 2 ounces (60 grams) a tub. Cool the skin for about 10 minutes several times a day.
-Apply a moisturizer, lotion or gel. An aloe vera lotion or gel or calamine lotion can be soothing. Try cooling the product in the refrigerator before applying. Avoid products made with alcohol.
-Drink extra water for a day. This helps prevent dehydration.
-Leave blisters alone. An intact blister can help the skin heal. If a blister does break, trim off the dead skin with a clean, small scissors. Gently clean the area with mild soap and water. Then apply an antibiotic ointment to the wound and cover it with a nonstick bandage.
-Treat peeling skin gently. Within a few days, the affected area may begin to peel. This is your body's way of getting rid of the top layer of damaged skin. While your skin is peeling, keep using moisturizer.
-Take an anti-itch drug. An oral antihistamine such as diphenhydramine (Benadryl, Chlor-Trimeton, others) might help relieve itching as the skin begins to peel and heal underneath.
-Apply a soothing medicated cream. For mild to moderate sunburn, apply nonprescription 1% hydrocortisone cream to the affected area three times a day for three days. Try cooling the product in the refrigerator before applying.
-Treat sunburned eyes. Apply a clean towel dampened with cool tap water. Don't wear contacts until your eye symptoms have gone away. Don't rub your eyes.
-Protect yourself from further sun exposure. While your sunburn heals, stay out of the sun or use other sun-protection measures. You might try a product that has moisturizers and sunscreen.
-Avoid applying '-caine' products, such as benzocaine. Such creams can irritate the skin or cause an allergic reaction. Benzocaine has been linked to a rare but potentially deadly condition that decreases the amount of oxygen that the blood can carry (methemoglobinemia).</t>
-  </si>
-  <si>
-    <t>Immediately after a bee sting, wash the area thoroughly to remove any remaining bee venom. Then, apply ice to reduce pain and swelling. Always use a cloth to protect the skin from the ice. Ice can damage the skin if it touches it directly.
-A number of essential oils have antiseptic, antibacterial, or antifungal properties.Though essential oils have long been used in home remedies, there is little high-quality evidence to suggest that any can relieve the pain or swelling of a bee sting. 
-Aloe vera is a plant-based gel that naturally soothes and moisturizes the skin. According to a 2015 studyTrusted Source, aloe vera extract has anti-inflammatory and antibacterial properties. Spreading a little gel onto the bee sting can reduce swelling and help prevent the site from becoming infected.
-Honey has many medicinal propertiesTrusted Source. It contains compounds that combat inflammation, so it may help reduce swelling. The natural antibacterial agents in honey may also help prevent infection and speed healing. For these reasons, some medical professionals use honey extracts in wound dressings. Try spreading a small amount of honey onto the sting. Do this indoors, so the smell of the honey does not attract more bees.</t>
-  </si>
-  <si>
-    <t>Learn stress-reduction skills.
-Get physical exercise or be physically active on a regular basis.
-Get enough sleep.
-Eat a healthy, well-balanced diet.
-Avoid alcohol.
-Limit or avoid caffeine.
-Participate in social situations by reaching out to people with whom you feel comfortable.</t>
-  </si>
-  <si>
-    <t>If you're overweight, lose weight. People who are overweight may have extra tissues in the throat that contribute to snoring. Losing weight can help reduce snoring.
-Sleep on your side. Lying on your back allows your tongue to fall backward into your throat, narrowing your airway and partially obstructing airflow. Try sleeping on your side. If you find that you always end up on your back in the middle of the night, try sewing a tennis ball in the back of your pajama top.
-Raise the head of your bed. Raising the head of your bed by about 4 inches may help.
-Nasal strips or an external nasal dilator. Adhesive strips applied to the bridge of the nose help many people increase the area of their nasal passage, enhancing their breathing. 
-Treat nasal congestion or obstruction. Having allergies or a deviated septum can limit airflow through your nose. This forces you to breathe through your mouth, increasing the likelihood of snoring.
-Limit or avoid alcohol and sedatives. Avoid drinking alcoholic beverages at least two hours before bedtime, and let your doctor know about your snoring before taking sedatives. Sedatives and alcohol depress your central nervous system, causing excessive relaxation of muscles, including the tissues in your throat.
-Quit smoking. Smoking cessation may reduce snoring, in addition to having numerous other health benefits.
-Get enough sleep. Adults should aim for at least seven hours of sleep per night. The recommended hours of sleep for children vary by age. Preschool-aged children should get 10 to 13 hours a day. School-age children need nine to 12 hours a day, and teens should have eight to 10 hours a day.</t>
-  </si>
-  <si>
-    <t>Press a cool cloth on your skin or take a cool shower or bath. It may help to let your skin air-dry.
-Avoid using oily or greasy moisturizers, cosmetics, sunscreens and other products that can block pores further. 
-Instead use a moisturizer with wool fat (anhydrous lanolin), which helps prevent sweat ducts from getting clogged.</t>
-  </si>
-  <si>
-    <t>Eat smaller, more-frequent meals to reduce bloating and the sensation of fullness.
-Limit salt and salty foods to reduce bloating and fluid retention.
-Choose foods high in complex carbohydrates, such as fruits, vegetables and whole grains.
-Choose foods rich in calcium. If you can't tolerate dairy products or aren't getting adequate calcium in your diet, a daily calcium supplement may help.
-Avoid caffeine and alcohol.</t>
-  </si>
-  <si>
-    <t>Stay at a healthy weight. Weight loss can lower insulin and androgen levels. It also may restore ovulation. 
-Ask your health care provider about a weight-control program, if you need one. Meet with a registered dietitian for help in reaching weight-loss goals.
-Limit carbohydrates. High-carbohydrate diets might make insulin levels go higher. Ask your provider if a low-carbohydrate diet could help if you have PCOS. 
-Choose complex carbohydrates, which raise your blood sugar levels more slowly. Complex carbohydrates are found in fruits, vegetables, whole grains and cooked dry beans and peas.
-Be active. Exercise helps lower blood sugar levels. If you have PCOS, increasing your daily activity and getting regular exercise may treat or even prevent insulin resistance. Being active may also help you keep your weight under control and avoid developing diabetes.</t>
-  </si>
-  <si>
-    <t>Apply a compress to your eyes. To make a compress, soak a clean, lint-free cloth in water and wring it out before applying it gently to your closed eyelids. Generally, a cool water compress will feel the most soothing, but you can also use a warm compress if that feels better to you. 
-If pink eye affects only one eye, don't touch both eyes with the same cloth. This reduces the risk of spreading pink eye from one eye to the other.
-Try eyedrops. Over-the-counter eyedrops called artificial tears may relieve symptoms. Some eyedrops contain antihistamines or other medications that can be helpful for people with allergic conjunctivitis.
-Stop wearing contact lenses. If you wear contact lenses, you may need to stop wearing them until your eyes feel better. How long you'll need to go without contact lenses depends on what's causing your conjunctivitis. 
-Ask your doctor whether you should throw away your disposable contacts, as well as your cleaning solution and lens case. If your lenses aren't disposable, clean them thoroughly before reusing them.</t>
-  </si>
-  <si>
-    <t>Practice what you learn. Work with your mental health professional to identify techniques and skills that help manage symptoms, and practice these regularly.
-Take your medications as directed. Even if you're feeling well, resist any temptation to skip your medications. If you stop, OCD symptoms are likely to return.
-Pay attention to warning signs. You and your doctor may have identified issues that can trigger your OCD symptoms. Make a plan so that you know what to do if symptoms return. Contact your doctor or therapist if you notice any changes in symptoms or how you feel.
-Check first before taking other medications. Contact the doctor who's treating you for OCD before you take medications prescribed by another doctor or before taking any over-the-counter medications, vitamins, herbal remedies or other supplements to avoid possible interactions.</t>
-  </si>
-  <si>
-    <t>Learning about your condition. Education about obesity can help you learn more about why you developed obesity and what you can do about it. You may feel more empowered to take control and stick to your treatment plan. Read reputable self-help books and consider talking about them with your doctor or therapist.
-Setting realistic goals. When you have to lose a lot of weight, you may set goals that are unrealistic, such as trying to lose too much too fast. Don't set yourself up for failure. Set daily or weekly goals for exercise and weight loss. Make small changes in your diet instead of attempting drastic changes that you're not likely to stick with for the long haul.
-Sticking to your treatment plan. Changing a lifestyle you may have lived with for many years can be difficult. Be honest with your doctor, therapist or other health care professionals if you find your activity or eating goals slipping. You can work together to come up with new ideas or new approaches.
-Enlisting support. Get your family and friends on board with your weight-loss goals. Surround yourself with people who will support you and help you, not sabotage your efforts. Make sure they understand how important weight loss is to your health. You might also want to join a weight-loss support group.
-Keeping a record. Keep a food and activity log. This record can help you remain accountable for your eating and exercise habits. You can discover behavior that may be holding you back and, conversely, what works well for you. You can also use your log to track other important health parameters such as blood pressure and cholesterol levels and overall fitness.</t>
-  </si>
-  <si>
-    <t>Alternate heat and cold massage. Reduce inflammation by applying cold, such as an ice pack or ice wrapped in a towel, for up to 15 minutes several times a day during the first 48 hours. After that, use heat. Try taking a warm shower or using a heating pad on the low setting.
-Home exercises. Keeping the neck moving is important. Begin daily gentle stretching, including neck rolls and shoulder rolls, once the worst of the pain lessens. 
-Gently tilt, bend and rotate the neck. Warm the neck and back with a heating pad or in the shower or bath before doing these exercises.</t>
-  </si>
-  <si>
-    <t>Get regular eye exams.
-Protect your eyes from the sun.
-Wear protective eyewear during sports or work that can result in eye injuries.
-Use good lighting when reading and working.
-Wear prescription lenses as directed.
-Care for prescription glasses or contact lenses as directed.
-Rest your eyes from computer or other close-up work every 20 minutes by looking at something 20 feet away for 20 seconds.
-Eat healthy foods.
-Get regular exercise.
-Control health conditions, such as high blood pressure or diabetes, that can affect your vision.
-Don't smoke.</t>
-  </si>
-  <si>
-    <t>Ice-pack: You may also undo a muscle cramp with ice as it acts an effective pain reliever and an anti-inflammatory agent. All you need to do is massage the area with ice for no more than 10 minutes or until the area is bright red, which indicates that blood cells have returned to heat the cramped muscle.
-Turmeric and alum: Turmeric is one of the potentantiseptic compounds which is widely used as a pain reliever, while alum is well-known for its soothing and blood thinning property. When the two are combined, they provide effective result against muscle cramp. Apply a thick past of turmeric and alum over the affected area. Do not massage the area and leave it to dry. Doing this at least twice a day for two days aid in reducing pain and swelling due to muscle cramps. 
-Warm compress: Another age-old remedy to combat muscle pain caused due to crampsis to try warm compress. This is because, heat improves superficial blood circulation and makes muscles more flexible, so some people find that heat is more soothing for muscle cramps than ice. 
-Salt: Easily available in any household, common salt is an amazing home remedy to get rid of muscle cramps. As lack of sodium in the body triggers muscle cramping, intake of fluids containing salt might do the trick. All you need to do is add 2-3 teaspoon sugar and 1/2 teaspoon salt and lemon juice to a litre of water and drink this solution at intervals to get rid of cramps. You can also apply salt pack (heat a fistful of salt over a pan, put it in a cloth) over the affected for relief.
-Stretching: Stretching is one of the most effective home remedy to beat muscle cramps of various parts of the body namely legs, arms, thighs, calf and palm. Do some stretching exercises for at least 5 to 10 minutes (as warm-up and cool-down periods) to combat pain. Read in detail about how to get rid of those muscle cramps for good!</t>
-  </si>
-  <si>
-    <t>Apply a lotion, cream or paste. Putting calamine lotion or nonprescription hydrocortisone cream on the bite can help ease the itch. 
-Or try dabbing the bite with a paste made of baking soda and water. Reapply several times daily until your symptoms go away.
-Apply a cool compress. Try soothing the bite by applying a cold pack or a cool, moist cloth for a few minutes.
-Take an oral antihistamine. For stronger reactions, try taking a nonprescription antihistamine (Benadryl, Chlor-Trimeton, others).</t>
-  </si>
-  <si>
-    <t>Try relaxation techniques. Biofeedback and other forms of relaxation training teach you ways to deal with stressful situations, which might help reduce the number of migraines you have.
-Develop a sleeping and eating routine. Don't sleep too much or too little. Set and follow a consistent sleep and wake schedule daily. Try to eat meals at the same time every day.
-Drink plenty of fluids. Staying hydrated, particularly with water, might help.
-Keep a headache diary. Recording your symptoms in a headache diary will help you learn more about what triggers your migraines and what treatment is most effective. It will also help your doctor diagnose your condition and track your progress in between visits.
-Exercise regularly. Regular aerobic exercise reduces tension and can help prevent a migraine. If your doctor agrees, choose aerobic activity you enjoy, such as walking, swimming and cycling. Warm up slowly, however, because sudden, intense exercise can cause headaches.
-Regular exercise can also help you lose weight or maintain a healthy body weight, and obesity is thought to be a factor in migraines.</t>
-  </si>
-  <si>
-    <t>Exercise regularly. Physical activity, including sex, helps ease menstrual cramps for some women.
-Use heat. Soaking in a hot bath or using a heating pad, hot water bottle or heat patch on your lower abdomen might ease menstrual cramps.
-Try dietary supplements. A number of studies have indicated that vitamin E, omega-3 fatty acids, vitamin B-1 (thiamin), vitamin B-6 and magnesium supplements might reduce menstrual cramps.
-Reduce stress. Psychological stress might increase your risk of menstrual cramps and their severity.</t>
-  </si>
-  <si>
-    <t>Soak your feet in warm, soapy water. Do this for 10 to 20 minutes 3 to 4 times a day until the toe improves.
-Place cotton or dental floss under your toenail. After each soaking, put fresh bits of cotton or waxed dental floss under the ingrown edge. This will help the nail grow above the skin edge.
-Apply petroleum jelly. Put petroleum jelly (Vaseline) on the tender area and bandage the toe.
-Choose sensible footwear. Consider wearing open-toed shoes or sandals until your toe feels better.
-Take pain relievers. A nonprescription pain reliever such as acetaminophen (Tylenol, others) or ibuprofen (Advil, Motrin IB, others) may help ease the toe pain.</t>
-  </si>
-  <si>
-    <t>Shave at least twice a week.
-Don't tweeze ingrown hairs.
-Before shaving wash the affected area using a warm washcloth or soft-bristled toothbrush. Use a circular motion for a few minutes.
-Apply a warm, damp cloth for a few more minutes.
-Apply shaving cream, don't let it dry out and use a sharp, single-blade razor.
-Don't pull your skin while shaving.
-Shave in the direction of hair growth.
-Rinse the blade after each stroke.
-Release visible ingrown hairs by inserting a sterile needle under each hair loop and gently lifting the tip that has grown back into the skin.
-Rinse your skin and apply a cool, wet cloth for a few minutes. Then use a soothing after-shave product. If needed, try using a 1% hydrocortisone cream for no more than four weeks.</t>
-  </si>
-  <si>
-    <t>Eating smaller, more-frequent meals. Chew your food slowly and thoroughly.
-Avoiding triggers. Fatty and spicy foods, processed foods, carbonated beverages, caffeine, alcohol, and smoking can trigger indigestion.
-Maintaining a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to back up into your esophagus.
-Exercising regularly. Exercise helps you keep off extra weight and promotes better digestion.
-Managing stress. Create a calm environment at mealtime. Practice relaxation techniques, such as deep breathing, meditation or yoga. 
-Spend time doing things you enjoy. 
-Get plenty of sleep.
-Changing your medications. With your doctor's approval, stop or cut back on pain relievers or other medications that may irritate your stomach lining. If that's not an option, be sure to take these medications with food.</t>
-  </si>
-  <si>
-    <t>Be aware of the possibility of losing your balance, which can lead to falling and serious injury.
-Avoid moving suddenly and walk with a cane for stability, if needed.
-Fall-proof your home by removing tripping hazards such as area rugs and exposed electrical cords. Use nonslip mats on your bath and shower floors. Use good lighting.
-Sit or lie down immediately when you feel dizzy. Lie still with your eyes closed in a darkened room if you're experiencing a severe episode of vertigo.
-Avoid driving a car or operating heavy machinery if you experience frequent dizziness without warning.
-Avoid using caffeine, alcohol, salt and tobacco. Excessive use of these substances can worsen your signs and symptoms.
-Drink enough fluids, eat a healthy diet, get enough sleep and avoid stress.
-If your dizziness is caused by a medication, talk with your doctor about discontinuing it or lowering the dose.
-If your dizziness comes with nausea, try an over-the-counter (nonprescription) antihistamine, such as meclizine or dimenhydrinate (Dramamine). These may cause drowsiness. Nondrowsy antihistamines aren't as effective.
-If your dizziness is caused by overheating or dehydration, rest in a cool place and drink water or a sports drink (Gatorade, Powerade, others).</t>
-  </si>
-  <si>
-    <t>Bathe daily. Regular bathing, especially with an antibacterial soap, reduces the growth of bacteria on your skin.
-Choose clothing to suit your activity. For daily wear, choose natural fabrics, such as cotton, wool and silk. These allow your skin to breathe. For exercise wear, you might prefer synthetic fabrics developed to wick moisture away from your skin.
-Try relaxation techniques. Consider relaxation techniques, such as yoga, meditation or biofeedback. These practices can teach you to control the stress that triggers sweating.
-Change your diet. Caffeinated beverages and spicy or strong-smelling foods may make you sweat more or have body odor that's stronger than usual. Eliminating these foods may help.</t>
-  </si>
-  <si>
-    <t>Soak your hands or feet. Soaking corns and calluses in warm, soapy water softens them. This can make it easier to remove the thickened skin.
-Thin thickened skin. Once you've softened the affected skin, rub the corn or callus with a pumice stone, nail file, emery board or washcloth. This helps remove a layer of toughened skin. Don't use a sharp object to trim the skin. Don't use a pumice stone if you have diabetes.
-Use corn pads. 
-Moisturize your skin. Use moisturizer on your hands and feet regularly.
-Wear comfortable shoes and socks. Wear well-fitting, cushioned shoes and socks, at least until your corn or callus disappears.</t>
-  </si>
-  <si>
-    <t>Drink Sufficient Water. Excessive sweating, exertion during dengue fever can lead to extreme dehydration. As a result, ensure that you take a lot of fluids and stay well hydrated. Drink water at frequent intervals to keep your body well hydrated. Staying hydrated also reduces the symptoms of headaches, as well as muscle cramps. When you have dengue fever, the toxins in your body complicate the impact of the viral pathogens. Water also helps in flushing out these excess toxins from your body to help you recover. With the availability of a number of RO water purifier systems in India, you can easily install a purifier at home, ensuring that you avoid any other source of water. RO water is free of contaminants and reduces the chances of contacting any other diseases.
-Juice of Papaya Leaves. Another very effective remedy is drinking papaya leaf juice. Papaya leaves are known to be the natural cure for dengue fever. The leaves have a mix of nutrients and organic compounds which help in increasing your platelet count. Papaya leaf juice for dengue also have a high level of vitamin C which stimulate the immune system whereas the antioxidants help in reducing the stress and remove toxins from the body. All you need to do is crush the leaves and strain the juice from the crushed leaves.
-Chew Basil Leaves. Basil leaves are miraculous herbs that not only help during dengue fever, but also improve your overall immunity. Chewing 5-6 basil leaves boosts your immunity and has been recommended as an effective Ayurvedic treatment for dengue fever. Basil leaves have essential oils with natural insecticidal properties which keep mosquitoes at bay.
-Neem Leaves. Neem leaves have medicinal properties, which is the reason why they are recommended for a variety of ailments. Steep neem leaves and drink the brew to increase platelet and white blood cell count. Properly brewed neem leaves also improve the immune system if suffering from dengue.
-Orange Juice. Oranges are rich in antioxidants and vitamins which help in treating the secondary symptoms of dengue. Orange juice also helps in eliminating dengue virus. The miraculous drink promotes antibodies in the immune system, increases urination, thereby releasing toxins from the body. Orange juice also repairs your body cells as it has Vitamin C which is crucial in creating collagen.</t>
-  </si>
-  <si>
-    <t>Use a cool compress. Wet a clean washcloth with cool water. While sitting up, apply the damp washcloth to the skin under and around your eyes for a few minutes using light pressure.
-Cut down on fluids before bedtime and limit salt in your diet. This will reduce the fluid retention that can cause bags under eyes.
-Don't smoke. Smoking can aggravate the problem of bags under your eyes.
-Get enough sleep. For most adults, 7 to 9 hours is a good amount of sleep.
-Sleep with your head slightly raised. It may help to add an extra pillow or prop up the head of your mattress. Or elevate the entire head of the bed a few inches. This helps prevent fluid from accumulating around your eyes as you sleep.
-Reduce allergy symptoms. Avoid allergens when possible. Try nonprescription allergy medications. Talk to your health care provider about prevention strategies if you develop under-eye reactions due to hair dyes, soaps, cosmetics or other allergens.
-Use cosmetics. If you wish to mask your under-eye circles, try using makeup.</t>
-  </si>
-  <si>
-    <t>Stick to your treatment plan. Don't skip psychotherapy sessions or appointments. Even if you're feeling well, don't skip your medications. If you stop, depression symptoms may come back, and you could also experience withdrawal-like symptoms. Recognize that it will take time to feel better.
-Learn about depression. Education about your condition can empower you and motivate you to stick to your treatment plan. Encourage your family to learn about depression to help them understand and support you.
-Pay attention to warning signs. Work with your doctor or therapist to learn what might trigger your depression symptoms. Make a plan so that you know what to do if your symptoms get worse. Contact your doctor or therapist if you notice any changes in symptoms or how you feel. Ask relatives or friends to help watch for warning signs.
-Avoid alcohol and recreational drugs. It may seem like alcohol or drugs lessen depression symptoms, but in the long run they generally worsen symptoms and make depression harder to treat. Talk with your doctor or therapist if you need help with alcohol or substance use.
-Take care of yourself. Eat healthy, be physically active and get plenty of sleep. Consider walking, jogging, swimming, gardening or another activity that you enjoy. Sleeping well is important for both your physical and mental well-being. If you're having trouble sleeping, talk to your doctor about what you can do.</t>
-  </si>
-  <si>
-    <t>Drink plenty of fluids. Water, juice, clear broth or warm lemon water are good choices. Avoid caffeine and alcohol, which can dehydrate you.
-Sip warm liquids. Chicken soup and other warm fluids, such as tea or warm apple juice, can be soothing and can loosen congestion. Honey may help coughs in adults and children who are older than age 1. Try it in hot tea.
-Rest. If possible, stay home from work or school if you have a fever or a bad cough or are drowsy after taking medications. This will give you a chance to rest and heal, as well as reduce the chances that you'll spread your cold to others.
-Adjust your room's temperature and humidity. Keep your room warm, but not overheated. If the air is dry, a cool-mist humidifier or vaporizer can moisten the air and help ease congestion and coughing. Clean your humidifier according to the manufacturer's directions to prevent the growth of bacteria and molds.
-Soothe a sore throat. A saltwater gargle of 1/4 to 1/2 teaspoon (1250-2500 milligrams) of table salt in 4 to 8 ounces (120 to 240 milliliters) of warm water can help soothe a sore throat. Gargle the solution and then spit it out. Children younger than 6 years are unlikely to be able to gargle properly.
-Try saline nasal drops or sprays. Saline nasal drops or sprays can keep nasal passages moist and loosen mucus. You can buy these products over-the-counter, and they can help relieve symptoms, even in children.\nIn infants and younger children, apply saline nasal drops, wait for a short period and then use a suction bulb to draw mucus out of each nostril. Insert the bulb syringe about 1/4 to 1/2 inch (6 to 12 millimeters). For older children, use a saline nasal spray or saline nasal irrigation.</t>
-  </si>
-  <si>
-    <t>Take a fiber supplement. Fiber supplements are readily available and effectiveTrusted Source at inducing bowel movements if a low fiber diet is the cause of your constipation. They work by adding bulk, or volume, to your stool. This helps push stool through your intestines and out of your body.
-You can buy fiber supplements in stores or online. Here are a few common ones:
-calcium polycarbophil (FiberCon)
-psyllium (Metamucil, Konsyl)
-methylcellulose (Citrucel)
-Eat foods for constipation relief. Eating foods that are high in fiber can help you find relief from constipation, according to the National Institute of Diabetes and Digestive and Kidney Diseases (NIDDK)Trusted Source.
-Foods that are high in fiber can include:
-oats
-whole grain bread or cereal
-whole wheat pasta
-fibrous fruits, such as apples and bananas
-fibrous vegetables, such as broccoli, carrots, and leafy greens
-brown rice
-beans and lentils
-split peas
-nuts, such as walnuts, pecans, and almonds
-Drink a glass of water. Proper hydration is necessary for regular bowel movements. Researchers recommend about 1.8 litersTrusted Source — or about seven to eight 8-ounce glasses — of clear liquid per day. The exact amount your body needs can depend on your size, sex, and whether or not you’re pregnant or breastfeeding.
-Try an enema. There are several types of enemas that you can try. Enemas work by softening stool enough to produce a bowel movement. Enemas use liquid to push stools out of the rectum. Some common types of enemas include: sodium phosphate (Fleet), soapsuds, tap water enemas.
-Try a suppository. Some treatments for constipation are available as rectal suppositories. These suppositories are inserted into the rectum to help encourage bowel movements by softening stool.
-Get some exercise. Light exercise, such as walking, yoga, or jogging, can encourage bowel movements by increasing blood flow throughout your abdomen.
-Try colonic massage. Manually massaging the colon can help stimulate the bowels for people whose constipation is caused by the slow movement of stool through the colon. A 2021 study suggested that an automatic abdominal massage device helped reduce stool transit time in people with chronic constipation.
-Try natural remedies. Some natural remedies, such as consuming probiotics, may be helpful in treating and preventing constipation, with some studiesTrusted Source noting increased stool frequency after taking these supplements. While considered safe for most people, there are certain instances in which probiotics may beTrusted Source harmful. For instance, they typically shouldn’t be used in immunocompromised individuals.</t>
-  </si>
-  <si>
-    <t>Tea tree oil
-Anise oil
-Ylang-ylang oil</t>
-  </si>
-  <si>
-    <t>Breathe into a paper bag
-Gargle with ice water
-Hold your breath
-Sip cold water</t>
-  </si>
-  <si>
-    <t>Learn to manage stress. Stress affects your overall health, making you susceptible to a number of conditions and diseases. It can even help trigger dandruff or worsen existing symptoms.
-Eat a healthy diet. A diet that provides enough zinc, B vitamins and certain types of fats may help prevent dandruff.
-Develop a hair and scalp care routine that suits you. If you tend to have an oily scalp, daily shampooing may help prevent dandruff. Gently massage your scalp to loosen flakes. Rinse thoroughly. If your hair tends to be dry and your scalp is sensitive, shampoo less frequently and condition your scalp between washings (Design Essentials, Melanin Haircare, ScalpBliss).
-Get a little sun. Sunlight may be good for controlling dandruff. But because exposure to ultraviolet light damages your skin and increases your risk of skin cancer, don't sunbathe. Instead, just spend a little time outdoors. And be sure to wear sunscreen on your face and body.
-Limit hair-styling products. Hair-styling products can build up on your hair and scalp, making them oilier.</t>
-  </si>
-  <si>
-    <t>Stick to your treatment plan. Facing your fears can be difficult, but treatment can help you feel like you're not a hostage in your own home.
-Join a support group. Joining a group for people with panic attacks or anxiety disorders can connect you with others facing the same problems.
-Avoid caffeine, alcohol, smoking and recreational drugs. All of these can trigger or worsen panic attacks.
-Practice stress management and relaxation techniques. For example, yoga, deep breathing and progressive muscle relaxation, tensing one muscle at a time, and then completely releasing the tension until every muscle in the body is relaxed also may be helpful.
-Get physically active. Aerobic activity may have a calming effect on your mood.
-Get sufficient sleep. Get enough sleep so that you don't feel drowsy during the day.</t>
-  </si>
-  <si>
-    <t>gerd</t>
-  </si>
-  <si>
-    <t>ocd</t>
-  </si>
-  <si>
-    <t>pcos</t>
-  </si>
-  <si>
-    <t>pms</t>
-  </si>
-  <si>
-    <t>Early fullness during a meal. 
-Uncomfortable fullness after a meal
-Discomfort in the upper abdomen
-Burning in the upper abdomen 
-Bloating in the upper abdomen
-Nausea</t>
-  </si>
-  <si>
-    <t>hiccup
-slight tightening sensation in your chest, abdomen or throat</t>
-  </si>
-  <si>
-    <t>Itching
-Lice on scalp
-Lice eggs (nits) on hair shafts.
-Sores on the scalp, neck and shoulders</t>
-  </si>
-  <si>
-    <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
-Overthinking plans and solutions to all possible worst-case outcomes
-Perceiving situations and events as threatening, even when they aren't
-Difficulty handling uncertainty
-Indecisiveness and fear of making the wrong decision
-Inability to set aside or let go of a worry
-Inability to relax, feeling restless, and feeling keyed up or on edge
-Difficulty concentrating, or the feeling that your mind "goes blank"</t>
-  </si>
-  <si>
-    <t>Nearby objects may appear blurry
-You need to squint to see clearly
-eyestrain, 
-burning eyes
-aching in or around the eyes
-general eye discomfort 
-headache after doing close tasks</t>
-  </si>
-  <si>
-    <t>A false sense of motion or spinning (vertigo)
-Lightheadedness or feeling faint
-Unsteadiness or a loss of balance
-A feeling of floating, wooziness or heavy-headedness</t>
-  </si>
-  <si>
-    <t>Abdominal cramps or pain
-Bloating
-Nausea
-Vomiting
-Fever
-Blood in the stool
-Mucus in the stool
-Urgent need to have a bowel movement</t>
-  </si>
-  <si>
-    <t>high fever
-Headache
-Muscle, bone or joint pain
-Nausea
-Vomiting
-Pain behind the eyes
-Swollen glands
-Rash</t>
-  </si>
-  <si>
-    <t>Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
-Itchy scalp
-Scaly, crusty scalp in infants with cradle cap</t>
-  </si>
-  <si>
-    <t>Passing fewer than three stools a week
-Having lumpy or hard stools
-Straining to have bowel movements
-Feeling as though there's a blockage in your rectum that prevents bowel movements
-Feeling as though you can't completely empty the stool from your rectum
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
-  </si>
-  <si>
-    <t>Runny or stuffy nose
-Sore throat
-Cough
-Congestion
-Slight body aches or a mild headache
-Sneezing
-Low-grade fever
-Generally feeling unwell</t>
-  </si>
-  <si>
-    <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
-Tooth sensitivity
-Mild to sharp pain when eating or drinking something sweet, hot or cold
-Visible holes or pits in your teeth
-Brown, black or white staining on any surface of a tooth
-Pain when you bite down</t>
-  </si>
-  <si>
-    <t>Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
-Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
-Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
-Less sensitivity to touch than the surrounding skin (more likely to be callus).
-Raised area of bump may be painful or cause discomfort (more likely to be corn).
-Pain, redness, blisters</t>
-  </si>
-  <si>
-    <t>sweat much more or less than usual
-sweating disrupts your daily routine
-experience night sweats for no apparent reason
-change in your body odor</t>
-  </si>
-  <si>
-    <t>intense itching
-small areas of blood and crust on your skin
-bite marks</t>
-  </si>
-  <si>
-    <t>Instant, sharp burning pain at the sting site
-A red welt at the sting area
-Slight swelling around the sting area
-Difficulty breathing
-Swelling of the throat and tongue
-A weak, rapid pulse
-Nausea, vomiting or diarrhea
-Dizziness or fainting
-Loss of consciousness</t>
-  </si>
-  <si>
-    <t>mild swelling
-puffiness under the eyes
-Loose or sagging skin
-Dark circles</t>
-  </si>
-  <si>
-    <t>foul-smelling
-Bad breath odors</t>
-  </si>
-  <si>
-    <t>a runny nose or sneezing
-pain or tenderness around your cheeks, eyes or forehead
-coughing
-wheezing or breathlessness
-itchy skin or a raised rash 
-diarrhoea
-feeling or being sick
-swollen eyes, lips, mouth or throat</t>
-  </si>
-  <si>
-    <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
-Ear pressure
-Headache
-Aching in your teeth
-Altered sense of smell
-Cough
-Bad breath
-Fatigue
-Fever</t>
-  </si>
-  <si>
-    <t>Whiteheads (closed plugged pores)
-Blackheads (open plugged pores)
-Small red, tender bumps (papules)
-Pimples (pustules), which are papules with pus at their tips
-Large, solid, painful lumps under the skin (nodules)
-Painful, pus-filled lumps under the skin (cystic lesions)</t>
-  </si>
-  <si>
-    <t>Heartburn
+    <t>overview_symptoms</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
+Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
+Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.
+Heartburn
 Burning sensation
 Bloody or black stools or bloody vomiting
 Burping
@@ -4879,10 +5394,50 @@
 dry cough</t>
   </si>
   <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>hair loss
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
+Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
+Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
+a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
+hair loss
 Circular or patchy bald spots
 Sudden loosening of hair
 Full-body hair loss
@@ -4894,263 +5449,74 @@
 Thinner ponytail</t>
   </si>
   <si>
-    <t>Tiny, swollen bumps where you shave, tweeze or wax
-Small bumps that look like blisters or are filled with pus
-Small bumps that are darker than surrounding skin (hyperpigmentation)
-Burning or stinging
-Itching
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
-  </si>
-  <si>
-    <t>Pain and tenderness in nails
-Inflamed skin in nails
-Swelling of nails
-Infection in nails</t>
-  </si>
-  <si>
-    <t>Throbbing or cramping pain in your lower abdomen that can be intense
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
-Dull, continuous ache
-Pain that radiates to your lower back and thighs
-Nausea
-Loose stools
-Headache
-Dizziness</t>
-  </si>
-  <si>
-    <t>Pain usually on one side of your head, but often on both sides
-Pain that throbs or pulses
-Sensitivity to light, sound, and sometimes smell and touch
-Nausea and vomiting</t>
-  </si>
-  <si>
-    <t>An itchy, inflamed bump that forms a few minutes after a bite
-A painful spot that looks like a hive and forms within 24 hours after a bite
-Small blisters
-A large, swollen, inflamed area
-A hive-like rash
-Swelling around the eyes</t>
-  </si>
-  <si>
-    <t>Cause severe discomfort
-Are associated with leg swelling, redness or skin changes
-Are associated with muscle weakness
-Happen frequently
-Don't improve with self-care
-Aren't associated with an obvious cause, such as strenuous exercise</t>
-  </si>
-  <si>
-    <t>Blurry vision when looking at distant objects
-The need to squint or partially close the eyelids to see clearly
-Headaches
-Eyestrain</t>
-  </si>
-  <si>
-    <t>Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
-Muscle tightness and spasms
-Decreased ability to move the head
-Headache</t>
-  </si>
-  <si>
-    <t>Body mass index (BMI) of 23 or higher</t>
-  </si>
-  <si>
-    <t>Fear of contamination or dirt
-Doubting and having difficulty tolerating uncertainty
-Needing things orderly and symmetrical
-Aggressive or horrific thoughts about losing control and harming yourself or others
-Unwanted thoughts, including aggression, or sexual or religious subjects
-Fear of being contaminated by touching objects others have touched
-Doubts that you've locked the door or turned off the stove
-Intense stress when objects aren't orderly or facing a certain way
-Images of driving your car into a crowd of people
-Thoughts about shouting obscenities or acting inappropriately in public
-Unpleasant sexual images
-Avoidance of situations that can trigger obsessions, such as shaking hands</t>
-  </si>
-  <si>
-    <t>Sense of impending doom or danger
-Fear of loss of control or death
-Rapid, pounding heart rate
-Sweating
-Trembling or shaking
-Shortness of breath or tightness in your throat
-Chills
-Hot flashes
-Nausea
-Abdominal cramping
-Chest pain
-Headache
-Dizziness, lightheadedness or faintness
-Numbness or tingling sensation
-Feeling of unreality or detachment</t>
-  </si>
-  <si>
-    <t>Redness in one or both eyes
-Itchiness in one or both eyes
-A gritty feeling in one or both eyes
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
-Tearing</t>
-  </si>
-  <si>
-    <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
-  </si>
-  <si>
-    <t>Joint or muscle pain
-Headache
-Fatigue
-Weight gain related to fluid retention
-Abdominal bloating
-Breast tenderness
-Acne flare-ups
-Constipation or diarrhea
-Alcohol intolerance
-Tension or anxiety
-Depressed mood
-Crying spells
-Mood swings and irritability or anger
-Appetite changes and food cravings
-Trouble falling asleep (insomnia)
-Social withdrawal
-Poor concentration
-Change in libido</t>
-  </si>
-  <si>
-    <t>Witnessed breathing pauses during sleep
-Excessive daytime sleepiness
-Difficulty concentrating
-Morning headaches
-Sore throat upon awakening
-Restless sleep
-Gasping or choking at night
-High blood pressure
-Chest pain at night
-Your snoring is so loud it's disrupting your partner's sleep
-In children, poor attention span, behavioral issues or poor performance in school</t>
-  </si>
-  <si>
-    <t>Fear of situations in which you may be judged negatively
-Worry about embarrassing or humiliating yourself
-Intense fear of interacting or talking with strangers
-Fear that others will notice that you look anxious
-Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
-Avoidance of doing things or speaking to people out of fear of embarrassment
-Avoidance of situations where you might be the center of attention
-Anxiety in anticipation of a feared activity or event
-Intense fear or anxiety during social situations
-Analysis of your performance and identification of flaws in your interactions after a social situation
-Expectation of the worst possible consequences from a negative experience during a social situation</t>
-  </si>
-  <si>
-    <t>Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
-Skin that feels warm or hot to the touch
-Pain, tenderness and itching
-Swelling
-Small, fluid-filled blisters, which may break
-Headache, fever, nausea and fatigue, if the sunburn is severe
-Eyes that feel painful or gritty</t>
-  </si>
-  <si>
-    <t>pins-and-needles feeling in wrist
-tinglinging sensation in wrist
-pain in wrist</t>
-  </si>
-  <si>
-    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
-It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
-Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.</t>
-  </si>
-  <si>
-    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
-Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
-Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.</t>
-  </si>
-  <si>
-    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
-Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
-Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.</t>
-  </si>
-  <si>
-    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
-With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
-Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.</t>
-  </si>
-  <si>
-    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
-Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
-The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.</t>
-  </si>
-  <si>
-    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
-Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
-Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.</t>
-  </si>
-  <si>
     <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
-Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.</t>
-  </si>
-  <si>
-    <t>Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
-Fenugreek. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
-Onions. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
-Garlic. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
-Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
-Oatmeal. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
-Aloe Vera Extract. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
-Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots.</t>
-  </si>
-  <si>
-    <t>Brush your teeth after you eat. Keep a toothbrush at work to use after eating. Brush using a fluoride-containing toothpaste at least twice a day, especially after meals. Toothpaste with antibacterial properties has been shown to reduce bad breath odors.
-Floss at least once a day. Proper flossing removes food particles and plaque from between your teeth, helping to control bad breath.
-Brush your tongue. Your tongue harbors bacteria, so carefully brushing it may reduce odors. People who have a coated tongue from a significant overgrowth of bacteria (from smoking or dry mouth, for example) may benefit from using a tongue scraper. Or use a toothbrush that has a built-in tongue cleaner.
-Clean dentures or dental appliances. If you wear a bridge or a denture, clean it thoroughly at least once a day or as directed by your dentist. If you have a dental retainer or mouth guard, clean it each time before you put it in your mouth. Your dentist can recommend the best cleaning product.
-Avoid dry mouth. To keep your mouth moist, avoid tobacco and drink plenty of water not coffee, soft drinks or alcohol, which can lead to a drier mouth. Chew gum or suck on candy (preferably sugarless) to stimulate saliva. For chronic dry mouth, your dentist or physician may prescribe an artificial saliva preparation or an oral medication that stimulates the flow of saliva.
-Adjust your diet. Avoid foods such as onions and garlic that can cause bad breath. Eating a lot of sugary foods is also linked with bad breath.
-Regularly get a new toothbrush. Change your toothbrush when it becomes frayed, about every three to four months, and choose a soft-bristled toothbrush.
-Schedule regular dental checkups. See your dentist on a regular basis generally twice a year to have your teeth or dentures examined and cleaned.</t>
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
+foul-smelling
+Bad breath odors</t>
   </si>
   <si>
     <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
-Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.</t>
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
+mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
   </si>
   <si>
     <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
-You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.</t>
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
+Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
   </si>
   <si>
     <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
 Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
-Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.</t>
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
+intense itching
+small areas of blood and crust on your skin
+bite marks</t>
   </si>
   <si>
     <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
 Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
-Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.</t>
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
+sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
   </si>
   <si>
     <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
-If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.</t>
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
+Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
   </si>
   <si>
     <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
 Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
-If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.</t>
-  </si>
-  <si>
-    <t>Sugar-free gum. Chewing sugar-free gum after meals has been shown in clinical trials to help remineralize enamel. 
-Vitamin D. Vitamin D is important to help absorb calcium and phosphate from the food you eat. You can get vitamin D from dairy products, like milk and yogurt. You can also get vitamin D from the sun.
-Brush with fluoride toothpaste. Fluoride plays an important role in preventing cavities and remineralizing enamel. Extensive researchTrusted Source has been done to show that regularly brushing your teeth with a fluoride toothpaste prevents cavities.
-Cut out sugary foods. This is the cavity remedy that no one likes to hear — stop eating so much sugar. 
-Oil pulling. Oil pulling is an ancient practice that involves swishing around an oil, like sesame or coconut, in your mouth for about 20 minutes, then spitting it out.</t>
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
+Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
   </si>
   <si>
     <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
-More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.</t>
-  </si>
-  <si>
-    <t>continuous low mood or sadness
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.
+continuous low mood or sadness
 feeling hopeless and helpless
 having low self-esteem
 feeling tearful
@@ -5173,202 +5539,341 @@
   <si>
     <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
 Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
-Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.</t>
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
+Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
   </si>
   <si>
     <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
 Constipation is generally described as having fewer than three bowel movements a week.
 Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
-Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.</t>
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
+Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
   </si>
   <si>
     <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
 Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
-Dandruff is a mild form of seborrheic dermatitis.</t>
+Dandruff is a mild form of seborrheic dermatitis.
+Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
   </si>
   <si>
     <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
 Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
-Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.</t>
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
+high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
   </si>
   <si>
     <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
-Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).</t>
-  </si>
-  <si>
-    <t>Drink plenty of liquids, including water, broths and juices. Avoid caffeine and alcohol.
-Add semisolid and low-fiber foods gradually as your bowel movements return to normal. Try soda crackers, toast, eggs, rice or chicken.
-Avoid certain foods such as dairy products, fatty foods, high-fiber foods or highly seasoned foods for a few days.
-Ask about anti-diarrheal medications. Over-the-counter anti-diarrheal medications, such as loperamide and bismuth subsalicylate, might help reduce the number of watery bowel movements and control severe symptoms.Check with your doctor before taking these medications or giving them to a child.
-Consider taking probiotics. These microorganisms may help restore a healthy balance to the intestinal tract by boosting the level of good bacteria, though it's not clear if they can help shorten a bout of diarrhea. Probiotics are available in capsule or liquid form and are also added to some foods, such as certain brands of yogurt.</t>
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
+Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
   </si>
   <si>
     <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
 Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
-Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.</t>
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
+A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
   </si>
   <si>
     <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
 The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
-Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.</t>
-  </si>
-  <si>
-    <t>Have your eyes checked. Do this regularly even if you see well.
-Control chronic health conditions. Certain conditions, such as diabetes and high blood pressure, can affect your vision if not treated.
-Protect your eyes from the sun. Wear sunglasses that block ultraviolet (UV) radiation.
-Prevent eye injuries. Wear protective eyewear when doing certain things, such as playing sports, mowing the lawn, painting or using other products with toxic fumes.
-Eat healthy foods. Try to eat plenty of leafy greens, other vegetables and fruits. And studies show that your eyes benefit if you also include in your diet fish high in omega-3 fatty acids, such as tuna and salmon.
-Don't smoke. Just as smoking isn't good for the rest of your body, smoking can adversely affect your eye health as well.
-Use the right corrective lenses. The right lenses optimize your vision. Having regular exams will ensure that your prescription is correct.
-Use good lighting. Turn up or add light to see better.
-Reduce eyestrain. Look away from your computer or near-task work, including reading, every 20 minutes for 20 seconds at something 20 feet away.</t>
-  </si>
-  <si>
-    <t>Keep physically active. Develop a routine so that you're physically active most days of the week. Exercise is a powerful stress reducer. It may improve your mood and help you stay healthy. Start out slowly and gradually increase the amount and intensity of your activities.
-Make sleep a priority. Do what you can to make sure you're getting enough sleep to feel rested. If you aren't sleeping well, see your doctor.
-Use relaxation techniques. Visualization techniques, meditation and yoga are examples of relaxation techniques that can ease anxiety.
-Eat healthy. Healthy eating such as focusing on vegetables, fruits, whole grains and fish may be linked to reduced anxiety, but more research is needed.
-Avoid alcohol and recreational drugs. These substances can worsen anxiety.
-Quit smoking and cut back or quit drinking coffee. Both nicotine and caffeine can worsen anxiety.</t>
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
+Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.
+Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
   </si>
   <si>
     <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
 Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
 Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
-People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.</t>
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
+Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
   </si>
   <si>
     <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
-Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.</t>
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
+hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
   </si>
   <si>
     <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
 Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
-Indigestion may often be relieved with lifestyle changes and medications.</t>
+Indigestion may often be relieved with lifestyle changes and medications.
+Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
   </si>
   <si>
     <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
-Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.</t>
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
+Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
   </si>
   <si>
     <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
 Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.</t>
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
+Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
   </si>
   <si>
     <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
 For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
-Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.</t>
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
+Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
   </si>
   <si>
     <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
 For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
-Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.</t>
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.
+Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
   </si>
   <si>
     <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
-Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).</t>
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
+An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
   </si>
   <si>
     <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
-Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.</t>
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
+Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
   </si>
   <si>
     <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
 Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
-A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.</t>
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
+Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
   </si>
   <si>
     <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
-Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.</t>
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
+Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
   </si>
   <si>
     <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
 There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
-The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.</t>
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
+Body mass index (BMI) of 23 or higher</t>
   </si>
   <si>
     <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
 You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
 OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
-If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.</t>
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.
+Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
   </si>
   <si>
     <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
 Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
-Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.</t>
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
+Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
   </si>
   <si>
     <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
 Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
-Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.</t>
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
+Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
   </si>
   <si>
     <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
 With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
-The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.</t>
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
+Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
   </si>
   <si>
     <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
 Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
-Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.</t>
-  </si>
-  <si>
-    <t>Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
+Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
 Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
-Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
+</t>
   </si>
   <si>
     <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
 Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
-In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.</t>
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
+Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
   </si>
   <si>
     <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
 In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
-Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.</t>
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.
+Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
   </si>
   <si>
     <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
 You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
-Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.</t>
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
+Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
   </si>
   <si>
     <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
-Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.</t>
-  </si>
-  <si>
-    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
-Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
-Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective.
-Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
-Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
-Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
-Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
-Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
-  </si>
-  <si>
-    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin.
-Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
-Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments.
-Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
-For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
-Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
-Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
-Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
-  </si>
-  <si>
-    <t>Sinus congestion symptoms often improve with saline nasal irrigation rinsing out the sinuses with a salt and water solution.
-Reduce your exposure to dust mites or pet dander by frequently washing bedding and stuffed toys in hot water, maintaining low humidity, regularly using a vacuum with a fine filter such as a high-efficiency particulate air (HEPA) filter and replacing carpeting with hard flooring.
-Reduce moisture in damp areas, such as your bath and kitchen, by using ventilation fans and dehumidifiers. Fix leaks inside and outside your home.</t>
-  </si>
-  <si>
-    <t>You can usually get rid of body lice by cleaning yourself and any personal belongings that may be contaminated.
-Wash infested bedding, clothing and towels with hot, soapy water — at least 130 F (54 C) — and machine dry them on high heat for at least 20 minutes.
-Clothing that can't be washed may be dry cleaned and ironed.
-Items that can't be washed or dried should be sealed in a plastic bag and stored in a warm area for two weeks.
-Mattresses, couches and other upholstered furniture items should be hot ironed or sprayed with lice-killing products to eliminate eggs from seams.
-Exposure to infested items should be avoided for two weeks.</t>
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.
+pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
   </si>
 </sst>
 </file>
@@ -5384,28 +5889,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -5428,54 +5933,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5538,7 +6035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5571,26 +6068,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5623,23 +6103,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5663,7 +6126,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -5674,31 +6136,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -5720,7 +6182,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5778,7 +6240,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -5791,13 +6253,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -5816,1075 +6277,1165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
+      <c r="G33" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G44" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I44" s="4" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{607EC1DF-3CE4-4C59-BCDA-10EB5E325155}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{CA71DBF7-5ADA-4AC5-BD5D-EBBE3BAA4C57}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E760EC4C-C56E-476C-A462-5F25B5974EB7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{D9BE93D5-8217-4400-991F-0027DF07AC5B}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E88CD9CB-B6C0-4347-B013-BE4CC74ECE97}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{AEC81649-B63B-4A2F-89E7-58DEAA55E993}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{4C86A817-F963-4954-B01E-84AE64DF35BE}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{4C3CAB2A-B1B5-4883-A880-B2A499744063}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{A5CA2E11-99D2-4E1B-BFF9-A73BEDA1C990}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{69F4340B-F4C1-440C-B207-DF6767FC9E2F}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{1CA04C9E-2886-4CD6-8B7B-F3B6D8144A51}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{7AA1874C-97BF-4721-A409-0A8D2C540055}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{9C3537CE-9290-42C8-A078-ABD155B50A14}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{4F043416-AECF-4A92-A194-8CD3EECCF880}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{6674A874-5CDD-4EE1-B614-732D2C1421AD}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{5B20B882-6939-4196-8901-993D5CAE836E}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{EC7B016B-3A1C-420B-ACBA-585B695ECB18}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{265F33CA-AE52-4124-91CD-37554B92406D}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{C495D820-C493-490D-9033-4DA4EF3D3B91}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{9C36667C-F443-4B4C-88A2-E09BCAE4CD37}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{DD571D32-461E-4996-A41C-0099639089B7}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{18DD024C-9370-452E-9C0D-D66F6C14D808}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{DF59A9F0-892F-4CF6-9563-6147BC462A54}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{321AC48E-269C-4FFE-87EB-AB05483F5846}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{5ECAB37E-D5A9-4E5D-9822-5DF0D771C690}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{AE013A0E-7375-4AB2-A9FF-3DDBAA6D2D8E}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{BFB98AC8-99DA-42E2-8EC7-0669E878519B}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{C6911D0C-71A9-43CE-96CC-0F977D3F6BF5}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{67B2D438-F75C-46B5-B5E5-5282E75ABED3}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{6E6C270C-9C49-4E53-BC98-D8E8DA44468F}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{1E830C97-2412-4D2F-A208-CE7F18205E0E}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{D0DCA2E4-FFE8-4E03-9D8A-FBFADE819DE1}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{58D50908-1989-484E-95C2-42EF9C638DDA}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{CC5AF427-BEE0-40A9-9E24-A9D3F5547D0F}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{5D095880-22DB-4841-ACCF-82A204136D19}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{D1CECACC-C851-4733-9D32-8CC07BA360AF}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{46D0EE8F-B632-4325-AA91-DF4237D15C07}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{036CCE88-5B48-4EB1-8272-ECBB623AC2A4}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{F0EE6AD6-81D0-40CF-91EF-3CFCB62EC119}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{5D5412F3-1BA5-4A92-946A-04616C376B9F}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{080072E6-42E2-497D-9AB5-363B0732851C}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{3BB01B6C-D980-442C-8657-23252F0AFEF1}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{7E890824-6413-4643-92C1-2716B98C7F9E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/static/datasets/final data.xlsx
+++ b/static/datasets/final data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/static/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_32D41CD7D78D7C22D747086AEACDD70CAB4196BE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0A2B39-82B0-41AE-9242-99B9A45C9BB2}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_A638BADA96053D946C973C18CBCDC468AA4277BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496B8898-D730-46D7-8624-DAEED3263660}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,6 +43,9 @@
     <t>symptoms</t>
   </si>
   <si>
+    <t>overview_symptoms</t>
+  </si>
+  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -80,6 +70,23 @@
   </si>
   <si>
     <t>Heartburn
+Burning sensation
+Bloody or black stools or bloody vomiting
+Burping
+Dysphagia(the sensation of food being stuck in your throat)
+Hiccups
+Nausea
+Regurgitation
+Bloating
+bitter taste
+discomfort in upper abdomen 
+dry cough</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
+Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
+Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.
+Heartburn
 Burning sensation
 Bloody or black stools or bloody vomiting
 Burping
@@ -224,16 +231,6 @@
 Have you gained or lost weight?</t>
   </si>
   <si>
-    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
-Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
-Elevate the head of your bed. If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. If you can't elevate your bed, you can insert a wedge between your mattress and box spring to elevate your body from the waist up. Raising your head with additional pillows isn't effective.
-Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
-Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
-Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
-Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
-Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
-  </si>
-  <si>
     <t>acne</t>
   </si>
   <si>
@@ -249,6 +246,17 @@
   </si>
   <si>
     <t>Whiteheads (closed plugged pores)
+Blackheads (open plugged pores)
+Small red, tender bumps (papules)
+Pimples (pustules), which are papules with pus at their tips
+Large, solid, painful lumps under the skin (nodules)
+Painful, pus-filled lumps under the skin (cystic lesions)</t>
+  </si>
+  <si>
+    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
+Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
+Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
+Whiteheads (closed plugged pores)
 Blackheads (open plugged pores)
 Small red, tender bumps (papules)
 Pimples (pustules), which are papules with pus at their tips
@@ -410,16 +418,6 @@
 Have other family members had isotretinoin treatment or hormone therapy to treat their acne? Has it been effective?</t>
   </si>
   <si>
-    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. And be gentle if you're shaving affected skin.
-Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
-Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. You might also try products containing salicylic acid, glycolic acid or alpha hydroxy acids. It may take a few weeks of using a product before you see any improvement. Creams are less irritating than gels or ointments.
-Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
-For some people, the sun worsens the discoloration that sometimes lingers after the acne has cleared. And some acne medications make you more susceptible to sunburn. Regularly use a nonoily (noncomedogenic) moisturizer that includes a sunscreen.
-Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
-Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
-Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
-  </si>
-  <si>
     <t>acute sinusitis</t>
   </si>
   <si>
@@ -432,6 +430,22 @@
   </si>
   <si>
     <t>Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
+Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
+Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
+Ear pressure
+Headache
+Aching in your teeth
+Altered sense of smell
+Cough
+Bad breath
+Fatigue
+Fever</t>
+  </si>
+  <si>
+    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
+With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
+Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
+Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
 Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
 Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
 Ear pressure
@@ -542,13 +556,6 @@
 Do you smoke or are you around smoke or other pollutants?</t>
   </si>
   <si>
-    <t>Rest. This will help your body fight infection and speed recovery.
-Drink fluids. Continue to drink plenty of fluids.
-Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
-Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
-Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.</t>
-  </si>
-  <si>
     <t>allergies</t>
   </si>
   <si>
@@ -561,6 +568,19 @@
   </si>
   <si>
     <t>a runny nose or sneezing
+pain or tenderness around your cheeks, eyes or forehead
+coughing
+wheezing or breathlessness
+itchy skin or a raised rash 
+diarrhoea
+feeling or being sick
+swollen eyes, lips, mouth or throat</t>
+  </si>
+  <si>
+    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
+Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
+The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
+a runny nose or sneezing
 pain or tenderness around your cheeks, eyes or forehead
 coughing
 wheezing or breathlessness
@@ -685,6 +705,21 @@
   </si>
   <si>
     <t>hair loss
+Circular or patchy bald spots
+Sudden loosening of hair
+Full-body hair loss
+Patches of scaling that spread over the scalp
+Gradual thinning of the hair on your head
+Bald spot that grows slowly
+Receding hairline
+Widening part
+Thinner ponytail</t>
+  </si>
+  <si>
+    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
+Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
+Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
+hair loss
 Circular or patchy bald spots
 Sudden loosening of hair
 Full-body hair loss
@@ -790,16 +825,6 @@
 What, if anything, appears to worsen your hair loss?</t>
   </si>
   <si>
-    <t>Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
-Fenugreek. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
-Onions. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
-Garlic. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
-Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
-Oatmeal. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
-Aloe Vera Extract. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
-Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots.</t>
-  </si>
-  <si>
     <t>bad breath</t>
   </si>
   <si>
@@ -811,6 +836,12 @@
   </si>
   <si>
     <t>foul-smelling
+Bad breath odors</t>
+  </si>
+  <si>
+    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
+Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
+foul-smelling
 Bad breath odors</t>
   </si>
   <si>
@@ -901,6 +932,14 @@
   </si>
   <si>
     <t>mild swelling
+puffiness under the eyes
+Loose or sagging skin
+Dark circles</t>
+  </si>
+  <si>
+    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
+Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
+mild swelling
 puffiness under the eyes
 Loose or sagging skin
 Dark circles</t>
@@ -1011,6 +1050,19 @@
 Loss of consciousness</t>
   </si>
   <si>
+    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
+You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
+Instant, sharp burning pain at the sting site
+A red welt at the sting area
+Slight swelling around the sting area
+Difficulty breathing
+Swelling of the throat and tongue
+A weak, rapid pulse
+Nausea, vomiting or diarrhea
+Dizziness or fainting
+Loss of consciousness</t>
+  </si>
+  <si>
     <t>Diagnosis.
 If you've had a reaction to bee stings that suggests you might be allergic to bee venom, your doctor may suggest one or both of the following tests:
 Skin test. During skin testing, a small amount of allergen extract (in this case, bee venom) is injected into the skin of your arm or upper back. This test is safe and won't cause any serious reactions. If you're allergic to bee stings, you'll develop a raised bump on your skin at the test site.
@@ -1107,6 +1159,14 @@
 bite marks</t>
   </si>
   <si>
+    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
+Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
+Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
+intense itching
+small areas of blood and crust on your skin
+bite marks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You or your doctor can usually confirm a body lice infestation through a visual examination of your body and clothing items. The presence of eggs and moving lice confirms infestation.
 Treatment.
@@ -1157,6 +1217,15 @@
   </si>
   <si>
     <t>sweat much more or less than usual
+sweating disrupts your daily routine
+experience night sweats for no apparent reason
+change in your body odor</t>
+  </si>
+  <si>
+    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
+Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
+Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
+sweat much more or less than usual
 sweating disrupts your daily routine
 experience night sweats for no apparent reason
 change in your body odor</t>
@@ -1233,6 +1302,16 @@
 Pain, redness, blisters</t>
   </si>
   <si>
+    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
+If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
+Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
+Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
+Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
+Less sensitivity to touch than the surrounding skin (more likely to be callus).
+Raised area of bump may be painful or cause discomfort (more likely to be corn).
+Pain, redness, blisters</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will likely diagnose corns and calluses by examining your feet. This exam helps rule out other causes of thickened skin, such as warts and cysts. Your health care provider might confirm the diagnosis by paring away a bit of hardened skin if it bleeds or reveals black points (dried blood), it's a wart, not a corn.
 Treatment.
@@ -1289,6 +1368,17 @@
   </si>
   <si>
     <t>Toothache, spontaneous pain or pain that occurs without any apparent cause
+Tooth sensitivity
+Mild to sharp pain when eating or drinking something sweet, hot or cold
+Visible holes or pits in your teeth
+Brown, black or white staining on any surface of a tooth
+Pain when you bite down</t>
+  </si>
+  <si>
+    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
+Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
+If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
+Toothache, spontaneous pain or pain that occurs without any apparent cause
 Tooth sensitivity
 Mild to sharp pain when eating or drinking something sweet, hot or cold
 Visible holes or pits in your teeth
@@ -1403,6 +1493,29 @@
   </si>
   <si>
     <t>continuous low mood or sadness
+feeling hopeless and helpless
+having low self-esteem
+feeling tearful
+feeling guilt-ridden
+feeling irritable and intolerant of others
+having no motivation or interest in things
+finding it difficult to make decisions
+not getting any enjoyment out of life
+feeling anxious or worried
+having suicidal thoughts or thoughts of harming yourself
+moving or speaking more slowly than usual
+changes in appetite or weight (usually decreased, but sometimes increased)
+constipation
+unexplained aches and pains
+lack of energy
+low sex drive (loss of libido)
+changes to your menstrual cycle
+disturbed sleep</t>
+  </si>
+  <si>
+    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
+More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.
+continuous low mood or sadness
 feeling hopeless and helpless
 having low self-esteem
 feeling tearful
@@ -1662,6 +1775,19 @@
 Generally feeling unwell</t>
   </si>
   <si>
+    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
+Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
+Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
+Runny or stuffy nose
+Sore throat
+Cough
+Congestion
+Slight body aches or a mild headache
+Sneezing
+Low-grade fever
+Generally feeling unwell</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In general, you don't need to see the doctor for a common cold. But if symptoms worsen or don't go away, it might be time to see your doctor.
 Most people with a common cold can be diagnosed by their signs and symptoms. If your doctor suspects that you have a bacterial infection or other condition, he or she may order a chest X-ray or other tests to rule out other causes of your symptoms.
@@ -1777,6 +1903,18 @@
   </si>
   <si>
     <t>Passing fewer than three stools a week
+Having lumpy or hard stools
+Straining to have bowel movements
+Feeling as though there's a blockage in your rectum that prevents bowel movements
+Feeling as though you can't completely empty the stool from your rectum
+Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
+  </si>
+  <si>
+    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
+Constipation is generally described as having fewer than three bowel movements a week.
+Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
+Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
+Passing fewer than three stools a week
 Having lumpy or hard stools
 Straining to have bowel movements
 Feeling as though there's a blockage in your rectum that prevents bowel movements
@@ -1959,6 +2097,14 @@
 Scaly, crusty scalp in infants with cradle cap</t>
   </si>
   <si>
+    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
+Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
+Dandruff is a mild form of seborrheic dermatitis.
+Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
+Itchy scalp
+Scaly, crusty scalp in infants with cradle cap</t>
+  </si>
+  <si>
     <t>Diagnosis.
 A doctor can often diagnose dandruff simply by looking at your hair and scalp.
 Treatment.
@@ -2020,6 +2166,19 @@
   </si>
   <si>
     <t>high fever
+Headache
+Muscle, bone or joint pain
+Nausea
+Vomiting
+Pain behind the eyes
+Swollen glands
+Rash</t>
+  </si>
+  <si>
+    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
+Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
+Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
+high fever
 Headache
 Muscle, bone or joint pain
 Nausea
@@ -2117,6 +2276,18 @@
   </si>
   <si>
     <t>Abdominal cramps or pain
+Bloating
+Nausea
+Vomiting
+Fever
+Blood in the stool
+Mucus in the stool
+Urgent need to have a bowel movement</t>
+  </si>
+  <si>
+    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
+Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
+Abdominal cramps or pain
 Bloating
 Nausea
 Vomiting
@@ -2247,6 +2418,15 @@
   </si>
   <si>
     <t>A false sense of motion or spinning (vertigo)
+Lightheadedness or feeling faint
+Unsteadiness or a loss of balance
+A feeling of floating, wooziness or heavy-headedness</t>
+  </si>
+  <si>
+    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
+Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
+Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
+A false sense of motion or spinning (vertigo)
 Lightheadedness or feeling faint
 Unsteadiness or a loss of balance
 A feeling of floating, wooziness or heavy-headedness</t>
@@ -2409,6 +2589,18 @@
 headache after doing close tasks</t>
   </si>
   <si>
+    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
+The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
+Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
+Nearby objects may appear blurry
+You need to squint to see clearly
+eyestrain, 
+burning eyes
+aching in or around the eyes
+general eye discomfort 
+headache after doing close tasks</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Farsightedness is diagnosed by a basic eye exam, which includes a refraction assessment and an eye health exam.
 A refraction assessment determines if you have vision problems such as nearsightedness or farsightedness, astigmatism, or presbyopia. Your doctor may use various instruments and ask you to look through several lenses to test your distance and close-up vision.
@@ -2522,6 +2714,19 @@
   </si>
   <si>
     <t>Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
+Overthinking plans and solutions to all possible worst-case outcomes
+Perceiving situations and events as threatening, even when they aren't
+Difficulty handling uncertainty
+Indecisiveness and fear of making the wrong decision
+Inability to set aside or let go of a worry
+Inability to relax, feeling restless, and feeling keyed up or on edge
+Difficulty concentrating, or the feeling that your mind "goes blank"</t>
+  </si>
+  <si>
+    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
+It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
+Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.
+Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
 Overthinking plans and solutions to all possible worst-case outcomes
 Perceiving situations and events as threatening, even when they aren't
 Difficulty handling uncertainty
@@ -2672,6 +2877,16 @@
 Sores on the scalp, neck and shoulders</t>
   </si>
   <si>
+    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
+Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
+Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
+People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
+Itching
+Lice on scalp
+Lice eggs (nits) on hair shafts.
+Sores on the scalp, neck and shoulders</t>
+  </si>
+  <si>
     <t>Diagnosis.
 According to the American Academy of Pediatrics guidelines, the gold standard for diagnosing head lice is to identify a live nymph or adult louse.
 The guidelines recommend examining wet hair lubricated with hair conditioner or another product. Your child's health care provider will carefully comb your child's hair with a fine-toothed comb (nit comb) from the scalp to the end of the hair. If no live louse is found, the provider will likely repeat the entire exam at a second appointment.
@@ -2756,6 +2971,12 @@
   </si>
   <si>
     <t>hiccup
+slight tightening sensation in your chest, abdomen or throat</t>
+  </si>
+  <si>
+    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
+Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
+hiccup
 slight tightening sensation in your chest, abdomen or throat</t>
   </si>
   <si>
@@ -2867,6 +3088,17 @@
   </si>
   <si>
     <t>Early fullness during a meal. 
+Uncomfortable fullness after a meal
+Discomfort in the upper abdomen
+Burning in the upper abdomen 
+Bloating in the upper abdomen
+Nausea</t>
+  </si>
+  <si>
+    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
+Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
+Indigestion may often be relieved with lifestyle changes and medications.
+Early fullness during a meal. 
 Uncomfortable fullness after a meal
 Discomfort in the upper abdomen
 Burning in the upper abdomen 
@@ -3022,6 +3254,16 @@
 Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
   </si>
   <si>
+    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
+Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
+Tiny, swollen bumps where you shave, tweeze or wax
+Small bumps that look like blisters or are filled with pus
+Small bumps that are darker than surrounding skin (hyperpigmentation)
+Burning or stinging
+Itching
+Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider is likely to diagnose ingrown hair by looking at your skin and asking about your hair removal habits.
 Treatment.
@@ -3140,6 +3382,15 @@
 Infection in nails</t>
   </si>
   <si>
+    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
+Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
+If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
+Pain and tenderness in nails
+Inflamed skin in nails
+Swelling of nails
+Infection in nails</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider can diagnose an ingrown toenail based on your symptoms and a physical examination of the nail and the surrounding skin.
 Treatment.
@@ -3216,6 +3467,19 @@
   </si>
   <si>
     <t>Throbbing or cramping pain in your lower abdomen that can be intense
+Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
+Dull, continuous ache
+Pain that radiates to your lower back and thighs
+Nausea
+Loose stools
+Headache
+Dizziness</t>
+  </si>
+  <si>
+    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
+For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
+Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
+Throbbing or cramping pain in your lower abdomen that can be intense
 Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
 Dull, continuous ache
 Pain that radiates to your lower back and thighs
@@ -3337,6 +3601,15 @@
   </si>
   <si>
     <t>Pain usually on one side of your head, but often on both sides
+Pain that throbs or pulses
+Sensitivity to light, sound, and sometimes smell and touch
+Nausea and vomiting</t>
+  </si>
+  <si>
+    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
+For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
+Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.
+Pain usually on one side of your head, but often on both sides
 Pain that throbs or pulses
 Sensitivity to light, sound, and sometimes smell and touch
 Nausea and vomiting</t>
@@ -3506,6 +3779,16 @@
 Swelling around the eyes</t>
   </si>
   <si>
+    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
+Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
+An itchy, inflamed bump that forms a few minutes after a bite
+A painful spot that looks like a hive and forms within 24 hours after a bite
+Small blisters
+A large, swollen, inflamed area
+A hive-like rash
+Swelling around the eyes</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Doctors can usually identify mosquito bites by sight.
 The red, itchy, painful swelling referred to as skeeter syndrome is sometimes mistaken for a secondary bacterial infection brought on by scratching and broken skin. Skeeter syndrome is actually the result of an allergic reaction to proteins in mosquito saliva. There's no simple blood test to detect mosquito antibodies in blood, so mosquito allergy is diagnosed by determining whether the large, red areas of swelling and itching occurred after you were bitten by mosquitoes.
@@ -3556,6 +3839,16 @@
   </si>
   <si>
     <t>Cause severe discomfort
+Are associated with leg swelling, redness or skin changes
+Are associated with muscle weakness
+Happen frequently
+Don't improve with self-care
+Aren't associated with an obvious cause, such as strenuous exercise</t>
+  </si>
+  <si>
+    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
+Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
+Cause severe discomfort
 Are associated with leg swelling, redness or skin changes
 Are associated with muscle weakness
 Happen frequently
@@ -3647,6 +3940,15 @@
   </si>
   <si>
     <t>Blurry vision when looking at distant objects
+The need to squint or partially close the eyelids to see clearly
+Headaches
+Eyestrain</t>
+  </si>
+  <si>
+    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
+Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
+A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
+Blurry vision when looking at distant objects
 The need to squint or partially close the eyelids to see clearly
 Headaches
 Eyestrain</t>
@@ -3799,6 +4101,14 @@
 Headache</t>
   </si>
   <si>
+    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
+Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
+Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
+Muscle tightness and spasms
+Decreased ability to move the head
+Headache</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your health care provider will take a medical history and do an exam. The exam will include checking for tenderness, numbness and muscle weakness. And it will test how far you can move your head forward, backward and side to side.
 Imaging tests might help find the cause of the neck pain. Examples include:
@@ -3894,6 +4204,12 @@
   </si>
   <si>
     <t>Body mass index (BMI) of 23 or higher</t>
+  </si>
+  <si>
+    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
+There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
+The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
+Body mass index (BMI) of 23 or higher</t>
   </si>
   <si>
     <t>Diagnosis.
@@ -4086,6 +4402,24 @@
 Avoidance of situations that can trigger obsessions, such as shaking hands</t>
   </si>
   <si>
+    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
+You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
+OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
+If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.
+Fear of contamination or dirt
+Doubting and having difficulty tolerating uncertainty
+Needing things orderly and symmetrical
+Aggressive or horrific thoughts about losing control and harming yourself or others
+Unwanted thoughts, including aggression, or sexual or religious subjects
+Fear of being contaminated by touching objects others have touched
+Doubts that you've locked the door or turned off the stove
+Intense stress when objects aren't orderly or facing a certain way
+Images of driving your car into a crowd of people
+Thoughts about shouting obscenities or acting inappropriately in public
+Unpleasant sexual images
+Avoidance of situations that can trigger obsessions, such as shaking hands</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Steps to help diagnose obsessive-compulsive disorder may include:
 Psychological evaluation. This includes discussing your thoughts, feelings, symptoms and behavior patterns to determine if you have obsessions or compulsive behaviors that interfere with your quality of life. With your permission, this may include talking to your family or friends.
@@ -4251,6 +4585,26 @@
 Feeling of unreality or detachment</t>
   </si>
   <si>
+    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
+Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
+Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
+Sense of impending doom or danger
+Fear of loss of control or death
+Rapid, pounding heart rate
+Sweating
+Trembling or shaking
+Shortness of breath or tightness in your throat
+Chills
+Hot flashes
+Nausea
+Abdominal cramping
+Chest pain
+Headache
+Dizziness, lightheadedness or faintness
+Numbness or tingling sensation
+Feeling of unreality or detachment</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Your primary care provider will determine if you have panic attacks, panic disorder or another condition, such as heart or thyroid problems, with symptoms that resemble panic attacks.
 To help pinpoint a diagnosis, you may have:
@@ -4408,6 +4762,16 @@
 Tearing</t>
   </si>
   <si>
+    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
+Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
+Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
+Redness in one or both eyes
+Itchiness in one or both eyes
+A gritty feeling in one or both eyes
+A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
+Tearing</t>
+  </si>
+  <si>
     <t>Diagnosis.
 In most cases, your doctor can diagnose pink eye by asking questions about your symptoms and recent health history. An office visit is usually not needed.
 Rarely, your doctor may take a sample of the liquid that drains from your eye for laboratory analysis (culture). A culture may be needed if your symptoms are severe or if your doctor suspects a high-risk cause, such as a foreign body in your eye, a serious bacterial infection or a sexually transmitted infection.
@@ -4504,6 +4868,14 @@
   </si>
   <si>
     <t>Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
+Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
+Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
+With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
+The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
+Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
 Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
 Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
   </si>
@@ -4653,6 +5025,29 @@
 Change in libido</t>
   </si>
   <si>
+    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
+Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
+Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
+Joint or muscle pain
+Headache
+Fatigue
+Weight gain related to fluid retention
+Abdominal bloating
+Breast tenderness
+Acne flare-ups
+Constipation or diarrhea
+Alcohol intolerance
+Tension or anxiety
+Depressed mood
+Crying spells
+Mood swings and irritability or anger
+Appetite changes and food cravings
+Trouble falling asleep (insomnia)
+Social withdrawal
+Poor concentration
+Change in libido</t>
+  </si>
+  <si>
     <t>Diagnosis.
 There are no unique physical findings or lab tests to positively diagnose premenstrual syndrome. Your doctor may attribute a particular symptom to PMS if it's part of your predictable premenstrual pattern.
 To help establish a premenstrual pattern, your doctor may have you record your signs and symptoms on a calendar or in a diary for at least two menstrual cycles. Note the day that you first notice PMS symptoms, as well as the day they disappear. Also be sure to mark the days your period starts and ends.
@@ -4767,6 +5162,12 @@
 Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.</t>
   </si>
   <si>
+    <t xml:space="preserve">Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
+Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
+Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
+</t>
+  </si>
+  <si>
     <t>Diagnosis.
 You don't need tests to diagnose heat rash. Your health care provider is usually able to diagnose it by examining the skin. A condition that looks like heat rash is transient neonatal pustular melanosis (TNPM). TNPM mainly affects newborns with brown or Black skin. It's harmless and clears up in a couple days without treatment.
 Treatment.
@@ -4807,6 +5208,22 @@
   </si>
   <si>
     <t>Witnessed breathing pauses during sleep
+Excessive daytime sleepiness
+Difficulty concentrating
+Morning headaches
+Sore throat upon awakening
+Restless sleep
+Gasping or choking at night
+High blood pressure
+Chest pain at night
+Your snoring is so loud it's disrupting your partner's sleep
+In children, poor attention span, behavioral issues or poor performance in school</t>
+  </si>
+  <si>
+    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
+Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
+In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
+Witnessed breathing pauses during sleep
 Excessive daytime sleepiness
 Difficulty concentrating
 Morning headaches
@@ -5004,6 +5421,22 @@
   </si>
   <si>
     <t>Fear of situations in which you may be judged negatively
+Worry about embarrassing or humiliating yourself
+Intense fear of interacting or talking with strangers
+Fear that others will notice that you look anxious
+Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
+Avoidance of doing things or speaking to people out of fear of embarrassment
+Avoidance of situations where you might be the center of attention
+Anxiety in anticipation of a feared activity or event
+Intense fear or anxiety during social situations
+Analysis of your performance and identification of flaws in your interactions after a social situation
+Expectation of the worst possible consequences from a negative experience during a social situation</t>
+  </si>
+  <si>
+    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
+In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
+Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.
+Fear of situations in which you may be judged negatively
 Worry about embarrassing or humiliating yourself
 Intense fear of interacting or talking with strangers
 Fear that others will notice that you look anxious
@@ -5217,6 +5650,18 @@
 Eyes that feel painful or gritty</t>
   </si>
   <si>
+    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
+You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
+Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
+Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
+Skin that feels warm or hot to the touch
+Pain, tenderness and itching
+Swelling
+Small, fluid-filled blisters, which may break
+Headache, fever, nausea and fatigue, if the sunburn is severe
+Eyes that feel painful or gritty</t>
+  </si>
+  <si>
     <t>Diagnosis.
 Diagnosing sunburn generally includes a physical exam. Your health care provider might also ask about your symptoms, current medications, UV exposure and sunburn history.
 If you have sunburn or a skin reaction after only a short time in the sun, your health care provider might suggest phototesting. This is a test where small areas of skin are exposed to measured amounts of UVA and UVB light to mimic the problem. If your skin reacts to phototesting, you're considered sensitive to sunlight (photosensitive).
@@ -5288,6 +5733,13 @@
   </si>
   <si>
     <t>pins-and-needles feeling in wrist
+tinglinging sensation in wrist
+pain in wrist</t>
+  </si>
+  <si>
+    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
+Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.
+pins-and-needles feeling in wrist
 tinglinging sensation in wrist
 pain in wrist</t>
   </si>
@@ -5374,513 +5826,54 @@
 take over-the-counter (OTC) pain relievers, such as ibuprofen or naproxen</t>
   </si>
   <si>
-    <t>overview_symptoms</t>
-  </si>
-  <si>
-    <t>Gastroesophageal reflux disease (GERD) occurs when stomach acid repeatedly flows back into the tube connecting your mouth and stomach (esophagus). This backwash (acid reflux) can irritate the lining of your esophagus.
-Many people experience acid reflux from time to time. However, when acid reflux happens repeatedly over time, it can cause GERD.
-Most people are able to manage the discomfort of GERD with lifestyle changes and medications. And though it's uncommon, some may need surgery to ease symptoms.
-Heartburn
-Burning sensation
-Bloody or black stools or bloody vomiting
-Burping
-Dysphagia(the sensation of food being stuck in your throat)
-Hiccups
-Nausea
-Regurgitation
-Bloating
-bitter taste
-discomfort in upper abdomen 
-dry cough</t>
-  </si>
-  <si>
-    <t>Acne is a skin condition that occurs when your hair follicles become plugged with oil and dead skin cells. It causes whiteheads, blackheads or pimples. Acne is most common among teenagers, though it affects people of all ages.
-Effective acne treatments are available, but acne can be persistent. The pimples and bumps heal slowly, and when one begins to go away, others seem to crop up.
-Depending on its severity, acne can cause emotional distress and scar the skin. The earlier you start treatment, the lower your risk of such problems.
-Whiteheads (closed plugged pores)
-Blackheads (open plugged pores)
-Small red, tender bumps (papules)
-Pimples (pustules), which are papules with pus at their tips
-Large, solid, painful lumps under the skin (nodules)
-Painful, pus-filled lumps under the skin (cystic lesions)</t>
-  </si>
-  <si>
-    <t>Acute sinusitis causes the spaces inside your nose (sinuses) to become inflamed and swollen. This interferes with drainage and causes mucus to build up.
-With acute sinusitis, it might be difficult to breathe through your nose. The area around your eyes and face might feel swollen, and you might have throbbing facial pain or a headache.
-Acute sinusitis is mostly caused by the common cold. Unless a bacterial infection develops, most cases resolve within a week to 10 days. Home remedies may be all you need to treat acute sinusitis. Sinusitis that lasts more than 12 weeks despite medical treatment is called chronic sinusitis.
-Thick, yellow or greenish mucus from the nose (runny nose) or down the back of the throat (postnasal drainage)
-Blocked or stuffy nose (congestion) causing difficulty breathing through your nose
-Pain, tenderness, swelling and pressure around your eyes, cheeks, nose or forehead that worsens when bending over
-Ear pressure
-Headache
-Aching in your teeth
-Altered sense of smell
-Cough
-Bad breath
-Fatigue
-Fever</t>
-  </si>
-  <si>
-    <t>Allergies occur when your immune system reacts to a foreign substance — such as pollen, bee venom or pet dander — or a food that doesn't cause a reaction in most people.
-Your immune system produces substances known as antibodies. When you have allergies, your immune system makes antibodies that identify a particular allergen as harmful, even though it isn't. When you come into contact with the allergen, your immune system's reaction can inflame your skin, sinuses, airways or digestive system.
-The severity of allergies varies from person to person and can range from minor irritation to anaphylaxis — a potentially life-threatening emergency. While most allergies can't be cured, treatments can help relieve your allergy symptoms.
-a runny nose or sneezing
-pain or tenderness around your cheeks, eyes or forehead
-coughing
-wheezing or breathlessness
-itchy skin or a raised rash 
-diarrhoea
-feeling or being sick
-swollen eyes, lips, mouth or throat</t>
-  </si>
-  <si>
-    <t>Hair loss or alopecia or baldness can affect just your scalp or your entire body, and it can be temporary or permanent. It can be the result of heredity, hormonal changes, medical conditions or a normal part of aging. Anyone can lose hair on their head, but it's more common in men.
-Baldness typically refers to excessive hair loss from your scalp. Hereditary hair loss with age is the most common cause of baldness. Some people prefer to let their hair loss run its course untreated and unhidden. Others may cover it up with hairstyles, makeup, hats or scarves. And still others choose one of the treatments available to prevent further hair loss or restore growth.
-Before pursuing hair loss treatment, talk with your doctor about the cause of your hair loss and treatment options.
-hair loss
-Circular or patchy bald spots
-Sudden loosening of hair
-Full-body hair loss
-Patches of scaling that spread over the scalp
-Gradual thinning of the hair on your head
-Bald spot that grows slowly
-Receding hairline
-Widening part
-Thinner ponytail</t>
-  </si>
-  <si>
-    <t>Bad breath, also called halitosis, can be embarrassing and in some cases may even cause anxiety. It's no wonder that store shelves are overflowing with gum, mints, mouthwashes and other products designed to fight bad breath. But many of these products are only temporary measures because they don't address the cause of the problem.
-Certain foods, health conditions and habits are among the causes of bad breath. In many cases, you can improve bad breath with consistent proper dental hygiene. If simple self-care techniques don't solve the problem, see your dentist or physician to be sure a more serious condition isn't causing your bad breath.
-foul-smelling
-Bad breath odors</t>
-  </si>
-  <si>
-    <t>Bags under eyes are mild swelling or puffiness under the eyes. They're common as you age and the tissues around your eyes weaken, including some of the muscles supporting your eyelids. Fat that helps support the eyes can then move into the lower eyelids, causing them to appear puffy. Fluid may also accumulate below your eyes.
-Bags under eyes are usually a cosmetic concern and rarely a sign of a serious condition. At-home remedies, such as cool compresses, can help improve their appearance. For persistent or bothersome under-eye puffiness, eyelid surgery may be an option.
-mild swelling
-puffiness under the eyes
-Loose or sagging skin
-Dark circles</t>
-  </si>
-  <si>
-    <t>Bee stings are a common outdoor nuisance. In most cases, bee stings are just annoying, and home treatment is all that's necessary to ease the pain. But if you're allergic to bee stings or you get stung numerous times, you may have a more-serious reaction that requires emergency treatment.
-You can take several steps to avoid bee stings — as well as hornet and wasp stings — and find out how to treat them if you do get stung.
-Instant, sharp burning pain at the sting site
-A red welt at the sting area
-Slight swelling around the sting area
-Difficulty breathing
-Swelling of the throat and tongue
-A weak, rapid pulse
-Nausea, vomiting or diarrhea
-Dizziness or fainting
-Loss of consciousness</t>
-  </si>
-  <si>
-    <t>Body lice are tiny insects, about the size of a sesame seed. Body lice live in your clothing and bedding and travel to your skin several times a day to feed on blood. The most common sites for bites are around the neck, shoulders, armpits, waist and groin — places where clothing seams are most likely to touch skin.
-Body lice are most common in crowded and unhygienic living conditions, such as refugee camps and shelters for homeless people. They can also spread from contact with an infected person's clothes. Body lice bites can spread certain types of diseases and can even cause epidemics.
-Clothing and bedding that have been infested with body lice should be laundered in hot, soapy water and machine dried using the hot cycle.
-intense itching
-small areas of blood and crust on your skin
-bite marks</t>
-  </si>
-  <si>
-    <t>Sweating and body odor are common when you exercise or you're too warm. They're also common when you're feeling nervous, anxious or stressed.
-Unusual changes in sweating — either too much (hyperhidrosis) or too little (anhidrosis) — can be cause for concern. Changes in body odor also may signal a health problem.
-Otherwise, lifestyle and home treatments can usually help with normal sweating and body odor.
-sweat much more or less than usual
-sweating disrupts your daily routine
-experience night sweats for no apparent reason
-change in your body odor</t>
-  </si>
-  <si>
-    <t>Corns and calluses are thick, hardened layers of skin that develop when the skin tries to protect itself against friction or pressure. They often form on feet and toes or hands and fingers.
-If you're healthy, you don't need treatment for corns and calluses unless they cause pain or you don't like how they look. For most people, simply removing the source of the friction or pressure makes corns and calluses disappear.
-Hardened areas of skin where there is repeated friction or pressure on the skin (corns and calluses).
-Small, round, raised bump of hardened skin surrounded by irritated skin (more likely to be a corn).
-Thick, hardened, larger typically more flatten patch of skin (more likely to be callus).
-Less sensitivity to touch than the surrounding skin (more likely to be callus).
-Raised area of bump may be painful or cause discomfort (more likely to be corn).
-Pain, redness, blisters</t>
-  </si>
-  <si>
-    <t>Cavities are permanently damaged areas in the hard surface of your teeth that develop into tiny openings or holes. Cavities, also called tooth decay or caries, are caused by a combination of factors, including bacteria in your mouth, frequent snacking, sipping sugary drinks and not cleaning your teeth well.
-Cavities and tooth decay are among the world's most common health problems. They're especially common in children, teenagers and older adults. But anyone who has teeth can get cavities, including infants.
-If cavities aren't treated, they get larger and affect deeper layers of your teeth. They can lead to a severe toothache, infection and tooth loss. Regular dental visits and good brushing and flossing habits are your best protection against cavities and tooth decay.
-Toothache, spontaneous pain or pain that occurs without any apparent cause
-Tooth sensitivity
-Mild to sharp pain when eating or drinking something sweet, hot or cold
-Visible holes or pits in your teeth
-Brown, black or white staining on any surface of a tooth
-Pain when you bite down</t>
-  </si>
-  <si>
-    <t>Depression is a mood disorder that causes a persistent feeling of sadness and loss of interest. Also called major depressive disorder or clinical depression, it affects how you feel, think and behave and can lead to a variety of emotional and physical problems. You may have trouble doing normal day-to-day activities, and sometimes you may feel as if life isn't worth living. 
-More than just a bout of the blues, depression isn't a weakness and you can't simply "snap out" of it. Depression may require long-term treatment. But don't get discouraged. Most people with depression feel better with medication, psychotherapy or both.
-continuous low mood or sadness
-feeling hopeless and helpless
-having low self-esteem
-feeling tearful
-feeling guilt-ridden
-feeling irritable and intolerant of others
-having no motivation or interest in things
-finding it difficult to make decisions
-not getting any enjoyment out of life
-feeling anxious or worried
-having suicidal thoughts or thoughts of harming yourself
-moving or speaking more slowly than usual
-changes in appetite or weight (usually decreased, but sometimes increased)
-constipation
-unexplained aches and pains
-lack of energy
-low sex drive (loss of libido)
-changes to your menstrual cycle
-disturbed sleep</t>
-  </si>
-  <si>
-    <t>The common cold is a viral infection of your nose and throat (upper respiratory tract). It's usually harmless, although it might not feel that way. Many types of viruses can cause a common cold.
-Healthy adults can expect to have two or three colds each year. Infants and young children may have even more frequent colds.
-Most people recover from a common cold in a week or 10 days. Symptoms might last longer in people who smoke. Generally, you don't need medical attention for a common cold. However, if symptoms don't improve or if they get worse, see your doctor.
-Runny or stuffy nose
-Sore throat
-Cough
-Congestion
-Slight body aches or a mild headache
-Sneezing
-Low-grade fever
-Generally feeling unwell</t>
-  </si>
-  <si>
-    <t>Chronic constipation is infrequent bowel movements or difficult passage of stools that persists for several weeks or longer.
-Constipation is generally described as having fewer than three bowel movements a week.
-Though occasional constipation is very common, some people experience chronic constipation that can interfere with their ability to go about their daily tasks. Chronic constipation may also cause people to strain excessively in order to have a bowel movement.
-Treatment for chronic constipation depends in part on the underlying cause. However, in some cases, a cause is never found.
-Passing fewer than three stools a week
-Having lumpy or hard stools
-Straining to have bowel movements
-Feeling as though there's a blockage in your rectum that prevents bowel movements
-Feeling as though you can't completely empty the stool from your rectum
-Needing help to empty your rectum, such as using your hands to press on your abdomen and using a finger to remove stool from your rectum</t>
-  </si>
-  <si>
-    <t>Dandruff is a common condition that causes the skin on the scalp to flake. It isn't contagious or serious. But it can be embarrassing and difficult to treat.
-Mild dandruff can be treated with a gentle daily shampoo. If that doesn't work, a medicated shampoo may help. Symptoms may return later.
-Dandruff is a mild form of seborrheic dermatitis.
-Skin flakes on your scalp, hair, eyebrows, beard or mustache, and shoulders
-Itchy scalp
-Scaly, crusty scalp in infants with cradle cap</t>
-  </si>
-  <si>
-    <t>Dengue (DENG-gey) fever is a mosquito-borne illness that occurs in tropical and subtropical areas of the world. Mild dengue fever causes a high fever and flu-like symptoms. The severe form of dengue fever, also called dengue hemorrhagic fever, can cause serious bleeding, a sudden drop in blood pressure (shock) and death.
-Millions of cases of dengue infection occur worldwide each year. Dengue fever is most common in Southeast Asia, the western Pacific islands, Latin America and Africa. But the disease has been spreading to new areas, including local outbreaks in Europe and southern parts of the United States.
-Researchers are working on dengue fever vaccines. For now, in areas where dengue fever is common, the best ways to prevent infection are to avoid being bitten by mosquitoes and to take steps to reduce the mosquito population.
-high fever
-Headache
-Muscle, bone or joint pain
-Nausea
-Vomiting
-Pain behind the eyes
-Swollen glands
-Rash</t>
-  </si>
-  <si>
-    <t>Diarrhea — loose, watery and possibly more-frequent bowel movements — is a common problem. It may be present alone or be associated with other symptoms, such as nausea, vomiting, abdominal pain or weight loss.
-Luckily, diarrhea is usually short-lived, lasting no more than a few days. But when diarrhea lasts beyond a few days into weeks, it usually indicates that there's another problem — such as irritable bowel syndrome (IBS) or a more serious disorder, including persistent infection, celiac disease or inflammatory bowel disease (IBD).
-Abdominal cramps or pain
-Bloating
-Nausea
-Vomiting
-Fever
-Blood in the stool
-Mucus in the stool
-Urgent need to have a bowel movement</t>
-  </si>
-  <si>
-    <t>Dizziness is a term used to describe a range of sensations, such as feeling faint, woozy, weak or unsteady. Dizziness that creates the false sense that you or your surroundings are spinning or moving is called vertigo.
-Dizziness is one of the more common reasons adults visit their doctors. Frequent dizzy spells or constant dizziness can significantly affect your life. But dizziness rarely signals a life-threatening condition.
-Treatment of dizziness depends on the cause and your symptoms. It's usually effective, but the problem may recur.
-A false sense of motion or spinning (vertigo)
-Lightheadedness or feeling faint
-Unsteadiness or a loss of balance
-A feeling of floating, wooziness or heavy-headedness</t>
-  </si>
-  <si>
-    <t>Farsightedness (hyperopia) is a common vision condition in which you can see distant objects clearly, but objects nearby may be blurry.
-The degree of your farsightedness influences your focusing ability. People with severe farsightedness may be able to clearly see only objects a great distance away, while those with mild farsightedness may be able to clearly see objects that are closer.
-Farsightedness usually is present at birth and tends to run in families. You can easily correct this condition with eyeglasses or contact lenses. Another treatment option is surgery.
-Nearby objects may appear blurry
-You need to squint to see clearly
-eyestrain, 
-burning eyes
-aching in or around the eyes
-general eye discomfort 
-headache after doing close tasks</t>
-  </si>
-  <si>
-    <t>It's normal to feel anxious from time to time, especially if your life is stressful. However, excessive, ongoing anxiety and worry that are difficult to control and interfere with day-to-day activities may be a sign of generalized anxiety disorder.
-It's possible to develop generalized anxiety disorder as a child or an adult. Generalized anxiety disorder has symptoms that are similar to panic disorder, obsessive-compulsive disorder and other types of anxiety, but they're all different conditions.
-Living with generalized anxiety disorder can be a long-term challenge. In many cases, it occurs along with other anxiety or mood disorders. In most cases, generalized anxiety disorder improves with psychotherapy or medications. Making lifestyle changes, learning coping skills and using relaxation techniques also can help.
-Persistent worrying or anxiety about a number of areas that are out of proportion to the impact of the events
-Overthinking plans and solutions to all possible worst-case outcomes
-Perceiving situations and events as threatening, even when they aren't
-Difficulty handling uncertainty
-Indecisiveness and fear of making the wrong decision
-Inability to set aside or let go of a worry
-Inability to relax, feeling restless, and feeling keyed up or on edge
-Difficulty concentrating, or the feeling that your mind "goes blank"</t>
-  </si>
-  <si>
-    <t>Head lice are tiny insects that feed on blood from the human scalp. Head lice most often affect children. The insects usually spread through direct transfer from the hair of one person to the hair of another.
-Having head lice isn't a sign of poor personal hygiene or an unclean living environment. Head lice don't carry bacterial or viral diseases.
-Nonprescription and prescription medications can help treat head lice. Follow treatment instructions carefully to rid the scalp and hair of lice and their eggs.
-People also use a number of home or natural remedies to get rid of head lice. But there is little to no clinical evidence that they're effective.
-Itching
-Lice on scalp
-Lice eggs (nits) on hair shafts.
-Sores on the scalp, neck and shoulders</t>
-  </si>
-  <si>
-    <t>Hiccups are involuntary contractions of the diaphragm — the muscle that separates your chest from your abdomen and plays an important role in breathing. Each contraction is followed by a sudden closure of your vocal cords, which produces the characteristic "hic" sound.
-Hiccups may result from a large meal, alcoholic or carbonated beverages or sudden excitement. In some cases, hiccups may be a sign of an underlying medical condition. For most people, a bout of hiccups usually lasts only a few minutes. Rarely, hiccups may persist for months. This can result in weight loss and exhaustion.
-hiccup
-slight tightening sensation in your chest, abdomen or throat</t>
-  </si>
-  <si>
-    <t>Indigestion — also called dyspepsia or an upset stomach — is discomfort in your upper abdomen. Indigestion describes certain symptoms, such as abdominal pain and a feeling of fullness soon after you start eating, rather than a specific disease. Indigestion can also be a symptom of various digestive diseases.
-Although indigestion is common, each person may experience indigestion in a slightly different way. Symptoms of indigestion may be felt occasionally or as often as daily.
-Indigestion may often be relieved with lifestyle changes and medications.
-Early fullness during a meal. 
-Uncomfortable fullness after a meal
-Discomfort in the upper abdomen
-Burning in the upper abdomen 
-Bloating in the upper abdomen
-Nausea</t>
-  </si>
-  <si>
-    <t>Ingrown hair occurs when a hair that's been removed starts to grow back and curves into the skin. Shaving, tweezing or waxing can cause this to happen. An ingrown hair can cause tiny, swollen bumps on the skin that may hurt. The condition most often affects Black people with curly hair who shave.
-Most instances of ingrown hair get better without treatment. You can avoid this condition by not removing hair or not shaving very close to the skin. If that's not an option, you might try other hair removal methods that lessen the risk of developing ingrown hair.
-Tiny, swollen bumps where you shave, tweeze or wax
-Small bumps that look like blisters or are filled with pus
-Small bumps that are darker than surrounding skin (hyperpigmentation)
-Burning or stinging
-Itching
-Hair in the shape of a loop because the tip of the hair curves and grows into the skin</t>
-  </si>
-  <si>
-    <t>Ingrown toenails are a common condition in which the corner or side of a toenail grows into the soft flesh. The result is pain, inflamed skin, swelling and, sometimes, an infection. Ingrown toenails usually affect the big toe.
-Often you can take care of ingrown toenails on your own. If the pain is severe or spreading, your health care provider can take steps to relieve your discomfort and help you avoid complications of ingrown toenails.
-If you have diabetes or another condition that causes poor blood flow to your feet, you're at greater risk of complications of ingrown toenails.
-Pain and tenderness in nails
-Inflamed skin in nails
-Swelling of nails
-Infection in nails</t>
-  </si>
-  <si>
-    <t>Menstrual cramps (dysmenorrhea) are throbbing or cramping pains in the lower abdomen. Many women have menstrual cramps just before and during their menstrual periods.
-For some women, the discomfort is merely annoying. For others, menstrual cramps can be severe enough to interfere with everyday activities for a few days every month.
-Conditions such as endometriosis or uterine fibroids can cause menstrual cramps. Treating the cause is key to reducing the pain. Menstrual cramps that aren't caused by another condition tend to lessen with age and often improve after giving birth.
-Throbbing or cramping pain in your lower abdomen that can be intense
-Pain that starts 1 to 3 days before your period, peaks 24 hours after the onset of your period and subsides in 2 to 3 days
-Dull, continuous ache
-Pain that radiates to your lower back and thighs
-Nausea
-Loose stools
-Headache
-Dizziness</t>
-  </si>
-  <si>
-    <t>A migraine is a headache that can cause severe throbbing pain or a pulsing sensation, usually on one side of the head. It's often accompanied by nausea, vomiting, and extreme sensitivity to light and sound. Migraine attacks can last for hours to days, and the pain can be so severe that it interferes with your daily activities.
-For some people, a warning symptom known as an aura occurs before or with the headache. An aura can include visual disturbances, such as flashes of light or blind spots, or other disturbances, such as tingling on one side of the face or in an arm or leg and difficulty speaking.
-Medications can help prevent some migraines and make them less painful. The right medicines, combined with self-help remedies and lifestyle changes, might help.
-Pain usually on one side of your head, but often on both sides
-Pain that throbs or pulses
-Sensitivity to light, sound, and sometimes smell and touch
-Nausea and vomiting</t>
-  </si>
-  <si>
-    <t>Mosquito bites are the itchy bumps that appear after mosquitoes use their mouthparts to puncture your skin and feed on your blood. The bump usually clears up on its own in a few days. Occasionally a mosquito bite causes a large area of swelling, soreness and redness. This type of reaction, most common in children, is sometimes referred to as skeeter syndrome.
-Bites from mosquitoes carrying certain viruses or parasites can cause severe illness. Infected mosquitoes in many parts of the world transmit West Nile virus to humans. Other mosquito-borne infections include yellow fever, malaria and some types of brain infection (encephalitis).
-An itchy, inflamed bump that forms a few minutes after a bite
-A painful spot that looks like a hive and forms within 24 hours after a bite
-Small blisters
-A large, swollen, inflamed area
-A hive-like rash
-Swelling around the eyes</t>
-  </si>
-  <si>
-    <t>A muscle cramp is a sudden and involuntary contraction of one or more of your muscles. If you've ever been awakened in the night or stopped in your tracks by a sudden charley horse, you know that muscle cramps can cause severe pain. Though generally harmless, muscle cramps can make it temporarily impossible to use the affected muscle.
-Long periods of exercise or physical labor, particularly in hot weather, can lead to muscle cramps. Some medications and certain medical conditions also may cause muscle cramps. You usually can treat muscle cramps at home with self-care measures.
-Cause severe discomfort
-Are associated with leg swelling, redness or skin changes
-Are associated with muscle weakness
-Happen frequently
-Don't improve with self-care
-Aren't associated with an obvious cause, such as strenuous exercise</t>
-  </si>
-  <si>
-    <t>Nearsightedness (myopia) is a common vision condition in which near objects appear clear, but objects farther away look blurry. It occurs when the shape of the eye — or the shape of certain parts of the eye — causes light rays to bend (refract) inaccurately. Light rays that should be focused on nerve tissues at the back of the eye (retina) are focused in front of the retina.
-Nearsightedness usually develops during childhood and adolescence, and it usually becomes more stable between the ages of 20 and 40. Myopia tends to run in families.
-A basic eye exam can confirm nearsightedness. You can compensate for the blurry vision with eyeglasses, contact lenses or refractive surgery.
-Blurry vision when looking at distant objects
-The need to squint or partially close the eyelids to see clearly
-Headaches
-Eyestrain</t>
-  </si>
-  <si>
-    <t>Neck pain is common. Poor posture — whether from leaning over a computer or hunching over a workbench — strains neck muscles. Osteoarthritis also is a common cause of neck pain.
-Rarely, neck pain can be a symptom of a more serious problem. Seek medical care for neck pain with numbness or loss of strength in the arms or hands or for pain that shoots into a shoulder or down an arm.
-Pain that's often worsened by holding the head in one place for long periods, such as when driving or working at a computer
-Muscle tightness and spasms
-Decreased ability to move the head
-Headache</t>
-  </si>
-  <si>
-    <t>Obesity is a complex disease involving an excessive amount of body fat. Obesity isn't just a cosmetic concern. It's a medical problem that increases the risk of other diseases and health problems, such as heart disease, diabetes, high blood pressure and certain cancers.
-There are many reasons why some people have difficulty losing weight. Usually, obesity results from inherited, physiological and environmental factors, combined with diet, physical activity and exercise choices.
-The good news is that even modest weight loss can improve or prevent the health problems associated with obesity. A healthier diet, increased physical activity and behavior changes can help you lose weight. Prescription medications and weight-loss procedures are additional options for treating obesity.
-Body mass index (BMI) of 23 or higher</t>
-  </si>
-  <si>
-    <t>Obsessive-compulsive disorder (OCD) features a pattern of unwanted thoughts and fears (obsessions) that lead you to do repetitive behaviors (compulsions). These obsessions and compulsions interfere with daily activities and cause significant distress. 
-You may try to ignore or stop your obsessions, but that only increases your distress and anxiety. Ultimately, you feel driven to perform compulsive acts to try to ease your stress. Despite efforts to ignore or get rid of bothersome thoughts or urges, they keep coming back. This leads to more ritualistic behavior — the vicious cycle of OCD. 
-OCD often centers around certain themes — for example, an excessive fear of getting contaminated by germs. To ease your contamination fears, you may compulsively wash your hands until they're sore and chapped. 
-If you have OCD, you may be ashamed and embarrassed about the condition, but treatment can be effective.
-Fear of contamination or dirt
-Doubting and having difficulty tolerating uncertainty
-Needing things orderly and symmetrical
-Aggressive or horrific thoughts about losing control and harming yourself or others
-Unwanted thoughts, including aggression, or sexual or religious subjects
-Fear of being contaminated by touching objects others have touched
-Doubts that you've locked the door or turned off the stove
-Intense stress when objects aren't orderly or facing a certain way
-Images of driving your car into a crowd of people
-Thoughts about shouting obscenities or acting inappropriately in public
-Unpleasant sexual images
-Avoidance of situations that can trigger obsessions, such as shaking hands</t>
-  </si>
-  <si>
-    <t>A panic attack is a sudden episode of intense fear that triggers severe physical reactions when there is no real danger or apparent cause. Panic attacks can be very frightening. When panic attacks occur, you might think you're losing control, having a heart attack or even dying. 
-Many people have just one or two panic attacks in their lifetimes, and the problem goes away, perhaps when a stressful situation ends. But if you've had recurrent, unexpected panic attacks and spent long periods in constant fear of another attack, you may have a condition called panic disorder. 
-Although panic attacks themselves aren't life-threatening, they can be frightening and significantly affect your quality of life. But treatment can be very effective.
-Sense of impending doom or danger
-Fear of loss of control or death
-Rapid, pounding heart rate
-Sweating
-Trembling or shaking
-Shortness of breath or tightness in your throat
-Chills
-Hot flashes
-Nausea
-Abdominal cramping
-Chest pain
-Headache
-Dizziness, lightheadedness or faintness
-Numbness or tingling sensation
-Feeling of unreality or detachment</t>
-  </si>
-  <si>
-    <t>Pink eye (conjunctivitis) is an inflammation or infection of the transparent membrane (conjunctiva) that lines your eyelid and covers the white part of your eyeball. When small blood vessels in the conjunctiva become inflamed, they're more visible. This is what causes the whites of your eyes to appear reddish or pink. 
-Pink eye is commonly caused by a bacterial or viral infection, an allergic reaction, or — in babies — an incompletely opened tear duct. 
-Though pink eye can be irritating, it rarely affects your vision. Treatments can help ease the discomfort of pink eye. Because pink eye can be contagious, early diagnosis and treatment can help limit its spread.
-Redness in one or both eyes
-Itchiness in one or both eyes
-A gritty feeling in one or both eyes
-A discharge in one or both eyes that forms a crust during the night that may prevent your eye or eyes from opening in the morning
-Tearing</t>
-  </si>
-  <si>
-    <t>Polycystic ovary syndrome (PCOS) is a problem with hormones that happens during the reproductive years. If you have PCOS, you may not have periods very often. Or you may have periods that last many days. You may also have too much of a hormone called androgen in your body. 
-With PCOS, many small sacs of fluid develop along the outer edge of the ovary. These are called cysts. The small fluid-filled cysts contain immature eggs. These are called follicles. The follicles fail to regularly release eggs. 
-The exact cause of PCOS is unknown. Early diagnosis and treatment along with weight loss may lower the risk of long-term complications such as type 2 diabetes and heart disease.
-Irregular periods. Having few menstrual periods or having periods that aren't regular are common signs of PCOS. So is having periods that last for many days or longer than is typical for a period. For example, you might have fewer than nine periods a year. And those periods may occur more than 35 days apart. You may have trouble getting pregnant.
-Too much androgen. High levels of the hormone androgen may result in excess facial and body hair. This is called hirsutism. Sometimes, severe acne and male-pattern baldness can happen, too.
-Polycystic ovaries. Your ovaries might be bigger. Many follicles containing immature eggs may develop around the edge of the ovary. The ovaries might not work the way they should.</t>
-  </si>
-  <si>
-    <t>Premenstrual syndrome (PMS) has a wide variety of signs and symptoms, including mood swings, tender breasts, food cravings, fatigue, irritability and depression. It's estimated that as many as 3 of every 4 menstruating women have experienced some form of premenstrual syndrome. 
-Symptoms tend to recur in a predictable pattern. But the physical and emotional changes you experience with premenstrual syndrome may vary from just slightly noticeable all the way to intense. 
-Still, you don't have to let these problems control your life. Treatments and lifestyle adjustments can help you reduce or manage the signs and symptoms of premenstrual syndrome.
-Joint or muscle pain
-Headache
-Fatigue
-Weight gain related to fluid retention
-Abdominal bloating
-Breast tenderness
-Acne flare-ups
-Constipation or diarrhea
-Alcohol intolerance
-Tension or anxiety
-Depressed mood
-Crying spells
-Mood swings and irritability or anger
-Appetite changes and food cravings
-Trouble falling asleep (insomnia)
-Social withdrawal
-Poor concentration
-Change in libido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat rash — also known as prickly heat and miliaria — isn't just for babies. It affects adults, too, especially in hot, humid conditions. 
-Heat rash occurs when sweat is trapped in the skin. Symptoms can range from small blisters to deep, inflamed lumps. Some forms of heat rash are very itchy. 
-Heat rash usually goes away once the skin cools down. Severe forms of the condition might need treatment from a health care provider.
-</t>
-  </si>
-  <si>
-    <t>Snoring is the hoarse or harsh sound that occurs when air flows past relaxed tissues in your throat, causing the tissues to vibrate as you breathe. Nearly everyone snores now and then, but for some people it can be a chronic problem. Sometimes it may also indicate a serious health condition. In addition, snoring can be a nuisance to your partner. 
-Lifestyle changes, such as losing weight, avoiding alcohol close to bedtime or sleeping on your side, can help stop snoring. 
-In addition, medical devices and surgery are available that may reduce disruptive snoring. However, these aren't suitable or necessary for everyone who snores.
-Witnessed breathing pauses during sleep
-Excessive daytime sleepiness
-Difficulty concentrating
-Morning headaches
-Sore throat upon awakening
-Restless sleep
-Gasping or choking at night
-High blood pressure
-Chest pain at night
-Your snoring is so loud it's disrupting your partner's sleep
-In children, poor attention span, behavioral issues or poor performance in school</t>
-  </si>
-  <si>
-    <t>It's normal to feel nervous in some social situations. For example, going on a date or giving a presentation may cause that feeling of butterflies in your stomach. But in social anxiety disorder, also called social phobia, everyday interactions cause significant anxiety, self-consciousness and embarrassment because you fear being scrutinized or judged negatively by others. 
-In social anxiety disorder, fear and anxiety lead to avoidance that can disrupt your life. Severe stress can affect your relationships, daily routines, work, school or other activities. 
-Social anxiety disorder can be a chronic mental health condition, but learning coping skills in psychotherapy and taking medications can help you gain confidence and improve your ability to interact with others.
-Fear of situations in which you may be judged negatively
-Worry about embarrassing or humiliating yourself
-Intense fear of interacting or talking with strangers
-Fear that others will notice that you look anxious
-Fear of physical symptoms that may cause you embarrassment, such as blushing, sweating, trembling or having a shaky voice
-Avoidance of doing things or speaking to people out of fear of embarrassment
-Avoidance of situations where you might be the center of attention
-Anxiety in anticipation of a feared activity or event
-Intense fear or anxiety during social situations
-Analysis of your performance and identification of flaws in your interactions after a social situation
-Expectation of the worst possible consequences from a negative experience during a social situation</t>
-  </si>
-  <si>
-    <t>Sunburn is inflamed, painful skin that feels hot to the touch. It often appears within a few hours of being in the sun too long. 
-You can get sunburn relief with simple self-care measures such as taking pain relievers and cooling the skin. But it may take days for the sunburn to fade. 
-Preventing sunburn year-round by wearing sunscreen or using other skin-protection habits is important for everyone. It is especially important when you're outdoors, even on cool or cloudy days.
-Inflamed skin, which looks pink or red on white skin and may be harder to see on brown or Black skin
-Skin that feels warm or hot to the touch
-Pain, tenderness and itching
-Swelling
-Small, fluid-filled blisters, which may break
-Headache, fever, nausea and fatigue, if the sunburn is severe
-Eyes that feel painful or gritty</t>
-  </si>
-  <si>
-    <t>Wrist pain is often caused by sprains or fractures from sudden injuries. But wrist pain also can result from long-term problems, such as repetitive stress, arthritis and carpal tunnel syndrome. 
-Because so many factors can lead to wrist pain, diagnosing the exact cause can be difficult. But an accurate diagnosis is essential for proper treatment and healing.
-pins-and-needles feeling in wrist
-tinglinging sensation in wrist
-pain in wrist</t>
+    <t>Maintain a healthy weight. Excess pounds put pressure on your abdomen, pushing up your stomach and causing acid to reflux into your esophagus.
+Stop smoking. Smoking decreases the lower esophageal sphincter's ability to function properly.
+Elevate the head of your bed.
+If you regularly experience heartburn while trying to sleep, place wood or cement blocks under the feet of your bed so that the head end is raised by 6 to 9 inches. 
+https://www.wikihow.com/images/thumb/3/33/Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg/v4-460px-Relieve-Acid-Reflux-with-a-Raised-Bed-Step-5-Version-2.jpg.webp
+Start on your left side. When you go to bed, start by lying on your left side to help make it less likely that you will have reflux.
+Don't lie down after a meal. Wait at least three hours after eating before lying down or going to bed.
+Eat food slowly and chew thoroughly. Put down your fork after every bite and pick it up again once you have chewed and swallowed that bite.
+Avoid foods and drinks that trigger reflux. Common triggers include alcohol, chocolate, caffeine, fatty foods or peppermint.
+https://integrisok.com/-/media/Blog/22-Q2/OYH_acid-reflux2.ashx
+Avoid tight-fitting clothing. Clothes that fit tightly around your waist put pressure on your abdomen and the lower esophageal sphincter.</t>
+  </si>
+  <si>
+    <t>Wash problem areas with a gentle cleanser. Twice a day, use your hands to wash your face with mild soap or a gentle cleanser (Cetaphil, Vanicream, others) and warm water. 
+Use Tea tree oil. Gels containing at least 5% tea tree oil may be as effective as lotions containing 5% benzoyl peroxide, although tea tree oil might work more slowly.
+Try over-the-counter acne products containing benzoyl peroxide and adapalene as the active ingredients. 
+Avoid irritants. Oily or greasy cosmetics, sunscreens, hairstyling products or acne concealers can worsen acne. 
+Instead, use products labeled water-based or noncomedogenic, which means they are less likely to cause acne.
+Protect your acne-prone skin from contact with items such as phones, helmets, tight collars or straps, and backpacks.
+Avoid touching or picking acne-prone areas. Doing so can trigger more acne or lead to infection or scarring.
+Shower after strenuous activities. Oil and sweat on your skin can lead to breakouts.</t>
+  </si>
+  <si>
+    <t>Rest. This will help your body fight infection and speed recovery.
+Drink fluids. Continue to drink plenty of fluids.
+Use a warm compress. A warm compress on your nose and forehead may help relieve the pressure in your sinuses.
+Moisten your sinus cavities. Drape a towel over your head as you breathe in the vapor from a bowl of hot water. Keep the vapor directed toward your face. 
+Or take a hot shower, breathing in the warm, moist air. This will help ease pain and help mucus drain.
+Rinse your nasal passages. Use a specially designed squeeze bottle (Sinus Rinse, others) or neti pot. This home remedy, called nasal lavage, can help clear your sinuses.
+https://www.inmunotek.com/wp-content/uploads/2017/06/Captura-de-pantalla-2017-06-06-a-las-18.08.28.png</t>
+  </si>
+  <si>
+    <t>Honey And Lemon. Honey's potential antibacterial and anti-inflammatory properties help in cleansing the scalp and impurities that might be clogging hair follicles. Honey has humectant properties too. All of these aid in strengthening hair and boosting hair growth.
+Fenugreek. Dihydrotestosterone is an important hormone that regulates hair cycling. The imbalance of dihydrotestosterone and increased DHT activity is one of the reasons for hair loss due to androgenic alopecia. Here is when tiny fenugreek seeds come to rescue by preventing increased DHT activity and disbalance. These power-packed seeds promote hair growth and reduce the severity of androgenic alopecia.
+Onions. Onions are a key ingredient in any Indian cooking. While they add flavour and taste to most recipes, there are many reasons to stock up on onions in your kitchen shelves. To combat bald patches in alopecia areata, onions are a boon. They contain a high amount of sulfur that fights free radical damage, improves blood circulation in the scalp, and prevents any kind of infection.
+Garlic. Just like onions, garlic is sulfur-rich veggie and is one of the best natural treatments for alopecia. It boosts hair growth and prevents hair fall by increasing collagen production. 
+Hibiscus And Dandelion Oil. A flowery herbal remedy for alopecia areata, hibiscus flower boosts hair growth besides making your hair look super lustrous.
+Oatmeal. Oats are one superfood replete with hair-loving nutrients such as fibre, zinc, omega 3, iron, and omega-6 fatty acids. Oats are also enriched with saponin, beta-glucan, and protein. All of this makes a perfect recipe that supports hair growth. The best way to add oatmeal to your body is to have it in some part of your daily meal. 
+Aloe Vera Extract. Frequently recommended for application on the scalp, aloe vera gel is very beneficial. 
+Milk Thistle. Milk thistle is a popular herbal remedy that has been used for its therapeutic effects for centuries. Laden with many antioxidants, it is said to prevent hair fall and strengthen roots.
+https://qph.cf2.quoracdn.net/main-qimg-52a43e3949a93bae225ac760ba2bca68-lq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5914,6 +5907,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5923,7 +5922,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5946,17 +5945,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5970,7 +5984,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6283,23 +6302,23 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6319,1120 +6338,1120 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>149</v>
+        <v>167</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>155</v>
+        <v>174</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>167</v>
+        <v>188</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>173</v>
+        <v>195</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>191</v>
+        <v>216</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>197</v>
+        <v>223</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>204</v>
+        <v>231</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>210</v>
+        <v>238</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>216</v>
+        <v>245</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>223</v>
+        <v>253</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="5" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>229</v>
+        <v>260</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="5" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>236</v>
+        <v>268</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>243</v>
+        <v>276</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>250</v>
+        <v>284</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="5" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="4" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>256</v>
+        <v>291</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>262</v>
+        <v>298</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>269</v>
+        <v>306</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>275</v>
+        <v>313</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>281</v>
+        <v>320</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
